--- a/target/classes/tablesSchema.xlsx
+++ b/target/classes/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="12405" windowHeight="2760" tabRatio="690" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="23280" windowHeight="4785" tabRatio="690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -21,12 +21,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">SummarizedInformation!$A$2:$E$13</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="470">
   <si>
     <t>Type</t>
   </si>
@@ -1306,9 +1305,6 @@
     <t>Sample/case assessment</t>
   </si>
   <si>
-    <t>OR((RELATION{SummarizedInformation,type.code}!=CWD),(RELATION{Report,isExceptionCountry.label}==No))</t>
-  </si>
-  <si>
     <t>First test type</t>
   </si>
   <si>
@@ -1417,22 +1413,28 @@
     <t>%type.code|$%anMethType.code</t>
   </si>
   <si>
+    <t>IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,defScreeningBSE.code},)</t>
+  </si>
+  <si>
+    <t>(%type.code==SCRAPIE)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(%statusHerd.code,statusHerd=%statusHerd.code,)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.label}==No)),F01.A056M,)</t>
+  </si>
+  <si>
+    <t>%type.code|IF((%type.code==CWD),$RELATION{Preferences,cwdExtCont.label},)</t>
+  </si>
+  <si>
+    <t>OR((RELATION{SummarizedInformation,type.code}!=CWD),(RELATION{Preferences,cwdExtCont.label}==No))</t>
+  </si>
+  <si>
     <t>IF((%type.code==RGT),,AT06A)</t>
   </si>
   <si>
-    <t>IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,defScreeningBSE.code},)</t>
-  </si>
-  <si>
-    <t>(%type.code==SCRAPIE)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(%statusHerd.code,statusHerd=%statusHerd.code,)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.label}==No)),F01.A056M,)</t>
-  </si>
-  <si>
-    <t>%type.code|IF((%type.code==CWD),$RELATION{Preferences,cwdExtCont.label},)</t>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1469,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1484,6 +1486,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1567,7 +1575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1600,6 +1608,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3123,7 +3132,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S39" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
   <autoFilter ref="A1:S39"/>
   <sortState ref="A2:S39">
-    <sortCondition ref="R1:R39"/>
+    <sortCondition ref="A1:A39"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="79"/>
@@ -3775,7 +3784,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3789,7 +3798,7 @@
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
     <col min="13" max="14" width="14.140625" customWidth="1"/>
     <col min="15" max="16" width="14.7109375" customWidth="1"/>
     <col min="17" max="17" width="14.140625" customWidth="1"/>
@@ -3892,16 +3901,16 @@
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="E3" s="27" t="s">
         <v>451</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>452</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>12</v>
@@ -3919,16 +3928,16 @@
         <v>9</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>3</v>
@@ -4307,7 +4316,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4884,11 +4893,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4974,66 +4983,57 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
+        <v>79</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>316</v>
+        <v>4</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>3</v>
+        <v>379</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>379</v>
@@ -5042,19 +5042,16 @@
         <v>3</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>467</v>
+        <v>316</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>9</v>
@@ -5062,25 +5059,28 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>58</v>
+        <v>93</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>70</v>
+        <v>429</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>3</v>
+        <v>379</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>379</v>
@@ -5089,19 +5089,22 @@
         <v>3</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>316</v>
+        <v>461</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>318</v>
+        <v>462</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>462</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R4" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>9</v>
@@ -5109,66 +5112,57 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>74</v>
+        <v>88</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>379</v>
+        <v>4</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>379</v>
+        <v>4</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>316</v>
+        <v>4</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="6">
-        <v>4</v>
-      </c>
-      <c r="S5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>426</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>18</v>
+        <v>428</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>379</v>
@@ -5180,16 +5174,22 @@
         <v>3</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>108</v>
+        <v>310</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>316</v>
+        <v>460</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>468</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R6" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>9</v>
@@ -5197,223 +5197,162 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>457</v>
+        <v>352</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>458</v>
+        <v>353</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>405</v>
+        <v>176</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="P7"/>
+        <v>4</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="Q7" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="R7" s="6">
-        <v>6</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>429</v>
+        <v>85</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>379</v>
+        <v>4</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>379</v>
+        <v>4</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>463</v>
+        <v>87</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R8" s="6">
-        <v>7</v>
-      </c>
-      <c r="S8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>430</v>
+        <v>81</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>379</v>
+        <v>4</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>379</v>
+        <v>4</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>462</v>
+        <v>4</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>464</v>
+        <v>83</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R9" s="6">
-        <v>8</v>
-      </c>
-      <c r="S9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="G11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="6">
-        <v>9</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>459</v>
-      </c>
       <c r="I11" s="6" t="s">
-        <v>459</v>
+        <v>379</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="K11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="Q11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R11" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>9</v>
@@ -5421,244 +5360,199 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>379</v>
+        <v>3</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>379</v>
+        <v>4</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R12" s="6">
-        <v>11</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="G13" s="17" t="s">
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>379</v>
+        <v>4</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>379</v>
+        <v>4</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>378</v>
+        <v>4</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R13" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>379</v>
+        <v>4</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>379</v>
+        <v>4</v>
       </c>
       <c r="J14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="6">
-        <v>13</v>
-      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>20</v>
+      <c r="A15" s="25" t="s">
+        <v>422</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>4</v>
+        <v>458</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>4</v>
+        <v>458</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="6" t="s">
-        <v>313</v>
-      </c>
       <c r="Q15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R15" s="6">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>379</v>
+        <v>4</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>379</v>
+        <v>4</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>378</v>
+        <v>4</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R16" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>394</v>
+        <v>174</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>324</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R17" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>240</v>
@@ -5675,23 +5569,32 @@
       <c r="J18" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="N18" s="6" t="s">
+        <v>296</v>
+      </c>
       <c r="P18" s="6" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>353</v>
+        <v>97</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>176</v>
       </c>
+      <c r="G19" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H19" s="6" t="s">
         <v>4</v>
       </c>
@@ -5701,28 +5604,28 @@
       <c r="J19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O19" s="6" t="s">
-        <v>4</v>
+      <c r="P19" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>176</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>4</v>
@@ -5733,31 +5636,28 @@
       <c r="J20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>87</v>
+      <c r="P20" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>176</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>4</v>
@@ -5768,22 +5668,28 @@
       <c r="J21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>83</v>
+      <c r="N21" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="Q21" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>179</v>
+        <v>99</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>4</v>
@@ -5794,19 +5700,22 @@
       <c r="J22" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="P22" s="6" t="s">
+        <v>464</v>
+      </c>
       <c r="Q22" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>176</v>
@@ -5824,24 +5733,27 @@
         <v>4</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>383</v>
+        <v>314</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>176</v>
+        <v>240</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>4</v>
@@ -5852,28 +5764,31 @@
       <c r="J24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="6" t="s">
-        <v>407</v>
+      <c r="N24" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>300</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>176</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>4</v>
@@ -5884,22 +5799,28 @@
       <c r="J25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N25" s="6" t="s">
-        <v>221</v>
-      </c>
       <c r="P25" s="6" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>174</v>
+        <v>55</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>4</v>
@@ -5910,57 +5831,54 @@
       <c r="J26" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="M26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="Q26" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>8</v>
@@ -5974,249 +5892,310 @@
       <c r="J28" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="N28" s="6" t="s">
+        <v>296</v>
+      </c>
       <c r="P28" s="6" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="P30"/>
+      <c r="Q30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R30" s="6">
+        <v>6</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R31" s="6">
+        <v>2</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="6">
+        <v>9</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G31" s="6" t="s">
+      <c r="H33" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="G34" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="H34" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R34" s="6">
+        <v>11</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G35" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="H35" s="6" t="s">
-        <v>4</v>
+        <v>379</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>4</v>
+        <v>379</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>421</v>
+        <v>3</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="R35" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>240</v>
@@ -6231,97 +6210,139 @@
         <v>4</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>296</v>
+        <v>3</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="R36" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>180</v>
+        <v>30</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>175</v>
+        <v>240</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>4</v>
+        <v>379</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>4</v>
+        <v>379</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="R37" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>89</v>
+        <v>14</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>4</v>
+        <v>379</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>4</v>
+        <v>379</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>315</v>
+        <v>3</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="R38" s="6">
+        <v>5</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>176</v>
       </c>
+      <c r="G39" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="H39" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>466</v>
+        <v>3</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="R39" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6338,10 +6359,10 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6426,7 +6447,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
         <v>193</v>
@@ -6572,11 +6593,11 @@
       <c r="H5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>426</v>
+      <c r="I5" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>467</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>408</v>
@@ -6652,7 +6673,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>3</v>
@@ -6690,7 +6711,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>3</v>
@@ -6878,7 +6899,7 @@
         <v>219</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>3</v>
@@ -6919,10 +6940,10 @@
         <v>199</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>381</v>
@@ -6934,7 +6955,7 @@
         <v>305</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>5</v>
@@ -6963,7 +6984,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>3</v>
@@ -7003,7 +7024,7 @@
         <v>284</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>3</v>
@@ -7039,7 +7060,7 @@
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I17" s="20" t="s">
         <v>3</v>
@@ -7086,10 +7107,10 @@
         <v>3</v>
       </c>
       <c r="K18" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>456</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>5</v>
@@ -7247,11 +7268,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7608,19 +7629,19 @@
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>441</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>442</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>176</v>
@@ -7687,7 +7708,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
@@ -7695,10 +7716,10 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>176</v>
@@ -7713,7 +7734,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
@@ -8355,13 +8376,13 @@
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>432</v>
-      </c>
       <c r="C33" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>176</v>
@@ -8376,7 +8397,7 @@
         <v>4</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>9</v>
@@ -8544,13 +8565,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>437</v>
-      </c>
       <c r="C39" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>176</v>
@@ -8565,7 +8586,7 @@
         <v>4</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>9</v>

--- a/target/classes/tablesSchema.xlsx
+++ b/target/classes/tablesSchema.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="470">
   <si>
     <t>Type</t>
   </si>
@@ -4894,10 +4894,10 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N36" sqref="N36"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5386,6 +5386,12 @@
       <c r="J12" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="M12" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="O12" s="6" t="s">
         <v>324</v>
       </c>
@@ -6051,10 +6057,7 @@
       <c r="L32" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="M32" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="N32" s="6" t="s">
+      <c r="O32" s="6" t="s">
         <v>469</v>
       </c>
       <c r="Q32" s="6" t="s">

--- a/target/classes/tablesSchema.xlsx
+++ b/target/classes/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="23280" windowHeight="4785" tabRatio="690" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20730" windowHeight="6705" tabRatio="690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="471">
   <si>
     <t>Type</t>
   </si>
@@ -1383,58 +1383,61 @@
     <t>Flag to include sex and PSU in aggregated data</t>
   </si>
   <si>
+    <t>yesNoLists</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Sex of the animals</t>
+  </si>
+  <si>
+    <t>AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.label}==Yes))</t>
+  </si>
+  <si>
+    <t>IF(OR((%type.code!=CWD),(RELATION{Preferences,cwdExtCont.label}==No)),F32.A0C9B,)</t>
+  </si>
+  <si>
+    <t>BSE</t>
+  </si>
+  <si>
+    <t>%type.code|$%anMethType.code</t>
+  </si>
+  <si>
+    <t>IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,defScreeningBSE.code},)</t>
+  </si>
+  <si>
+    <t>(%type.code==SCRAPIE)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(%statusHerd.code,statusHerd=%statusHerd.code,)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.label}==No)),F01.A056M,)</t>
+  </si>
+  <si>
+    <t>%type.code|IF((%type.code==CWD),$RELATION{Preferences,cwdExtCont.label},)</t>
+  </si>
+  <si>
+    <t>OR((RELATION{SummarizedInformation,type.code}!=CWD),(RELATION{Preferences,cwdExtCont.label}==No))</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),,AT06A)</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>(%type.code==CWD)</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
     <t>IF(OR((%country.code==EE),(%country.code==FI),(%country.code==LV),(%country.code==LT),(%country.code==PL),(%country.code==SE)),Y,ALL)</t>
-  </si>
-  <si>
-    <t>yesNoLists</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Sex of the animals</t>
-  </si>
-  <si>
-    <t>AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.label}==Yes))</t>
-  </si>
-  <si>
-    <t>IF(OR((%type.code!=CWD),(RELATION{Preferences,cwdExtCont.label}==No)),F32.A0C9B,)</t>
-  </si>
-  <si>
-    <t>BSE</t>
-  </si>
-  <si>
-    <t>%type.code|$%anMethType.code</t>
-  </si>
-  <si>
-    <t>IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,defScreeningBSE.code},)</t>
-  </si>
-  <si>
-    <t>(%type.code==SCRAPIE)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(%statusHerd.code,statusHerd=%statusHerd.code,)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.label}==No)),F01.A056M,)</t>
-  </si>
-  <si>
-    <t>%type.code|IF((%type.code==CWD),$RELATION{Preferences,cwdExtCont.label},)</t>
-  </si>
-  <si>
-    <t>OR((RELATION{SummarizedInformation,type.code}!=CWD),(RELATION{Preferences,cwdExtCont.label}==No))</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),,AT06A)</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
 </sst>
 </file>
@@ -3560,7 +3563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3780,11 +3783,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3928,22 +3931,22 @@
         <v>9</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R3" s="2">
         <v>2</v>
@@ -4312,11 +4315,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4893,11 +4896,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12:N12"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5092,13 +5095,13 @@
         <v>114</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>9</v>
@@ -5177,13 +5180,13 @@
         <v>310</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>9</v>
@@ -5334,7 +5337,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>3</v>
@@ -5477,10 +5480,10 @@
         <v>176</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>3</v>
@@ -5707,7 +5710,7 @@
         <v>4</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>9</v>
@@ -5936,10 +5939,10 @@
         <v>58</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>12</v>
@@ -5960,10 +5963,10 @@
         <v>408</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P30"/>
       <c r="Q30" s="6" t="s">
@@ -6008,10 +6011,10 @@
         <v>110</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>5</v>
@@ -6046,7 +6049,7 @@
         <v>4</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>3</v>
@@ -6057,8 +6060,8 @@
       <c r="L32" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="O32" s="6" t="s">
-        <v>469</v>
+      <c r="N32" s="6" t="s">
+        <v>467</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>5</v>
@@ -6597,10 +6600,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>408</v>
@@ -7110,10 +7113,10 @@
         <v>3</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>5</v>
@@ -8723,7 +8726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -8878,7 +8881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -8955,7 +8958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/target/classes/tablesSchema.xlsx
+++ b/target/classes/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20730" windowHeight="6705" tabRatio="690" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="20730" windowHeight="6645" tabRatio="690" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="470">
   <si>
     <t>Type</t>
   </si>
@@ -1131,9 +1131,6 @@
     <t>RELATION{SummarizedInformation,type.code}$%anMethType.code</t>
   </si>
   <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,birthCountry.code},birthCountry=RELATION{CasesInformation,birthCountry.code},)|IF_NOT_NULL(RELATION{CasesInformation,statusHerd.code},$statusHerd=RELATION{CasesInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
-  </si>
-  <si>
     <t>Herd status</t>
   </si>
   <si>
@@ -1266,9 +1263,6 @@
     <t>RELATION{SummarizedInformation,progId.label}|IF((RELATION{SummarizedInformation,type.code}!=RGT),.%progIdSuffix.code,)</t>
   </si>
   <si>
-    <t>(RELATION{SummarizedInformation,prod.code}==F21.A07RV)</t>
-  </si>
-  <si>
     <t>reportLastMessageId</t>
   </si>
   <si>
@@ -1299,9 +1293,6 @@
     <t>IF_NOT_NULL(RELATION{CasesInformation,animalId.code},animalId=RELATION{CasesInformation,animalId.code},)|IF_NOT_NULL(RELATION{CasesInformation,herdId.label},$herdId=RELATION{CasesInformation,herdId.label}, )|IF_NOT_NULL(RELATION{CasesInformation,sampHoldingId.label},$sampHoldingId=RELATION{CasesInformation,sampHoldingId.label},)|IF_NOT_NULL(RELATION{SummarizedInformation,PSUId.label},$PSUId=RELATION{SummarizedInformation,PSUId.label},)</t>
   </si>
   <si>
-    <t>AND((RELATION{SummarizedInformation,prod.code}==F21.A07RV),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
-  </si>
-  <si>
     <t>Sample/case assessment</t>
   </si>
   <si>
@@ -1380,9 +1371,6 @@
     <t>CWD extended context</t>
   </si>
   <si>
-    <t>Flag to include sex and PSU in aggregated data</t>
-  </si>
-  <si>
     <t>yesNoLists</t>
   </si>
   <si>
@@ -1428,16 +1416,25 @@
     <t>IF((%type.code==RGT),,AT06A)</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>(%type.code==CWD)</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>IF(OR((%country.code==EE),(%country.code==FI),(%country.code==LV),(%country.code==LT),(%country.code==PL),(%country.code==SE)),Y,ALL)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==SCRAPIE),F,)</t>
+  </si>
+  <si>
+    <t>IF(%type.code==SCRAPIE,F,)</t>
+  </si>
+  <si>
+    <t>Flag to include sex and PSU in the context for aggregated data</t>
+  </si>
+  <si>
+    <t>OR((%type.code==CWD),(%type.code==BSEOS))</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,birthCountry.code},birthCountry=RELATION{CasesInformation,birthCountry.code},)|IF_NOT_NULL(RELATION{SummarizedInformation,statusHerd.code},$statusHerd=RELATION{SummarizedInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
   </si>
 </sst>
 </file>
@@ -3133,7 +3130,13 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S39" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
-  <autoFilter ref="A1:S39"/>
+  <autoFilter ref="A1:S39">
+    <filterColumn colId="17">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:S39">
     <sortCondition ref="A1:A39"/>
   </sortState>
@@ -3163,8 +3166,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table2512" displayName="Table2512" ref="A1:S23" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
-  <autoFilter ref="A1:S23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table2512" displayName="Table2512" ref="A1:S22" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="A1:S22"/>
   <sortState ref="A2:S23">
     <sortCondition ref="R1:R23"/>
   </sortState>
@@ -3783,11 +3786,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3904,16 +3907,16 @@
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>451</v>
+        <v>447</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>467</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>12</v>
@@ -3931,16 +3934,16 @@
         <v>9</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>9</v>
@@ -4432,7 +4435,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="8" t="s">
@@ -4537,7 +4540,7 @@
         <v>302</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4663,7 +4666,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>176</v>
@@ -4694,13 +4697,13 @@
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>176</v>
@@ -4731,13 +4734,13 @@
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>176</v>
@@ -4776,7 +4779,7 @@
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
       <c r="E11" s="17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>176</v>
@@ -4815,7 +4818,7 @@
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
       <c r="E12" s="17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>176</v>
@@ -4846,15 +4849,15 @@
     </row>
     <row r="13" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>388</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>389</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>176</v>
@@ -4897,10 +4900,10 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A1:S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4984,7 +4987,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>79</v>
       </c>
@@ -5036,10 +5039,10 @@
         <v>75</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>3</v>
@@ -5071,10 +5074,10 @@
         <v>94</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -5083,10 +5086,10 @@
         <v>95</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>3</v>
@@ -5095,13 +5098,13 @@
         <v>114</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>9</v>
@@ -5113,7 +5116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>89</v>
       </c>
@@ -5156,10 +5159,10 @@
         <v>91</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>12</v>
@@ -5168,10 +5171,10 @@
         <v>92</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>3</v>
@@ -5180,13 +5183,13 @@
         <v>310</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>9</v>
@@ -5198,7 +5201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>352</v>
       </c>
@@ -5224,7 +5227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>85</v>
       </c>
@@ -5259,7 +5262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
@@ -5294,7 +5297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>179</v>
       </c>
@@ -5322,7 +5325,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>70</v>
@@ -5372,7 +5375,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>176</v>
@@ -5405,7 +5408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -5431,13 +5434,13 @@
         <v>4</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -5460,7 +5463,7 @@
         <v>4</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>3</v>
@@ -5468,22 +5471,22 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>204</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>176</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>3</v>
@@ -5498,7 +5501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>42</v>
       </c>
@@ -5533,7 +5536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>174</v>
       </c>
@@ -5553,7 +5556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
@@ -5588,7 +5591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>97</v>
       </c>
@@ -5620,7 +5623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>77</v>
       </c>
@@ -5652,7 +5655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
@@ -5687,7 +5690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>99</v>
       </c>
@@ -5710,13 +5713,13 @@
         <v>4</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>40</v>
       </c>
@@ -5748,7 +5751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>52</v>
       </c>
@@ -5783,7 +5786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>59</v>
       </c>
@@ -5809,13 +5812,13 @@
         <v>4</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>55</v>
       </c>
@@ -5850,7 +5853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>224</v>
       </c>
@@ -5870,13 +5873,13 @@
         <v>4</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>49</v>
       </c>
@@ -5911,7 +5914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>180</v>
       </c>
@@ -5933,22 +5936,22 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>3</v>
@@ -5960,13 +5963,13 @@
         <v>3</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P30"/>
       <c r="Q30" s="6" t="s">
@@ -6002,7 +6005,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>3</v>
@@ -6011,10 +6014,10 @@
         <v>110</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>5</v>
@@ -6034,7 +6037,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>37</v>
@@ -6046,10 +6049,10 @@
         <v>38</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>4</v>
+        <v>457</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>3</v>
@@ -6060,8 +6063,11 @@
       <c r="L32" s="6" t="s">
         <v>316</v>
       </c>
+      <c r="M32" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="N32" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>5</v>
@@ -6093,16 +6099,16 @@
         <v>8</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>5</v>
@@ -6122,7 +6128,7 @@
         <v>26</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>240</v>
@@ -6131,16 +6137,16 @@
         <v>8</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>5</v>
@@ -6172,16 +6178,16 @@
         <v>8</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>5</v>
@@ -6201,7 +6207,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>240</v>
@@ -6248,16 +6254,16 @@
         <v>8</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q37" s="6" t="s">
         <v>5</v>
@@ -6286,10 +6292,10 @@
         <v>19</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J38" s="6" t="s">
         <v>3</v>
@@ -6362,13 +6368,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5:J5"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6389,7 +6395,9 @@
     <col min="14" max="14" width="21.85546875" style="6" customWidth="1"/>
     <col min="15" max="16" width="22.85546875" style="6" customWidth="1"/>
     <col min="17" max="17" width="20" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="6"/>
+    <col min="18" max="18" width="9.140625" style="6"/>
+    <col min="19" max="19" width="10.140625" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -6453,13 +6461,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s">
         <v>193</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>213</v>
@@ -6471,13 +6479,13 @@
         <v>326</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>214</v>
@@ -6562,10 +6570,10 @@
         <v>305</v>
       </c>
       <c r="M4" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>5</v>
@@ -6579,37 +6587,37 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>409</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -6638,19 +6646,19 @@
         <v>75</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>113</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>5</v>
@@ -6679,13 +6687,13 @@
         <v>8</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>5</v>
@@ -6717,7 +6725,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>3</v>
@@ -6771,77 +6779,69 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>369</v>
+        <v>278</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>37</v>
+        <v>279</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>38</v>
+        <v>176</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>305</v>
-      </c>
+      <c r="I10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="17"/>
       <c r="Q10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R10" s="6">
-        <v>9</v>
-      </c>
-      <c r="S10" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="17"/>
       <c r="H11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="17"/>
+      <c r="K11" s="6" t="s">
+        <v>306</v>
+      </c>
       <c r="Q11" s="6" t="s">
         <v>5</v>
       </c>
@@ -6851,23 +6851,25 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>288</v>
+        <v>217</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>289</v>
+        <v>218</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="H12" s="6" t="s">
-        <v>4</v>
+        <v>441</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>3</v>
@@ -6876,7 +6878,10 @@
         <v>3</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>306</v>
+        <v>220</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
@@ -6887,37 +6892,40 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>216</v>
+        <v>196</v>
+      </c>
+      <c r="B13" t="s">
+        <v>193</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>3</v>
+        <v>439</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>380</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>221</v>
+        <v>305</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>5</v>
@@ -6928,41 +6936,37 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B14" t="s">
-        <v>193</v>
+        <v>210</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>446</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14"/>
+      <c r="P14"/>
       <c r="Q14" s="6" t="s">
         <v>5</v>
       </c>
@@ -6972,37 +6976,35 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>211</v>
+        <v>282</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>43</v>
+      <c r="G15" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="I15" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="O15"/>
-      <c r="P15"/>
+        <v>386</v>
+      </c>
       <c r="Q15" s="6" t="s">
         <v>5</v>
       </c>
@@ -7012,34 +7014,32 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>284</v>
-      </c>
+      <c r="G16" s="20"/>
       <c r="H16" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="I16" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="I16" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>387</v>
+      <c r="K16" s="17" t="s">
+        <v>161</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>5</v>
@@ -7050,32 +7050,37 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>286</v>
+        <v>373</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F17" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="H17" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="I17" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>161</v>
+      <c r="K17" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>449</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -7086,22 +7091,22 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>374</v>
+        <v>291</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>12</v>
+        <v>292</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>4</v>
@@ -7112,12 +7117,6 @@
       <c r="J18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="20" t="s">
-        <v>452</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>453</v>
-      </c>
       <c r="Q18" s="6" t="s">
         <v>5</v>
       </c>
@@ -7127,16 +7126,16 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>176</v>
@@ -7162,42 +7161,27 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="R20" s="6">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>175</v>
@@ -7217,10 +7201,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>174</v>
+        <v>352</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>4</v>
@@ -7231,33 +7218,10 @@
       <c r="J22" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="O22" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="Q22" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7274,11 +7238,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7375,19 +7339,19 @@
         <v>12</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>325</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>5</v>
@@ -7413,19 +7377,19 @@
         <v>12</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>325</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>5</v>
@@ -7466,7 +7430,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>296</v>
@@ -7501,7 +7465,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -7521,7 +7485,7 @@
         <v>144</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>12</v>
@@ -7635,19 +7599,19 @@
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>441</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>176</v>
@@ -7714,7 +7678,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
@@ -7722,10 +7686,10 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>176</v>
@@ -7740,7 +7704,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
@@ -7798,7 +7762,7 @@
         <v>4</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>5</v>
@@ -7865,7 +7829,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>9</v>
@@ -7873,7 +7837,7 @@
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>176</v>
@@ -7891,7 +7855,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -7923,7 +7887,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>9</v>
@@ -7940,10 +7904,10 @@
         <v>11</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>176</v>
@@ -7961,7 +7925,7 @@
         <v>4</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>9</v>
@@ -8062,7 +8026,7 @@
         <v>97</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>258</v>
@@ -8083,7 +8047,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>9</v>
@@ -8118,7 +8082,7 @@
         <v>4</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>9</v>
@@ -8307,7 +8271,7 @@
         <v>4</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>9</v>
@@ -8336,7 +8300,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>368</v>
+        <v>469</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>9</v>
@@ -8382,13 +8346,13 @@
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>176</v>
@@ -8403,7 +8367,7 @@
         <v>4</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>9</v>
@@ -8467,7 +8431,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>9</v>
@@ -8563,7 +8527,7 @@
         <v>4</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>9</v>
@@ -8571,13 +8535,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>176</v>
@@ -8592,7 +8556,7 @@
         <v>4</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>9</v>
@@ -8635,7 +8599,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>58</v>
@@ -8653,7 +8617,7 @@
         <v>4</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>5</v>
@@ -8699,7 +8663,7 @@
         <v>348</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>345</v>
@@ -9307,10 +9271,10 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -9366,7 +9330,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>350</v>

--- a/target/classes/tablesSchema.xlsx
+++ b/target/classes/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="20730" windowHeight="6645" tabRatio="690" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2565" windowWidth="20730" windowHeight="6585" tabRatio="690" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="469">
   <si>
     <t>Type</t>
   </si>
@@ -78,9 +78,6 @@
     <t>tseTargetGroup</t>
   </si>
   <si>
-    <t>Target</t>
-  </si>
-  <si>
     <t>Target group</t>
   </si>
   <si>
@@ -1131,12 +1128,6 @@
     <t>RELATION{SummarizedInformation,type.code}$%anMethType.code</t>
   </si>
   <si>
-    <t>Herd status</t>
-  </si>
-  <si>
-    <t>Farmed/Wild</t>
-  </si>
-  <si>
     <t>RELATION{SummarizedInformation,progId.label}|.|ZERO_PADDING({rowId},6)</t>
   </si>
   <si>
@@ -1435,6 +1426,12 @@
   </si>
   <si>
     <t>IF_NOT_NULL(RELATION{CasesInformation,birthCountry.code},birthCountry=RELATION{CasesInformation,birthCountry.code},)|IF_NOT_NULL(RELATION{SummarizedInformation,statusHerd.code},$statusHerd=RELATION{SummarizedInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
+  </si>
+  <si>
+    <t>Herd/Flock status</t>
+  </si>
+  <si>
+    <t>Husbandry system</t>
   </si>
 </sst>
 </file>
@@ -1466,6 +1463,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3137,8 +3135,8 @@
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:S39">
-    <sortCondition ref="A1:A39"/>
+  <sortState ref="A3:S39">
+    <sortCondition ref="R1:R39"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="79"/>
@@ -3593,82 +3591,82 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>9</v>
@@ -3693,23 +3691,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>9</v>
@@ -3734,23 +3732,23 @@
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>9</v>
@@ -3812,81 +3810,81 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>9</v>
@@ -3898,7 +3896,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L2" s="5"/>
       <c r="R2" s="2">
@@ -3907,22 +3905,22 @@
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>9</v>
@@ -3934,16 +3932,16 @@
         <v>9</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>9</v>
@@ -3957,22 +3955,22 @@
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>9</v>
@@ -3984,10 +3982,10 @@
         <v>9</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R4" s="2">
         <v>3</v>
@@ -3995,22 +3993,22 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>9</v>
@@ -4022,10 +4020,10 @@
         <v>9</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R5" s="2">
         <v>4</v>
@@ -4033,22 +4031,22 @@
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>9</v>
@@ -4060,10 +4058,10 @@
         <v>9</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R6" s="2">
         <v>5</v>
@@ -4071,22 +4069,22 @@
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>5</v>
@@ -4098,10 +4096,10 @@
         <v>9</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R7" s="2">
         <v>6</v>
@@ -4109,22 +4107,22 @@
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>5</v>
@@ -4136,10 +4134,10 @@
         <v>9</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R8" s="2">
         <v>7</v>
@@ -4147,22 +4145,22 @@
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>5</v>
@@ -4174,10 +4172,10 @@
         <v>9</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R9" s="2">
         <v>8</v>
@@ -4185,23 +4183,23 @@
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>9</v>
@@ -4213,10 +4211,10 @@
         <v>9</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R10" s="2">
         <v>9</v>
@@ -4224,23 +4222,23 @@
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>9</v>
@@ -4252,10 +4250,10 @@
         <v>9</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="R11" s="2">
         <v>10</v>
@@ -4263,23 +4261,23 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>9</v>
@@ -4291,10 +4289,10 @@
         <v>9</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
@@ -4348,82 +4346,82 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>9</v>
@@ -4435,15 +4433,15 @@
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="2" t="s">
@@ -4458,23 +4456,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>9</v>
@@ -4486,15 +4484,15 @@
         <v>9</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="2" t="s">
@@ -4509,18 +4507,18 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
@@ -4537,10 +4535,10 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4554,23 +4552,23 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>9</v>
@@ -4582,15 +4580,15 @@
         <v>9</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10" t="s">
@@ -4605,10 +4603,10 @@
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>5</v>
@@ -4628,16 +4626,16 @@
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>323</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>5</v>
@@ -4658,18 +4656,18 @@
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="s">
@@ -4697,16 +4695,16 @@
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17" t="s">
@@ -4734,16 +4732,16 @@
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17" t="s">
@@ -4771,18 +4769,18 @@
     </row>
     <row r="11" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>248</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>249</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
       <c r="E11" s="17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17" t="s">
@@ -4810,18 +4808,18 @@
     </row>
     <row r="12" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>243</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>244</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
       <c r="E12" s="17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17" t="s">
@@ -4849,18 +4847,18 @@
     </row>
     <row r="13" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="17" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17" t="s">
@@ -4900,10 +4898,10 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A1:S39"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4930,75 +4928,75 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>8</v>
@@ -5013,7 +5011,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>9</v>
@@ -5021,96 +5019,87 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>58</v>
+        <v>97</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>378</v>
+        <v>3</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>378</v>
+        <v>4</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>316</v>
+        <v>145</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="6">
-        <v>4</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>424</v>
+        <v>61</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>426</v>
+        <v>62</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>378</v>
+        <v>3</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>456</v>
-      </c>
       <c r="Q4" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R4" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>9</v>
@@ -5118,16 +5107,16 @@
     </row>
     <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>8</v>
@@ -5142,7 +5131,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>9</v>
@@ -5150,52 +5139,46 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>425</v>
+        <v>69</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>378</v>
+        <v>3</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>378</v>
+        <v>465</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>310</v>
+        <v>111</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>454</v>
+        <v>315</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>462</v>
+        <v>317</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R6" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>9</v>
@@ -5203,13 +5186,13 @@
     </row>
     <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>353</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>4</v>
@@ -5229,34 +5212,34 @@
     </row>
     <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="O8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>9</v>
@@ -5264,34 +5247,34 @@
     </row>
     <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="O9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>9</v>
@@ -5299,10 +5282,10 @@
     </row>
     <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>4</v>
@@ -5319,28 +5302,28 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>369</v>
+        <v>73</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>3</v>
+        <v>375</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>468</v>
+        <v>375</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>3</v>
@@ -5349,16 +5332,13 @@
         <v>112</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R11" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>9</v>
@@ -5366,46 +5346,46 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>393</v>
+        <v>17</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>3</v>
+        <v>375</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>4</v>
+        <v>375</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>324</v>
+      <c r="K12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R12" s="6">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -5419,7 +5399,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>8</v>
@@ -5434,7 +5414,7 @@
         <v>4</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>9</v>
@@ -5451,7 +5431,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>4</v>
@@ -5463,39 +5443,55 @@
         <v>4</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>420</v>
+      <c r="A15" s="6" t="s">
+        <v>399</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>420</v>
+        <v>447</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>448</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>176</v>
+        <v>12</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>401</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>452</v>
+        <v>3</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>452</v>
+        <v>3</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="K15" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="P15"/>
       <c r="Q15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R15" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>9</v>
@@ -5503,20 +5499,20 @@
     </row>
     <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="H16" s="6" t="s">
         <v>4</v>
       </c>
@@ -5527,10 +5523,10 @@
         <v>4</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>9</v>
@@ -5538,10 +5534,10 @@
     </row>
     <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>4</v>
@@ -5558,16 +5554,16 @@
     </row>
     <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>8</v>
@@ -5582,10 +5578,10 @@
         <v>4</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>9</v>
@@ -5593,16 +5589,16 @@
     </row>
     <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>8</v>
@@ -5617,7 +5613,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>9</v>
@@ -5625,16 +5621,16 @@
     </row>
     <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>8</v>
@@ -5649,7 +5645,7 @@
         <v>4</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>9</v>
@@ -5657,19 +5653,19 @@
     </row>
     <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="F21" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>4</v>
@@ -5681,10 +5677,10 @@
         <v>4</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q21" s="6" t="s">
         <v>9</v>
@@ -5692,16 +5688,16 @@
     </row>
     <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>4</v>
@@ -5713,7 +5709,7 @@
         <v>4</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>9</v>
@@ -5721,16 +5717,16 @@
     </row>
     <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="F23" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>8</v>
@@ -5745,7 +5741,7 @@
         <v>4</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>9</v>
@@ -5753,16 +5749,16 @@
     </row>
     <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>8</v>
@@ -5777,10 +5773,10 @@
         <v>4</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>9</v>
@@ -5788,20 +5784,20 @@
     </row>
     <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="H25" s="6" t="s">
         <v>4</v>
       </c>
@@ -5812,7 +5808,7 @@
         <v>4</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>9</v>
@@ -5820,34 +5816,34 @@
     </row>
     <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="O26" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>9</v>
@@ -5855,13 +5851,13 @@
     </row>
     <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>4</v>
@@ -5873,7 +5869,7 @@
         <v>4</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>9</v>
@@ -5881,16 +5877,16 @@
     </row>
     <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>8</v>
@@ -5905,10 +5901,10 @@
         <v>4</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>9</v>
@@ -5916,10 +5912,10 @@
     </row>
     <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>4</v>
@@ -5936,47 +5932,52 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>402</v>
+        <v>90</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>58</v>
+        <v>89</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>404</v>
+        <v>91</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>3</v>
+        <v>375</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>3</v>
+        <v>375</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>407</v>
+        <v>309</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="P30"/>
+        <v>459</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>459</v>
+      </c>
       <c r="Q30" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R30" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S30" s="6" t="s">
         <v>9</v>
@@ -5984,46 +5985,52 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>58</v>
+        <v>92</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>62</v>
+        <v>421</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>63</v>
+        <v>423</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>3</v>
+        <v>375</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>459</v>
+        <v>453</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>453</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R31" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S31" s="6" t="s">
         <v>9</v>
@@ -6031,43 +6038,43 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>5</v>
@@ -6080,73 +6087,67 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>27</v>
+      <c r="A33" s="25" t="s">
+        <v>417</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>378</v>
+        <v>449</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>378</v>
+        <v>449</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="6" t="s">
-        <v>377</v>
-      </c>
       <c r="Q33" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R33" s="6">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>5</v>
@@ -6160,34 +6161,34 @@
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="F35" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>5</v>
@@ -6198,142 +6199,136 @@
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>375</v>
+        <v>28</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>4</v>
+        <v>375</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>4</v>
+        <v>375</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P36" s="6" t="s">
-        <v>313</v>
+      <c r="O36" s="6" t="s">
+        <v>374</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R36" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>32</v>
+        <v>372</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>378</v>
+        <v>4</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>378</v>
+        <v>4</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O37" s="6" t="s">
-        <v>377</v>
+      <c r="P37" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="Q37" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R37" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>316</v>
+      <c r="O38" s="6" t="s">
+        <v>374</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R38" s="6">
-        <v>5</v>
-      </c>
-      <c r="S38" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>137</v>
+        <v>7</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>145</v>
+        <v>390</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>3</v>
@@ -6344,17 +6339,20 @@
       <c r="J39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K39" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="M39" s="6" t="s">
-        <v>316</v>
+        <v>323</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>323</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R39" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -6374,7 +6372,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6402,96 +6400,96 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>5</v>
@@ -6502,19 +6500,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>202</v>
-      </c>
       <c r="F3" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>8</v>
@@ -6537,22 +6535,22 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
@@ -6564,16 +6562,16 @@
         <v>3</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>5</v>
@@ -6587,37 +6585,37 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>461</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>461</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>407</v>
-      </c>
       <c r="L5" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -6628,37 +6626,37 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>5</v>
@@ -6669,31 +6667,31 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" t="s">
         <v>192</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>195</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>5</v>
@@ -6707,25 +6705,25 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>3</v>
@@ -6743,19 +6741,19 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>8</v>
@@ -6779,19 +6777,19 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="F10" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>8</v>
@@ -6815,16 +6813,16 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="D11" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>12</v>
@@ -6840,7 +6838,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>5</v>
@@ -6851,25 +6849,25 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>3</v>
@@ -6878,10 +6876,10 @@
         <v>3</v>
       </c>
       <c r="K12" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
@@ -6892,40 +6890,40 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="L13" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>5</v>
@@ -6936,25 +6934,25 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>3</v>
@@ -6963,7 +6961,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O14"/>
       <c r="P14"/>
@@ -6976,25 +6974,25 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>3</v>
@@ -7003,7 +7001,7 @@
         <v>3</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>5</v>
@@ -7014,23 +7012,23 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>3</v>
@@ -7039,7 +7037,7 @@
         <v>3</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>5</v>
@@ -7050,22 +7048,22 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>4</v>
@@ -7077,10 +7075,10 @@
         <v>3</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -7091,19 +7089,19 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>8</v>
@@ -7126,19 +7124,19 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>295</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>8</v>
@@ -7161,10 +7159,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>4</v>
@@ -7181,10 +7179,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>4</v>
@@ -7201,13 +7199,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>353</v>
-      </c>
       <c r="F22" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>4</v>
@@ -7239,10 +7237,10 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P31" sqref="P31"/>
+      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7268,154 +7266,154 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>400</v>
-      </c>
       <c r="Q2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R2" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>400</v>
-      </c>
       <c r="Q3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>8</v>
@@ -7430,13 +7428,13 @@
         <v>3</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>9</v>
@@ -7447,13 +7445,13 @@
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>4</v>
@@ -7465,7 +7463,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -7473,25 +7471,25 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>3</v>
@@ -7503,10 +7501,10 @@
         <v>3</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>9</v>
@@ -7517,22 +7515,22 @@
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>8</v>
@@ -7547,7 +7545,7 @@
         <v>4</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>9</v>
@@ -7555,25 +7553,25 @@
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>3</v>
@@ -7585,10 +7583,10 @@
         <v>3</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>9</v>
@@ -7599,22 +7597,22 @@
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>438</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>3</v>
@@ -7623,7 +7621,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9" s="6">
         <v>1</v>
@@ -7631,16 +7629,13 @@
       <c r="Q9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="6">
-        <v>6</v>
-      </c>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>4</v>
@@ -7657,16 +7652,16 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>4</v>
@@ -7678,7 +7673,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
@@ -7686,25 +7681,25 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>431</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
@@ -7712,19 +7707,19 @@
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="E13" s="22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>8</v>
@@ -7739,7 +7734,7 @@
         <v>4</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>9</v>
@@ -7747,10 +7742,10 @@
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>4</v>
@@ -7762,7 +7757,7 @@
         <v>4</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>5</v>
@@ -7770,20 +7765,20 @@
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="H15" s="6" t="s">
         <v>4</v>
       </c>
@@ -7794,10 +7789,10 @@
         <v>4</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>9</v>
@@ -7814,7 +7809,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>8</v>
@@ -7829,7 +7824,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>9</v>
@@ -7837,10 +7832,10 @@
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>8</v>
@@ -7855,7 +7850,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -7872,7 +7867,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>8</v>
@@ -7887,7 +7882,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>9</v>
@@ -7904,13 +7899,13 @@
         <v>11</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -7925,7 +7920,7 @@
         <v>4</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>9</v>
@@ -7933,20 +7928,20 @@
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="H20" s="6" t="s">
         <v>4</v>
       </c>
@@ -7957,7 +7952,7 @@
         <v>4</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>9</v>
@@ -7965,10 +7960,10 @@
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>4</v>
@@ -7985,16 +7980,16 @@
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="F22" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>8</v>
@@ -8009,7 +8004,7 @@
         <v>4</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>9</v>
@@ -8017,22 +8012,22 @@
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>8</v>
@@ -8047,7 +8042,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>9</v>
@@ -8058,19 +8053,19 @@
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>4</v>
@@ -8082,7 +8077,7 @@
         <v>4</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>9</v>
@@ -8090,16 +8085,16 @@
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>254</v>
-      </c>
       <c r="C25" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>4</v>
@@ -8111,7 +8106,7 @@
         <v>4</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>9</v>
@@ -8119,16 +8114,16 @@
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="F26" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>8</v>
@@ -8143,7 +8138,7 @@
         <v>4</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>9</v>
@@ -8151,19 +8146,19 @@
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="C27" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>4</v>
@@ -8175,7 +8170,7 @@
         <v>4</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>9</v>
@@ -8183,19 +8178,19 @@
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>4</v>
@@ -8207,7 +8202,7 @@
         <v>4</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>9</v>
@@ -8215,16 +8210,16 @@
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>8</v>
@@ -8239,7 +8234,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q29" s="6" t="s">
         <v>9</v>
@@ -8247,16 +8242,16 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>8</v>
@@ -8271,7 +8266,7 @@
         <v>4</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>9</v>
@@ -8279,16 +8274,16 @@
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>4</v>
@@ -8300,7 +8295,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>9</v>
@@ -8308,22 +8303,22 @@
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D32" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>202</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>8</v>
@@ -8338,7 +8333,7 @@
         <v>4</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>9</v>
@@ -8346,28 +8341,28 @@
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>9</v>
@@ -8375,16 +8370,16 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="F34" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>8</v>
@@ -8399,7 +8394,7 @@
         <v>4</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>9</v>
@@ -8407,20 +8402,20 @@
     </row>
     <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="H35" s="6" t="s">
         <v>4</v>
       </c>
@@ -8431,7 +8426,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>9</v>
@@ -8439,16 +8434,16 @@
     </row>
     <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>272</v>
-      </c>
       <c r="C36" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>4</v>
@@ -8460,7 +8455,7 @@
         <v>4</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>9</v>
@@ -8468,34 +8463,34 @@
     </row>
     <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="H37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="O37" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q37" s="6" t="s">
         <v>9</v>
@@ -8503,16 +8498,16 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>8</v>
@@ -8527,7 +8522,7 @@
         <v>4</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>9</v>
@@ -8535,16 +8530,16 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>4</v>
@@ -8556,7 +8551,7 @@
         <v>4</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>9</v>
@@ -8564,16 +8559,16 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="F40" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>8</v>
@@ -8588,10 +8583,10 @@
         <v>4</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>9</v>
@@ -8599,13 +8594,13 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>4</v>
@@ -8617,7 +8612,7 @@
         <v>4</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>5</v>
@@ -8625,10 +8620,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>4</v>
@@ -8645,31 +8640,31 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="L43" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>347</v>
       </c>
       <c r="Q43" s="6" t="s">
         <v>5</v>
@@ -8703,21 +8698,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
         <v>170</v>
       </c>
-      <c r="B1" t="s">
-        <v>171</v>
-      </c>
       <c r="C1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -8725,10 +8720,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -8736,10 +8731,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -8747,10 +8742,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -8758,10 +8753,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" t="s">
         <v>172</v>
-      </c>
-      <c r="B6" t="s">
-        <v>173</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -8769,10 +8764,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -8780,10 +8775,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -8791,10 +8786,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -8802,10 +8797,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -8813,10 +8808,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -8824,10 +8819,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -8856,58 +8851,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -8954,75 +8949,75 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -9037,7 +9032,7 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="2" t="s">
@@ -9048,16 +9043,16 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -9072,7 +9067,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="2" t="s">
@@ -9083,16 +9078,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -9106,7 +9101,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="6"/>
       <c r="P4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -9116,16 +9111,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="12"/>
@@ -9139,7 +9134,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="10"/>
       <c r="P5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>3</v>
@@ -9149,22 +9144,22 @@
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
         <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" t="s">
-        <v>237</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>3</v>
@@ -9172,13 +9167,13 @@
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>4</v>
@@ -9188,7 +9183,7 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
@@ -9196,13 +9191,13 @@
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>4</v>
@@ -9212,7 +9207,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -9220,13 +9215,13 @@
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>4</v>
@@ -9236,7 +9231,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>3</v>
@@ -9244,18 +9239,18 @@
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -9271,26 +9266,26 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="24" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -9304,7 +9299,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="P11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>3</v>
@@ -9314,14 +9309,14 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>4</v>
@@ -9330,21 +9325,21 @@
         <v>4</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>4</v>
@@ -9359,16 +9354,16 @@
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>320</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>4</v>
@@ -9383,10 +9378,10 @@
     </row>
     <row r="15" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>4</v>
@@ -9397,10 +9392,10 @@
     </row>
     <row r="16" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>4</v>

--- a/target/classes/tablesSchema.xlsx
+++ b/target/classes/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2565" windowWidth="20730" windowHeight="6585" tabRatio="690" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2685" windowWidth="20730" windowHeight="6465" tabRatio="690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -1086,15 +1086,6 @@
     <t>Automatically FILLED, special field</t>
   </si>
   <si>
-    <t>AggregatedLevel</t>
-  </si>
-  <si>
-    <t>AnalyticalResult</t>
-  </si>
-  <si>
-    <t>CaseLevel</t>
-  </si>
-  <si>
     <t>IF((%internalOpType.label!=Test),RELATION{Report,reportSenderId.code}|-|today.timestamp,TEST_CONNECTION_|RELATION{Settings,username.code}|_version_{app.version})</t>
   </si>
   <si>
@@ -1413,12 +1404,6 @@
     <t>IF(OR((%country.code==EE),(%country.code==FI),(%country.code==LV),(%country.code==LT),(%country.code==PL),(%country.code==SE)),Y,ALL)</t>
   </si>
   <si>
-    <t>IF((%type.code==SCRAPIE),F,)</t>
-  </si>
-  <si>
-    <t>IF(%type.code==SCRAPIE,F,)</t>
-  </si>
-  <si>
     <t>Flag to include sex and PSU in the context for aggregated data</t>
   </si>
   <si>
@@ -1432,6 +1417,21 @@
   </si>
   <si>
     <t>Husbandry system</t>
+  </si>
+  <si>
+    <t>Aggregated-Data-(Level-1)</t>
+  </si>
+  <si>
+    <t>Sample-Level-Data-(Level-2)</t>
+  </si>
+  <si>
+    <t>Analytical-Test-Results-(Level-3)</t>
+  </si>
+  <si>
+    <t>Report-Management</t>
+  </si>
+  <si>
+    <t>IF(OR((%type.code==SCRAPIE),(%type.code==BSEOS)),F,)</t>
   </si>
 </sst>
 </file>
@@ -3905,16 +3905,16 @@
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>12</v>
@@ -3932,16 +3932,16 @@
         <v>9</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>9</v>
@@ -3985,7 +3985,7 @@
         <v>113</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="R4" s="2">
         <v>3</v>
@@ -4023,7 +4023,7 @@
         <v>113</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="R5" s="2">
         <v>4</v>
@@ -4061,7 +4061,7 @@
         <v>113</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="R6" s="2">
         <v>5</v>
@@ -4099,7 +4099,7 @@
         <v>113</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="R7" s="2">
         <v>6</v>
@@ -4137,7 +4137,7 @@
         <v>113</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="R8" s="2">
         <v>7</v>
@@ -4175,7 +4175,7 @@
         <v>113</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="R9" s="2">
         <v>8</v>
@@ -4214,7 +4214,7 @@
         <v>113</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="R10" s="2">
         <v>9</v>
@@ -4253,7 +4253,7 @@
         <v>113</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="R11" s="2">
         <v>10</v>
@@ -4292,7 +4292,7 @@
         <v>113</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
@@ -4317,10 +4317,10 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4433,7 +4433,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="8" t="s">
@@ -4538,7 +4538,7 @@
         <v>301</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4664,7 +4664,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>175</v>
@@ -4695,13 +4695,13 @@
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>175</v>
@@ -4732,13 +4732,13 @@
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>175</v>
@@ -4777,7 +4777,7 @@
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
       <c r="E11" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>175</v>
@@ -4816,7 +4816,7 @@
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
       <c r="E12" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>175</v>
@@ -4847,15 +4847,15 @@
     </row>
     <row r="13" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="17" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>175</v>
@@ -4897,11 +4897,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5081,7 +5081,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>3</v>
@@ -5090,10 +5090,10 @@
         <v>109</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>5</v>
@@ -5145,7 +5145,7 @@
         <v>57</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>69</v>
@@ -5160,7 +5160,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>3</v>
@@ -5320,10 +5320,10 @@
         <v>74</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>3</v>
@@ -5364,10 +5364,10 @@
         <v>18</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>3</v>
@@ -5414,7 +5414,7 @@
         <v>4</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>9</v>
@@ -5443,7 +5443,7 @@
         <v>4</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>3</v>
@@ -5451,22 +5451,22 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>3</v>
@@ -5478,13 +5478,13 @@
         <v>3</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="P15"/>
       <c r="Q15" s="6" t="s">
@@ -5709,7 +5709,7 @@
         <v>4</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>9</v>
@@ -5808,7 +5808,7 @@
         <v>4</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>9</v>
@@ -5869,7 +5869,7 @@
         <v>4</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>9</v>
@@ -5941,10 +5941,10 @@
         <v>90</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>12</v>
@@ -5953,10 +5953,10 @@
         <v>91</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>3</v>
@@ -5965,13 +5965,13 @@
         <v>309</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>9</v>
@@ -5994,10 +5994,10 @@
         <v>93</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>12</v>
@@ -6006,10 +6006,10 @@
         <v>94</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>3</v>
@@ -6018,13 +6018,13 @@
         <v>113</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>9</v>
@@ -6044,7 +6044,7 @@
         <v>34</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>36</v>
@@ -6056,10 +6056,10 @@
         <v>37</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>3</v>
@@ -6071,10 +6071,10 @@
         <v>315</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>463</v>
+        <v>468</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>468</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>5</v>
@@ -6088,22 +6088,22 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>203</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>175</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>3</v>
@@ -6129,7 +6129,7 @@
         <v>25</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>239</v>
@@ -6138,16 +6138,16 @@
         <v>8</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>5</v>
@@ -6179,16 +6179,16 @@
         <v>8</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>5</v>
@@ -6217,16 +6217,16 @@
         <v>8</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>5</v>
@@ -6246,7 +6246,7 @@
         <v>20</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>239</v>
@@ -6293,16 +6293,16 @@
         <v>8</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J38" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>5</v>
@@ -6322,7 +6322,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>175</v>
@@ -6369,10 +6369,10 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6459,13 +6459,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
         <v>192</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>212</v>
@@ -6477,13 +6477,13 @@
         <v>325</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>213</v>
@@ -6568,10 +6568,10 @@
         <v>304</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>5</v>
@@ -6585,37 +6585,37 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>404</v>
-      </c>
       <c r="L5" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -6644,19 +6644,19 @@
         <v>74</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>112</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>5</v>
@@ -6685,13 +6685,13 @@
         <v>8</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>5</v>
@@ -6723,7 +6723,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>3</v>
@@ -6867,7 +6867,7 @@
         <v>218</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>3</v>
@@ -6908,13 +6908,13 @@
         <v>198</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>439</v>
-      </c>
       <c r="J13" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>199</v>
@@ -6923,7 +6923,7 @@
         <v>304</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>5</v>
@@ -6952,7 +6952,7 @@
         <v>42</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>3</v>
@@ -6992,7 +6992,7 @@
         <v>283</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>3</v>
@@ -7001,7 +7001,7 @@
         <v>3</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>5</v>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>3</v>
@@ -7054,7 +7054,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>310</v>
@@ -7075,10 +7075,10 @@
         <v>3</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -7236,11 +7236,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="M26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
+      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7337,19 +7337,19 @@
         <v>12</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>324</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>5</v>
@@ -7375,19 +7375,19 @@
         <v>12</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>324</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>5</v>
@@ -7428,7 +7428,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>295</v>
@@ -7463,7 +7463,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -7483,7 +7483,7 @@
         <v>143</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>12</v>
@@ -7504,7 +7504,7 @@
         <v>113</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>9</v>
@@ -7597,19 +7597,19 @@
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>435</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>175</v>
@@ -7673,7 +7673,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
@@ -7681,10 +7681,10 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>175</v>
@@ -7699,7 +7699,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
@@ -7757,7 +7757,7 @@
         <v>4</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>5</v>
@@ -7824,7 +7824,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>9</v>
@@ -7832,7 +7832,7 @@
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>175</v>
@@ -7850,7 +7850,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -7882,7 +7882,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>9</v>
@@ -7899,10 +7899,10 @@
         <v>11</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>175</v>
@@ -7920,7 +7920,7 @@
         <v>4</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>9</v>
@@ -8021,7 +8021,7 @@
         <v>96</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>257</v>
@@ -8042,7 +8042,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>9</v>
@@ -8077,7 +8077,7 @@
         <v>4</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>9</v>
@@ -8266,7 +8266,7 @@
         <v>4</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>9</v>
@@ -8295,7 +8295,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>9</v>
@@ -8341,13 +8341,13 @@
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>175</v>
@@ -8362,7 +8362,7 @@
         <v>4</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>9</v>
@@ -8426,7 +8426,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>9</v>
@@ -8522,7 +8522,7 @@
         <v>4</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>9</v>
@@ -8530,13 +8530,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>175</v>
@@ -8551,7 +8551,7 @@
         <v>4</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>9</v>
@@ -8594,7 +8594,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>57</v>
@@ -8612,7 +8612,7 @@
         <v>4</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>5</v>
@@ -8658,7 +8658,7 @@
         <v>347</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>344</v>
@@ -8841,7 +8841,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8862,7 +8862,7 @@
         <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8870,7 +8870,7 @@
         <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8894,7 +8894,7 @@
         <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8902,7 +8902,7 @@
         <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -9101,7 +9101,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="6"/>
       <c r="P4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -9266,10 +9266,10 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="24" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -9325,7 +9325,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>349</v>

--- a/target/classes/tablesSchema.xlsx
+++ b/target/classes/tablesSchema.xlsx
@@ -3128,13 +3128,7 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S39" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
-  <autoFilter ref="A1:S39">
-    <filterColumn colId="17">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:S39"/>
   <sortState ref="A3:S39">
     <sortCondition ref="R1:R39"/>
   </sortState>
@@ -4898,7 +4892,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
@@ -4985,7 +4979,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>78</v>
       </c>
@@ -5105,7 +5099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>88</v>
       </c>
@@ -5184,7 +5178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>351</v>
       </c>
@@ -5210,7 +5204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>84</v>
       </c>
@@ -5245,7 +5239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>80</v>
       </c>
@@ -5280,7 +5274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>178</v>
       </c>
@@ -5388,7 +5382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -5420,7 +5414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -5497,7 +5491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
@@ -5532,7 +5526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>173</v>
       </c>
@@ -5552,7 +5546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>46</v>
       </c>
@@ -5587,7 +5581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>96</v>
       </c>
@@ -5619,7 +5613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>76</v>
       </c>
@@ -5651,7 +5645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
@@ -5686,7 +5680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>98</v>
       </c>
@@ -5715,7 +5709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>39</v>
       </c>
@@ -5747,7 +5741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>51</v>
       </c>
@@ -5782,7 +5776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>58</v>
       </c>
@@ -5814,7 +5808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>54</v>
       </c>
@@ -5849,7 +5843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>223</v>
       </c>
@@ -5875,7 +5869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>48</v>
       </c>
@@ -5910,7 +5904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>179</v>
       </c>
@@ -6369,10 +6363,10 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/classes/tablesSchema.xlsx
+++ b/target/classes/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2685" windowWidth="20730" windowHeight="6465" tabRatio="690" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20070" windowHeight="3840" tabRatio="690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="473">
   <si>
     <t>Type</t>
   </si>
@@ -966,472 +966,484 @@
     <t>SUM(%totSamplesPositive.label,%totSamplesNegative.label,%totSamplesInconclusive.label)</t>
   </si>
   <si>
+    <t>%anMethType.code|.|%anMethCode.code</t>
+  </si>
+  <si>
+    <t>%type.code</t>
+  </si>
+  <si>
+    <t>F21.A07RV</t>
+  </si>
+  <si>
+    <t>opType</t>
+  </si>
+  <si>
+    <t>AUTOMATICALLY FILLED! DO NOT TOUCH</t>
+  </si>
+  <si>
+    <t>for reject/submit should be not inserted</t>
+  </si>
+  <si>
+    <t>reportVersion</t>
+  </si>
+  <si>
+    <t>Automatically filled, do not touch</t>
+  </si>
+  <si>
+    <t>alleleList</t>
+  </si>
+  <si>
+    <t>RESEVAL</t>
+  </si>
+  <si>
+    <t>paramCodeBaseTerm</t>
+  </si>
+  <si>
+    <t>%paramCodeBaseTerm.code|IF_NOT_NULL(%allele1.code,#allele=%allele1.code,)|IF_NOT_NULL(%allele2.code,$allele=%allele2.code,)</t>
+  </si>
+  <si>
+    <t>NOTE: AUTOMATICALLY FILLED BY CUSTOM LIBRARY</t>
+  </si>
+  <si>
+    <t>Preferred rapid test used for BSE</t>
+  </si>
+  <si>
+    <t>Preferred rapid test used for SCRAPIE</t>
+  </si>
+  <si>
+    <t>Preferred rapid test used for CWD</t>
+  </si>
+  <si>
+    <t>pref8</t>
+  </si>
+  <si>
+    <t>pref9</t>
+  </si>
+  <si>
+    <t>pref10</t>
+  </si>
+  <si>
+    <t>defDiscriminatorySCRAPIE</t>
+  </si>
+  <si>
+    <t>defDiscriminatoryCWD</t>
+  </si>
+  <si>
+    <t>defDiscriminatoryBSE</t>
+  </si>
+  <si>
+    <t>Discriminatory BSE</t>
+  </si>
+  <si>
+    <t>Discriminatory SCRAPIE</t>
+  </si>
+  <si>
+    <t>Discriminatory CWD</t>
+  </si>
+  <si>
+    <t>Preferred discriminatory method used for BSE</t>
+  </si>
+  <si>
+    <t>Preferred discriminatory method used for SCRAPIE</t>
+  </si>
+  <si>
+    <t>Preferred discriminatory method used for CWD</t>
+  </si>
+  <si>
+    <t>resultsLists</t>
+  </si>
+  <si>
+    <t>testAim</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,type.code}|%anMethType.code</t>
+  </si>
+  <si>
+    <t>(%anMethType.code!=AT13A)</t>
+  </si>
+  <si>
+    <t>internalOpType</t>
+  </si>
+  <si>
+    <t>(%internalOpType.label!=Insert)</t>
+  </si>
+  <si>
+    <t>IF((%internalOpType.label!=Test),{app.dcCode},{app.dcTestCode})</t>
+  </si>
+  <si>
+    <t>childrenContainErrors</t>
+  </si>
+  <si>
+    <t>Automatically FILLED, special field</t>
+  </si>
+  <si>
+    <t>IF((%internalOpType.label!=Test),RELATION{Report,reportSenderId.code}|-|today.timestamp,TEST_CONNECTION_|RELATION{Settings,username.code}|_version_{app.version})</t>
+  </si>
+  <si>
+    <t>BSE$AT06A</t>
+  </si>
+  <si>
+    <t>SCRAPIE$AT06A</t>
+  </si>
+  <si>
+    <t>CWD$AT06A</t>
+  </si>
+  <si>
+    <t>BSE$AT08A</t>
+  </si>
+  <si>
+    <t>SCRAPIE$AT08A</t>
+  </si>
+  <si>
+    <t>CWD$AT08A</t>
+  </si>
+  <si>
+    <t>BSE$AT12A</t>
+  </si>
+  <si>
+    <t>SCRAPIE$AT12A</t>
+  </si>
+  <si>
+    <t>CWD$AT12A</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,type.code}$%anMethType.code</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|.|ZERO_PADDING({rowId},6)</t>
+  </si>
+  <si>
+    <t>%country.code|END_TRIM(%reportYear.code,2)|END_TRIM(ZERO_PADDING(%reportMonth.code,2),2)</t>
+  </si>
+  <si>
+    <t>RELATION{Report,reportSenderId.label}|IF_NOT_NULL(RELATION{Report,reportVersion.code},.RELATION{Report,reportVersion.code},)</t>
+  </si>
+  <si>
+    <t>Born in the flock</t>
+  </si>
+  <si>
+    <t>Number of Negative Animals</t>
+  </si>
+  <si>
+    <t>Total number of Tested Samples/Animals</t>
+  </si>
+  <si>
+    <t>Executed test</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),,0)</t>
+  </si>
+  <si>
+    <t>(%type.code!=RGT)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|.IF_NOT_NULL(RELATION{CasesInformation,animalId.label},A.|RELATION{CasesInformation,animalId.label},S.|RELATION{CasesInformation,sampId.label})</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,type.code}!=RGT)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},tseTargetGroup=RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
+  </si>
+  <si>
+    <t>IF((%type.code!=RGT),tseTargetGroup=%tseTargetGroup.code$totSamplesTested=%totSamplesTested.label$totSamplesPositive=%totSamplesPositive.label$totSamplesNegative=%totSamplesNegative.label$totSamplesInconclusive=%totSamplesInconclusive.label$totSamplesUnsuitable=%totSamplesUnsuitable.label,)</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),F02.A06AM,F02.A06AL)</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),Brain,Blood)</t>
+  </si>
+  <si>
+    <t>reportYearsList</t>
+  </si>
+  <si>
+    <t>animalYearsList</t>
+  </si>
+  <si>
+    <t>reportPreviousStatus</t>
+  </si>
+  <si>
+    <t>repPreviousStatus</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH, AUTOMATICALLY FILLED</t>
+  </si>
+  <si>
+    <t>EU legal reference</t>
+  </si>
+  <si>
+    <t>Res ID</t>
+  </si>
+  <si>
+    <t>EU legislation related to the reason for sampling</t>
+  </si>
+  <si>
+    <t>Prog ID</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),%paramCodeBaseTerm.code,RF-00004629-PAR)</t>
+  </si>
+  <si>
+    <t>progIdSuffix</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>AND((%anMethType.code==AT13A),(RELATION{SummarizedInformation,source.code}==F01.A057G))</t>
+  </si>
+  <si>
+    <t>IF(OR((%internalOpType.label==Reject),(%internalOpType.label==Submit)),No,Yes)</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,source.code}==F01.A057G)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,source.code}</t>
+  </si>
+  <si>
+    <t>IF((%internalOpType.label!=Insert),RELATION{Report,reportDatasetId.label},)</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>MTX.gender</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}==RGT),SCRAPIE,)</t>
+  </si>
+  <si>
+    <t>N123A</t>
+  </si>
+  <si>
+    <t>sexLists</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,type.code}==RGT)</t>
+  </si>
+  <si>
+    <t>%progLegalRef.code|IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},.|RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|IF((RELATION{SummarizedInformation,type.code}!=RGT),.%progIdSuffix.code,)</t>
+  </si>
+  <si>
+    <t>reportLastMessageId</t>
+  </si>
+  <si>
+    <t>reportLastModifyingMessageId</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH, used with Refresh Status/Display ack</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),RELATION{SummarizedInformation,animage.code},RELATION{CasesInformation,animage.code})</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}==CWD),RELATION{SummarizedInformation,sex.code},RELATION{CasesInformation,sex.code})</t>
+  </si>
+  <si>
+    <t>A04MQ#RELATION{SummarizedInformation,source.code}$RELATION{CasesInformation,part.code}$RELATION{SummarizedInformation,prod.code}|IF_NOT_NULL(%animage.code,$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
+  </si>
+  <si>
+    <t>A04MQ#%source.code$%prod.code|IF((%type.code!=RGT),$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(%PSUId.label,PSUId=%PSUId.label,)</t>
+  </si>
+  <si>
+    <t>PSUId</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,animalId.code},animalId=RELATION{CasesInformation,animalId.code},)|IF_NOT_NULL(RELATION{CasesInformation,herdId.label},$herdId=RELATION{CasesInformation,herdId.label}, )|IF_NOT_NULL(RELATION{CasesInformation,sampHoldingId.label},$sampHoldingId=RELATION{CasesInformation,sampHoldingId.label},)|IF_NOT_NULL(RELATION{SummarizedInformation,PSUId.label},$PSUId=RELATION{SummarizedInformation,PSUId.label},)</t>
+  </si>
+  <si>
+    <t>Sample/case assessment</t>
+  </si>
+  <si>
+    <t>First test type</t>
+  </si>
+  <si>
+    <t>First test</t>
+  </si>
+  <si>
+    <t>Type of the first executed test</t>
+  </si>
+  <si>
+    <t>First executed test</t>
+  </si>
+  <si>
+    <t>sampInfo</t>
+  </si>
+  <si>
+    <t>D.11</t>
+  </si>
+  <si>
+    <t>origSampId</t>
+  </si>
+  <si>
+    <t>origSampId=%origSampId.label</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,sampId.label}</t>
+  </si>
+  <si>
+    <t>sampUnitType</t>
+  </si>
+  <si>
+    <t>C.02</t>
+  </si>
+  <si>
+    <t>G199A</t>
+  </si>
+  <si>
+    <t>H.01</t>
+  </si>
+  <si>
+    <t>anPortSeq</t>
+  </si>
+  <si>
+    <t>Portion</t>
+  </si>
+  <si>
+    <t>Portion of the analyzed sample</t>
+  </si>
+  <si>
+    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
+  </si>
+  <si>
+    <t>sampEventAsses</t>
+  </si>
+  <si>
+    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,prod.code}==F21.A07RV),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
+  </si>
+  <si>
+    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=BSE),(RELATION{SummarizedInformation,type.code}!=CWD))</t>
+  </si>
+  <si>
+    <t>IF(AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=SCRAPIE),(RELATION{SummarizedInformation,type.code}!=RGT),(RELATION{SummarizedInformation,type.code}!=BSEOS)),Y,)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,tseNationalCaseId.label},tseNationalCaseId=RELATION{CasesInformation,tseNationalCaseId.label}$,)|IF_NOT_NULL(RELATION{CasesInformation,tseIndexCase.code},tseIndexCase=RELATION{CasesInformation,tseIndexCase.code}$,)|IF_NOT_NULL(RELATION{CasesInformation,sampEventAsses.code},sampEventAsses=RELATION{CasesInformation,sampEventAsses.code},)|IF_NOT_NULL(RELATION{CasesInformation,evalCom.label},$com=RELATION{CasesInformation,evalCom.label},)</t>
+  </si>
+  <si>
+    <t>cwdExtCont</t>
+  </si>
+  <si>
+    <t>pref11</t>
+  </si>
+  <si>
+    <t>CWD extended context</t>
+  </si>
+  <si>
+    <t>yesNoLists</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Sex of the animals</t>
+  </si>
+  <si>
+    <t>AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.label}==Yes))</t>
+  </si>
+  <si>
+    <t>IF(OR((%type.code!=CWD),(RELATION{Preferences,cwdExtCont.label}==No)),F32.A0C9B,)</t>
+  </si>
+  <si>
+    <t>BSE</t>
+  </si>
+  <si>
+    <t>%type.code|$%anMethType.code</t>
+  </si>
+  <si>
+    <t>IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,defScreeningBSE.code},)</t>
+  </si>
+  <si>
+    <t>(%type.code==SCRAPIE)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(%statusHerd.code,statusHerd=%statusHerd.code,)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.label}==No)),F01.A056M,)</t>
+  </si>
+  <si>
+    <t>%type.code|IF((%type.code==CWD),$RELATION{Preferences,cwdExtCont.label},)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),,AT06A)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>IF(OR((%country.code==EE),(%country.code==FI),(%country.code==LV),(%country.code==LT),(%country.code==PL),(%country.code==SE)),Y,ALL)</t>
+  </si>
+  <si>
+    <t>Flag to include sex and PSU in the context for aggregated data</t>
+  </si>
+  <si>
+    <t>OR((%type.code==CWD),(%type.code==BSEOS))</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,birthCountry.code},birthCountry=RELATION{CasesInformation,birthCountry.code},)|IF_NOT_NULL(RELATION{SummarizedInformation,statusHerd.code},$statusHerd=RELATION{SummarizedInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
+  </si>
+  <si>
+    <t>Herd/Flock status</t>
+  </si>
+  <si>
+    <t>Husbandry system</t>
+  </si>
+  <si>
+    <t>Aggregated-Data-(Level-1)</t>
+  </si>
+  <si>
+    <t>Sample-Level-Data-(Level-2)</t>
+  </si>
+  <si>
+    <t>Analytical-Test-Results-(Level-3)</t>
+  </si>
+  <si>
+    <t>Report-Management</t>
+  </si>
+  <si>
+    <t>IF(OR((%type.code==SCRAPIE),(%type.code==BSEOS)),F,)</t>
+  </si>
+  <si>
+    <t>%progId.label|.0</t>
+  </si>
+  <si>
     <t>%progId.label</t>
   </si>
   <si>
-    <t>%anMethType.code|.|%anMethCode.code</t>
-  </si>
-  <si>
-    <t>%type.code</t>
-  </si>
-  <si>
-    <t>%progId.label|.0</t>
-  </si>
-  <si>
-    <t>F21.A07RV</t>
-  </si>
-  <si>
-    <t>opType</t>
-  </si>
-  <si>
-    <t>AUTOMATICALLY FILLED! DO NOT TOUCH</t>
-  </si>
-  <si>
-    <t>for reject/submit should be not inserted</t>
-  </si>
-  <si>
-    <t>reportVersion</t>
-  </si>
-  <si>
-    <t>Automatically filled, do not touch</t>
-  </si>
-  <si>
-    <t>END_TRIM(RELATION{Report,reportYear.code},2)|END_TRIM(ZERO_PADDING(RELATION{Report,reportMonth.code},2),2)|_ZERO_PADDING({rowId},6)</t>
-  </si>
-  <si>
-    <t>alleleList</t>
-  </si>
-  <si>
-    <t>RESEVAL</t>
-  </si>
-  <si>
-    <t>paramCodeBaseTerm</t>
-  </si>
-  <si>
-    <t>%paramCodeBaseTerm.code|IF_NOT_NULL(%allele1.code,#allele=%allele1.code,)|IF_NOT_NULL(%allele2.code,$allele=%allele2.code,)</t>
-  </si>
-  <si>
-    <t>NOTE: AUTOMATICALLY FILLED BY CUSTOM LIBRARY</t>
-  </si>
-  <si>
-    <t>Preferred rapid test used for BSE</t>
-  </si>
-  <si>
-    <t>Preferred rapid test used for SCRAPIE</t>
-  </si>
-  <si>
-    <t>Preferred rapid test used for CWD</t>
-  </si>
-  <si>
-    <t>pref8</t>
-  </si>
-  <si>
-    <t>pref9</t>
-  </si>
-  <si>
-    <t>pref10</t>
-  </si>
-  <si>
-    <t>defDiscriminatorySCRAPIE</t>
-  </si>
-  <si>
-    <t>defDiscriminatoryCWD</t>
-  </si>
-  <si>
-    <t>defDiscriminatoryBSE</t>
-  </si>
-  <si>
-    <t>Discriminatory BSE</t>
-  </si>
-  <si>
-    <t>Discriminatory SCRAPIE</t>
-  </si>
-  <si>
-    <t>Discriminatory CWD</t>
-  </si>
-  <si>
-    <t>Preferred discriminatory method used for BSE</t>
-  </si>
-  <si>
-    <t>Preferred discriminatory method used for SCRAPIE</t>
-  </si>
-  <si>
-    <t>Preferred discriminatory method used for CWD</t>
-  </si>
-  <si>
-    <t>resultsLists</t>
-  </si>
-  <si>
-    <t>testAim</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,type.code}|%anMethType.code</t>
-  </si>
-  <si>
-    <t>(%anMethType.code!=AT13A)</t>
-  </si>
-  <si>
-    <t>internalOpType</t>
-  </si>
-  <si>
-    <t>(%internalOpType.label!=Insert)</t>
-  </si>
-  <si>
-    <t>IF((%internalOpType.label!=Test),{app.dcCode},{app.dcTestCode})</t>
-  </si>
-  <si>
-    <t>childrenContainErrors</t>
-  </si>
-  <si>
-    <t>Automatically FILLED, special field</t>
-  </si>
-  <si>
-    <t>IF((%internalOpType.label!=Test),RELATION{Report,reportSenderId.code}|-|today.timestamp,TEST_CONNECTION_|RELATION{Settings,username.code}|_version_{app.version})</t>
-  </si>
-  <si>
-    <t>BSE$AT06A</t>
-  </si>
-  <si>
-    <t>SCRAPIE$AT06A</t>
-  </si>
-  <si>
-    <t>CWD$AT06A</t>
-  </si>
-  <si>
-    <t>BSE$AT08A</t>
-  </si>
-  <si>
-    <t>SCRAPIE$AT08A</t>
-  </si>
-  <si>
-    <t>CWD$AT08A</t>
-  </si>
-  <si>
-    <t>BSE$AT12A</t>
-  </si>
-  <si>
-    <t>SCRAPIE$AT12A</t>
-  </si>
-  <si>
-    <t>CWD$AT12A</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,type.code}$%anMethType.code</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,progId.label}|.|ZERO_PADDING({rowId},6)</t>
-  </si>
-  <si>
-    <t>%country.code|END_TRIM(%reportYear.code,2)|END_TRIM(ZERO_PADDING(%reportMonth.code,2),2)</t>
-  </si>
-  <si>
-    <t>RELATION{Report,reportSenderId.label}|IF_NOT_NULL(RELATION{Report,reportVersion.code},.RELATION{Report,reportVersion.code},)</t>
-  </si>
-  <si>
-    <t>Born in the flock</t>
-  </si>
-  <si>
-    <t>Number of Negative Animals</t>
-  </si>
-  <si>
-    <t>Total number of Tested Samples/Animals</t>
-  </si>
-  <si>
-    <t>Executed test</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),,0)</t>
-  </si>
-  <si>
-    <t>(%type.code!=RGT)</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,progId.label}|.IF_NOT_NULL(RELATION{CasesInformation,animalId.label},A.|RELATION{CasesInformation,animalId.label},S.|RELATION{CasesInformation,sampId.label})</t>
-  </si>
-  <si>
-    <t>(RELATION{SummarizedInformation,type.code}!=RGT)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},tseTargetGroup=RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
-  </si>
-  <si>
-    <t>IF((%type.code!=RGT),tseTargetGroup=%tseTargetGroup.code$totSamplesTested=%totSamplesTested.label$totSamplesPositive=%totSamplesPositive.label$totSamplesNegative=%totSamplesNegative.label$totSamplesInconclusive=%totSamplesInconclusive.label$totSamplesUnsuitable=%totSamplesUnsuitable.label,)</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),F02.A06AM,F02.A06AL)</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),Brain,Blood)</t>
-  </si>
-  <si>
-    <t>reportYearsList</t>
-  </si>
-  <si>
-    <t>animalYearsList</t>
-  </si>
-  <si>
-    <t>reportPreviousStatus</t>
-  </si>
-  <si>
-    <t>repPreviousStatus</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH, AUTOMATICALLY FILLED</t>
-  </si>
-  <si>
-    <t>EU legal reference</t>
-  </si>
-  <si>
-    <t>Res ID</t>
-  </si>
-  <si>
-    <t>EU legislation related to the reason for sampling</t>
-  </si>
-  <si>
-    <t>Prog ID</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),%paramCodeBaseTerm.code,RF-00004629-PAR)</t>
-  </si>
-  <si>
-    <t>progIdSuffix</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>AND((%anMethType.code==AT13A),(RELATION{SummarizedInformation,source.code}==F01.A057G))</t>
-  </si>
-  <si>
-    <t>IF(OR((%internalOpType.label==Reject),(%internalOpType.label==Submit)),No,Yes)</t>
-  </si>
-  <si>
-    <t>(RELATION{SummarizedInformation,source.code}==F01.A057G)</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,source.code}</t>
-  </si>
-  <si>
-    <t>IF((%internalOpType.label!=Insert),RELATION{Report,reportDatasetId.label},)</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>MTX.gender</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}==RGT),SCRAPIE,)</t>
-  </si>
-  <si>
-    <t>N123A</t>
-  </si>
-  <si>
-    <t>sexLists</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>(RELATION{SummarizedInformation,type.code}==RGT)</t>
-  </si>
-  <si>
-    <t>%progLegalRef.code|IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},.|RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,progId.label}|IF((RELATION{SummarizedInformation,type.code}!=RGT),.%progIdSuffix.code,)</t>
-  </si>
-  <si>
-    <t>reportLastMessageId</t>
-  </si>
-  <si>
-    <t>reportLastModifyingMessageId</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH, used with Refresh Status/Display ack</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),RELATION{SummarizedInformation,animage.code},RELATION{CasesInformation,animage.code})</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}==CWD),RELATION{SummarizedInformation,sex.code},RELATION{CasesInformation,sex.code})</t>
-  </si>
-  <si>
-    <t>A04MQ#RELATION{SummarizedInformation,source.code}$RELATION{CasesInformation,part.code}$RELATION{SummarizedInformation,prod.code}|IF_NOT_NULL(%animage.code,$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
-  </si>
-  <si>
-    <t>A04MQ#%source.code$%prod.code|IF((%type.code!=RGT),$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(%PSUId.label,PSUId=%PSUId.label,)</t>
-  </si>
-  <si>
-    <t>PSUId</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,animalId.code},animalId=RELATION{CasesInformation,animalId.code},)|IF_NOT_NULL(RELATION{CasesInformation,herdId.label},$herdId=RELATION{CasesInformation,herdId.label}, )|IF_NOT_NULL(RELATION{CasesInformation,sampHoldingId.label},$sampHoldingId=RELATION{CasesInformation,sampHoldingId.label},)|IF_NOT_NULL(RELATION{SummarizedInformation,PSUId.label},$PSUId=RELATION{SummarizedInformation,PSUId.label},)</t>
-  </si>
-  <si>
-    <t>Sample/case assessment</t>
-  </si>
-  <si>
-    <t>First test type</t>
-  </si>
-  <si>
-    <t>First test</t>
-  </si>
-  <si>
-    <t>Type of the first executed test</t>
-  </si>
-  <si>
-    <t>First executed test</t>
-  </si>
-  <si>
-    <t>sampInfo</t>
-  </si>
-  <si>
-    <t>D.11</t>
-  </si>
-  <si>
-    <t>origSampId</t>
-  </si>
-  <si>
-    <t>origSampId=%origSampId.label</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,sampId.label}</t>
-  </si>
-  <si>
-    <t>sampUnitType</t>
-  </si>
-  <si>
-    <t>C.02</t>
-  </si>
-  <si>
-    <t>G199A</t>
-  </si>
-  <si>
-    <t>H.01</t>
-  </si>
-  <si>
-    <t>anPortSeq</t>
-  </si>
-  <si>
-    <t>Portion</t>
-  </si>
-  <si>
-    <t>Portion of the analyzed sample</t>
-  </si>
-  <si>
-    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
-  </si>
-  <si>
-    <t>sampEventAsses</t>
-  </si>
-  <si>
-    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,prod.code}==F21.A07RV),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
-  </si>
-  <si>
-    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=BSE),(RELATION{SummarizedInformation,type.code}!=CWD))</t>
-  </si>
-  <si>
-    <t>IF(AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=SCRAPIE),(RELATION{SummarizedInformation,type.code}!=RGT),(RELATION{SummarizedInformation,type.code}!=BSEOS)),Y,)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,tseNationalCaseId.label},tseNationalCaseId=RELATION{CasesInformation,tseNationalCaseId.label}$,)|IF_NOT_NULL(RELATION{CasesInformation,tseIndexCase.code},tseIndexCase=RELATION{CasesInformation,tseIndexCase.code}$,)|IF_NOT_NULL(RELATION{CasesInformation,sampEventAsses.code},sampEventAsses=RELATION{CasesInformation,sampEventAsses.code},)|IF_NOT_NULL(RELATION{CasesInformation,evalCom.label},$com=RELATION{CasesInformation,evalCom.label},)</t>
-  </si>
-  <si>
-    <t>cwdExtCont</t>
-  </si>
-  <si>
-    <t>pref11</t>
-  </si>
-  <si>
-    <t>CWD extended context</t>
-  </si>
-  <si>
-    <t>yesNoLists</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Sex of the animals</t>
-  </si>
-  <si>
-    <t>AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.label}==Yes))</t>
-  </si>
-  <si>
-    <t>IF(OR((%type.code!=CWD),(RELATION{Preferences,cwdExtCont.label}==No)),F32.A0C9B,)</t>
-  </si>
-  <si>
-    <t>BSE</t>
-  </si>
-  <si>
-    <t>%type.code|$%anMethType.code</t>
-  </si>
-  <si>
-    <t>IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,defScreeningBSE.code},)</t>
-  </si>
-  <si>
-    <t>(%type.code==SCRAPIE)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(%statusHerd.code,statusHerd=%statusHerd.code,)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.label}==No)),F01.A056M,)</t>
-  </si>
-  <si>
-    <t>%type.code|IF((%type.code==CWD),$RELATION{Preferences,cwdExtCont.label},)</t>
-  </si>
-  <si>
-    <t>OR((RELATION{SummarizedInformation,type.code}!=CWD),(RELATION{Preferences,cwdExtCont.label}==No))</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),,AT06A)</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>IF(OR((%country.code==EE),(%country.code==FI),(%country.code==LV),(%country.code==LT),(%country.code==PL),(%country.code==SE)),Y,ALL)</t>
-  </si>
-  <si>
-    <t>Flag to include sex and PSU in the context for aggregated data</t>
-  </si>
-  <si>
-    <t>OR((%type.code==CWD),(%type.code==BSEOS))</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,birthCountry.code},birthCountry=RELATION{CasesInformation,birthCountry.code},)|IF_NOT_NULL(RELATION{SummarizedInformation,statusHerd.code},$statusHerd=RELATION{SummarizedInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
-  </si>
-  <si>
-    <t>Herd/Flock status</t>
-  </si>
-  <si>
-    <t>Husbandry system</t>
-  </si>
-  <si>
-    <t>Aggregated-Data-(Level-1)</t>
-  </si>
-  <si>
-    <t>Sample-Level-Data-(Level-2)</t>
-  </si>
-  <si>
-    <t>Analytical-Test-Results-(Level-3)</t>
-  </si>
-  <si>
-    <t>Report-Management</t>
-  </si>
-  <si>
-    <t>IF(OR((%type.code==SCRAPIE),(%type.code==BSEOS)),F,)</t>
+    <t>OR((RELATION{SummarizedInformation,type.code}!=CWD),(RELATION{Preferences,cwdExtCont.code}==N))</t>
+  </si>
+  <si>
+    <t>IF(OR((%type.code==SCRAPIE),(%type.code==BSEOS)),Not infected,)</t>
+  </si>
+  <si>
+    <t>origSampId=%sampId.label</t>
+  </si>
+  <si>
+    <t>NEXT(,)</t>
+  </si>
+  <si>
+    <t>Dataset ID</t>
+  </si>
+  <si>
+    <t>Report Status</t>
   </si>
 </sst>
 </file>
@@ -3127,10 +3139,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S39" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
-  <autoFilter ref="A1:S39"/>
-  <sortState ref="A3:S39">
-    <sortCondition ref="R1:R39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S40" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="A1:S40"/>
+  <sortState ref="A2:S40">
+    <sortCondition ref="B1:B40"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="79"/>
@@ -3782,7 +3794,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3796,7 +3808,7 @@
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="40.28515625" customWidth="1"/>
     <col min="13" max="14" width="14.140625" customWidth="1"/>
     <col min="15" max="16" width="14.7109375" customWidth="1"/>
     <col min="17" max="17" width="14.140625" customWidth="1"/>
@@ -3899,16 +3911,16 @@
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>12</v>
@@ -3926,16 +3938,16 @@
         <v>9</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>9</v>
@@ -3958,7 +3970,7 @@
         <v>122</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
@@ -3979,7 +3991,7 @@
         <v>113</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="R4" s="2">
         <v>3</v>
@@ -3996,7 +4008,7 @@
         <v>124</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -4017,7 +4029,7 @@
         <v>113</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="R5" s="2">
         <v>4</v>
@@ -4034,7 +4046,7 @@
         <v>126</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -4055,7 +4067,7 @@
         <v>113</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="R6" s="2">
         <v>5</v>
@@ -4093,7 +4105,7 @@
         <v>113</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="R7" s="2">
         <v>6</v>
@@ -4131,7 +4143,7 @@
         <v>113</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="R8" s="2">
         <v>7</v>
@@ -4169,7 +4181,7 @@
         <v>113</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="R9" s="2">
         <v>8</v>
@@ -4177,17 +4189,17 @@
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>12</v>
@@ -4208,7 +4220,7 @@
         <v>113</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="R10" s="2">
         <v>9</v>
@@ -4216,17 +4228,17 @@
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>12</v>
@@ -4247,7 +4259,7 @@
         <v>113</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="R11" s="2">
         <v>10</v>
@@ -4255,17 +4267,17 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>12</v>
@@ -4286,7 +4298,7 @@
         <v>113</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
@@ -4310,11 +4322,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4427,7 +4439,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="8" t="s">
@@ -4532,7 +4544,7 @@
         <v>301</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4620,13 +4632,13 @@
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>240</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>175</v>
@@ -4658,7 +4670,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>175</v>
@@ -4689,13 +4701,13 @@
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>175</v>
@@ -4726,13 +4738,13 @@
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>175</v>
@@ -4769,9 +4781,11 @@
         <v>248</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>471</v>
+      </c>
       <c r="E11" s="17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>175</v>
@@ -4784,7 +4798,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -4795,9 +4809,11 @@
       <c r="Q11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="R11" s="17"/>
+      <c r="R11" s="17">
+        <v>5</v>
+      </c>
       <c r="S11" s="17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4808,9 +4824,11 @@
         <v>243</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>472</v>
+      </c>
       <c r="E12" s="17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>175</v>
@@ -4823,7 +4841,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
@@ -4834,22 +4852,24 @@
       <c r="Q12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="17"/>
+      <c r="R12" s="17">
+        <v>6</v>
+      </c>
       <c r="S12" s="17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="17" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>175</v>
@@ -4889,13 +4909,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4981,54 +5001,63 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>78</v>
+        <v>97</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>311</v>
+        <v>3</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="R2" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>136</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>144</v>
+      <c r="G3" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>3</v>
@@ -5039,75 +5068,57 @@
       <c r="J3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="M3" s="6" t="s">
-        <v>315</v>
+        <v>470</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R3" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>62</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R4" s="6">
-        <v>2</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>175</v>
@@ -5124,8 +5135,8 @@
       <c r="J5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>314</v>
+      <c r="P5" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>9</v>
@@ -5133,127 +5144,139 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>463</v>
+        <v>27</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>460</v>
+        <v>369</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>317</v>
+      <c r="O6" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R6" s="6">
-        <v>3</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>351</v>
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>175</v>
+        <v>365</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>4</v>
+        <v>368</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="R7" s="6">
+        <v>11</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>85</v>
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>86</v>
+        <v>368</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="R8" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>80</v>
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>4</v>
@@ -5262,121 +5285,128 @@
         <v>4</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>82</v>
+        <v>3</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="R9" s="6">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>178</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>174</v>
+        <v>239</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="R10" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>74</v>
+      <c r="G11" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R11" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
+      <c r="A12" s="25" t="s">
+        <v>411</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>17</v>
+        <v>411</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>18</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G12" s="21"/>
       <c r="H12" s="6" t="s">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R12" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>9</v>
@@ -5384,20 +5414,17 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="H13" s="6" t="s">
         <v>4</v>
       </c>
@@ -5408,7 +5435,7 @@
         <v>4</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>9</v>
@@ -5416,78 +5443,86 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>175</v>
+        <v>34</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>4</v>
+        <v>448</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>4</v>
+        <v>448</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>400</v>
+        <v>464</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>468</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="R14" s="6">
+        <v>9</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>396</v>
+        <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>445</v>
+        <v>38</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>398</v>
+        <v>8</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="P15"/>
+        <v>4</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>466</v>
+      </c>
       <c r="Q15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="6">
-        <v>6</v>
-      </c>
-      <c r="S15" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5528,10 +5563,19 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>173</v>
+        <v>44</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>4</v>
@@ -5542,8 +5586,14 @@
       <c r="J17" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="N17" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>297</v>
+      </c>
       <c r="Q17" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -5583,16 +5633,16 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>8</v>
@@ -5606,8 +5656,11 @@
       <c r="J19" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="N19" s="6" t="s">
+        <v>295</v>
+      </c>
       <c r="P19" s="6" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>9</v>
@@ -5615,16 +5668,16 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>8</v>
@@ -5638,8 +5691,11 @@
       <c r="J20" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="N20" s="6" t="s">
+        <v>296</v>
+      </c>
       <c r="P20" s="6" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>9</v>
@@ -5647,20 +5703,17 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>44</v>
+        <v>418</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>43</v>
+        <v>419</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>44</v>
+        <v>418</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="H21" s="6" t="s">
         <v>4</v>
       </c>
@@ -5671,10 +5724,7 @@
         <v>4</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>297</v>
+        <v>469</v>
       </c>
       <c r="Q21" s="6" t="s">
         <v>9</v>
@@ -5682,17 +5732,20 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>175</v>
       </c>
+      <c r="G22" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="H22" s="6" t="s">
         <v>4</v>
       </c>
@@ -5702,8 +5755,11 @@
       <c r="J22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="6" t="s">
-        <v>452</v>
+      <c r="M22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>9</v>
@@ -5711,68 +5767,92 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>313</v>
+        <v>3</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="Q23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="6">
+        <v>4</v>
+      </c>
+      <c r="S23" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>4</v>
+        <v>456</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>299</v>
+        <v>3</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="Q24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="6">
+        <v>3</v>
+      </c>
+      <c r="S24" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5802,7 +5882,7 @@
         <v>4</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>9</v>
@@ -5810,77 +5890,111 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>55</v>
+        <v>395</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>451</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>56</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="P26"/>
       <c r="Q26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="6">
+        <v>6</v>
+      </c>
+      <c r="S26" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>223</v>
+        <v>60</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>175</v>
+        <v>12</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>413</v>
+        <v>3</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>450</v>
       </c>
       <c r="Q27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="6">
+        <v>2</v>
+      </c>
+      <c r="S27" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>8</v>
@@ -5894,11 +6008,8 @@
       <c r="J28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N28" s="6" t="s">
-        <v>295</v>
-      </c>
       <c r="P28" s="6" t="s">
-        <v>298</v>
+        <v>466</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>9</v>
@@ -5906,10 +6017,19 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>179</v>
+        <v>78</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>174</v>
+        <v>239</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>4</v>
@@ -5920,193 +6040,163 @@
       <c r="J29" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="P29" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="Q29" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>372</v>
+        <v>4</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>372</v>
+        <v>4</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>448</v>
+        <v>4</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>456</v>
+        <v>82</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R30" s="6">
-        <v>7</v>
-      </c>
-      <c r="S30" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>420</v>
+        <v>84</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>372</v>
+        <v>4</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>372</v>
+        <v>4</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>449</v>
+        <v>4</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>450</v>
+        <v>86</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R31" s="6">
-        <v>8</v>
-      </c>
-      <c r="S31" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>37</v>
+        <v>87</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>451</v>
+        <v>4</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>451</v>
+        <v>4</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>468</v>
+        <v>4</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="6">
-        <v>9</v>
-      </c>
-      <c r="S32" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>414</v>
+      <c r="A33" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>203</v>
+        <v>89</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>414</v>
       </c>
+      <c r="E33" s="6" t="s">
+        <v>416</v>
+      </c>
       <c r="F33" s="6" t="s">
-        <v>175</v>
+        <v>12</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="K33" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>452</v>
+      </c>
       <c r="Q33" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R33" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S33" s="6" t="s">
         <v>9</v>
@@ -6114,40 +6204,52 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>14</v>
+        <v>92</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>25</v>
+        <v>415</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>8</v>
+        <v>417</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O34" s="6" t="s">
-        <v>371</v>
+      <c r="K34" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>447</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R34" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S34" s="6" t="s">
         <v>9</v>
@@ -6155,98 +6257,68 @@
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="G35" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>372</v>
+        <v>4</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>372</v>
+        <v>4</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>371</v>
+        <v>4</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>27</v>
+        <v>348</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>372</v>
+        <v>4</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>372</v>
+        <v>4</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>371</v>
+        <v>4</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="R36" s="6">
-        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>369</v>
+        <v>178</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>4</v>
@@ -6255,98 +6327,76 @@
         <v>4</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>312</v>
+        <v>4</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R37" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>372</v>
+        <v>4</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>372</v>
+        <v>4</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="6" t="s">
-        <v>371</v>
+        <v>4</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R38" s="6">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>6</v>
+        <v>223</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="F39" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>8</v>
-      </c>
       <c r="H39" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>323</v>
+        <v>4</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>410</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="R39" s="6">
-        <v>16</v>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6362,11 +6412,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6453,13 +6503,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B2" t="s">
         <v>192</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>212</v>
@@ -6468,16 +6518,16 @@
         <v>12</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>213</v>
@@ -6562,10 +6612,10 @@
         <v>304</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>5</v>
@@ -6579,37 +6629,37 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>455</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>455</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>401</v>
-      </c>
       <c r="L5" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -6638,19 +6688,19 @@
         <v>74</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>112</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>5</v>
@@ -6679,13 +6729,13 @@
         <v>8</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>5</v>
@@ -6717,7 +6767,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>3</v>
@@ -6861,7 +6911,7 @@
         <v>218</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>3</v>
@@ -6902,13 +6952,13 @@
         <v>198</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>436</v>
-      </c>
       <c r="J13" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>199</v>
@@ -6917,7 +6967,7 @@
         <v>304</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>5</v>
@@ -6946,7 +6996,7 @@
         <v>42</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>3</v>
@@ -6986,7 +7036,7 @@
         <v>283</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>3</v>
@@ -6995,7 +7045,7 @@
         <v>3</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>5</v>
@@ -7022,7 +7072,7 @@
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>3</v>
@@ -7048,7 +7098,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>310</v>
@@ -7069,10 +7119,10 @@
         <v>3</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -7193,10 +7243,10 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>175</v>
@@ -7230,11 +7280,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M26" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7331,19 +7381,19 @@
         <v>12</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>5</v>
@@ -7369,19 +7419,19 @@
         <v>12</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>5</v>
@@ -7422,7 +7472,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>295</v>
@@ -7457,7 +7507,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -7477,7 +7527,7 @@
         <v>143</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>12</v>
@@ -7498,7 +7548,7 @@
         <v>113</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>9</v>
@@ -7539,7 +7589,7 @@
         <v>4</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>9</v>
@@ -7591,19 +7641,19 @@
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>175</v>
@@ -7667,7 +7717,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
@@ -7675,10 +7725,10 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>175</v>
@@ -7693,7 +7743,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
@@ -7710,7 +7760,7 @@
         <v>84</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>175</v>
@@ -7728,7 +7778,7 @@
         <v>4</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>9</v>
@@ -7736,10 +7786,10 @@
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>4</v>
@@ -7751,7 +7801,7 @@
         <v>4</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>5</v>
@@ -7818,7 +7868,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>9</v>
@@ -7826,7 +7876,7 @@
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>175</v>
@@ -7844,7 +7894,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -7876,7 +7926,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>9</v>
@@ -7893,10 +7943,10 @@
         <v>11</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>175</v>
@@ -7914,7 +7964,7 @@
         <v>4</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>9</v>
@@ -8015,7 +8065,7 @@
         <v>96</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>257</v>
@@ -8036,7 +8086,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>9</v>
@@ -8056,7 +8106,7 @@
         <v>255</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>175</v>
@@ -8071,7 +8121,7 @@
         <v>4</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>9</v>
@@ -8260,7 +8310,7 @@
         <v>4</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>9</v>
@@ -8289,7 +8339,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>9</v>
@@ -8335,13 +8385,13 @@
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>175</v>
@@ -8356,7 +8406,7 @@
         <v>4</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>9</v>
@@ -8420,7 +8470,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>9</v>
@@ -8516,7 +8566,7 @@
         <v>4</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>9</v>
@@ -8524,13 +8574,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>175</v>
@@ -8545,7 +8595,7 @@
         <v>4</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>9</v>
@@ -8588,7 +8638,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>57</v>
@@ -8606,7 +8656,7 @@
         <v>4</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>5</v>
@@ -8634,7 +8684,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>254</v>
@@ -8646,19 +8696,19 @@
         <v>85</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q43" s="6" t="s">
         <v>5</v>
@@ -8856,7 +8906,7 @@
         <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8864,7 +8914,7 @@
         <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8888,7 +8938,7 @@
         <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8896,7 +8946,7 @@
         <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -8912,10 +8962,10 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9095,7 +9145,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="6"/>
       <c r="P4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -9201,7 +9251,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -9241,7 +9291,7 @@
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>175</v>
@@ -9260,10 +9310,10 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="24" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -9319,18 +9369,18 @@
         <v>4</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>175</v>
@@ -9348,13 +9398,13 @@
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>175</v>

--- a/target/classes/tablesSchema.xlsx
+++ b/target/classes/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20070" windowHeight="3840" tabRatio="690" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20070" windowHeight="3840" tabRatio="690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="475">
   <si>
     <t>Type</t>
   </si>
@@ -1290,12 +1290,6 @@
     <t>origSampId</t>
   </si>
   <si>
-    <t>origSampId=%origSampId.label</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,sampId.label}</t>
-  </si>
-  <si>
     <t>sampUnitType</t>
   </si>
   <si>
@@ -1356,12 +1350,6 @@
     <t>Sex of the animals</t>
   </si>
   <si>
-    <t>AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.label}==Yes))</t>
-  </si>
-  <si>
-    <t>IF(OR((%type.code!=CWD),(RELATION{Preferences,cwdExtCont.label}==No)),F32.A0C9B,)</t>
-  </si>
-  <si>
     <t>BSE</t>
   </si>
   <si>
@@ -1377,12 +1365,6 @@
     <t>IF_NOT_NULL(%statusHerd.code,statusHerd=%statusHerd.code,)</t>
   </si>
   <si>
-    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.label}==No)),F01.A056M,)</t>
-  </si>
-  <si>
-    <t>%type.code|IF((%type.code==CWD),$RELATION{Preferences,cwdExtCont.label},)</t>
-  </si>
-  <si>
     <t>IF((%type.code==RGT),,AT06A)</t>
   </si>
   <si>
@@ -1428,15 +1410,9 @@
     <t>%progId.label</t>
   </si>
   <si>
-    <t>OR((RELATION{SummarizedInformation,type.code}!=CWD),(RELATION{Preferences,cwdExtCont.code}==N))</t>
-  </si>
-  <si>
     <t>IF(OR((%type.code==SCRAPIE),(%type.code==BSEOS)),Not infected,)</t>
   </si>
   <si>
-    <t>origSampId=%sampId.label</t>
-  </si>
-  <si>
     <t>NEXT(,)</t>
   </si>
   <si>
@@ -1444,6 +1420,36 @@
   </si>
   <si>
     <t>Report Status</t>
+  </si>
+  <si>
+    <t>%type.code|IF((%type.code==CWD),$RELATION{Preferences,cwdExtCont.code},)</t>
+  </si>
+  <si>
+    <t>AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==Y))</t>
+  </si>
+  <si>
+    <t>IF(OR((%type.code!=CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F32.A0C9B,)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F01.A056M,)</t>
+  </si>
+  <si>
+    <t>RELATION{Preferences,cwdExtCont.code}</t>
+  </si>
+  <si>
+    <t>OR((RELATION{SummarizedInformation,type.code}!=CWD),(RELATION{SummarizedInformation,cwdExtCont.code}==N))</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT), RELATION{SummarizedInformation,sampId.label}, )</t>
+  </si>
+  <si>
+    <t>IF(%type.code!=RGT, origSampId=%sampId.label, )</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT), origSampId=%origSampId.label, )</t>
+  </si>
+  <si>
+    <t>RELATION{Preferences,cwdExtCont.label}</t>
   </si>
 </sst>
 </file>
@@ -3139,10 +3145,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S40" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
-  <autoFilter ref="A1:S40"/>
-  <sortState ref="A2:S40">
-    <sortCondition ref="B1:B40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S41" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="A1:S41"/>
+  <sortState ref="A2:S41">
+    <sortCondition ref="A1:A41"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="79"/>
@@ -3791,10 +3797,10 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3911,16 +3917,16 @@
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>438</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>12</v>
@@ -3938,16 +3944,16 @@
         <v>9</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>9</v>
@@ -4322,11 +4328,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4782,7 +4788,7 @@
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="18" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>405</v>
@@ -4825,7 +4831,7 @@
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="18" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>405</v>
@@ -4909,13 +4915,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5001,124 +5007,142 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
+        <v>78</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>314</v>
+        <v>4</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>311</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>8</v>
+        <v>73</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>470</v>
+      <c r="K3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R3" s="6">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>11</v>
+        <v>93</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>417</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>175</v>
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>397</v>
+        <v>443</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="R4" s="6">
+        <v>8</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>175</v>
@@ -5135,8 +5159,8 @@
       <c r="J5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="6" t="s">
-        <v>373</v>
+      <c r="N5" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>9</v>
@@ -5144,22 +5168,25 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>89</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>27</v>
+        <v>414</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>28</v>
+        <v>416</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>369</v>
@@ -5170,113 +5197,98 @@
       <c r="J6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>368</v>
+      <c r="K6" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>446</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R6" s="6">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
+        <v>348</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>8</v>
+        <v>349</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>369</v>
+        <v>4</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>369</v>
+        <v>4</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="R7" s="6">
-        <v>11</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="G8" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>369</v>
+        <v>4</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>369</v>
+        <v>4</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>368</v>
+        <v>4</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>474</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="R8" s="6">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>366</v>
+        <v>83</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>4</v>
@@ -5285,128 +5297,115 @@
         <v>4</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>312</v>
+        <v>4</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="6">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
+        <v>79</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>369</v>
+        <v>4</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>369</v>
+        <v>4</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="G12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R11" s="6">
-        <v>5</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="I12" s="6" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="K12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R12" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>9</v>
@@ -5414,102 +5413,87 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>175</v>
       </c>
+      <c r="G13" s="17" t="s">
+        <v>8</v>
+      </c>
       <c r="H13" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>449</v>
+        <v>3</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>462</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="R13" s="6">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>448</v>
+        <v>4</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>448</v>
+        <v>4</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>464</v>
+        <v>4</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>468</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="6">
-        <v>9</v>
-      </c>
-      <c r="S14" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="H15" s="6" t="s">
         <v>4</v>
       </c>
@@ -5519,57 +5503,55 @@
       <c r="J15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="M15" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="Q15" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="I16" s="6" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>297</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="6">
+        <v>10</v>
+      </c>
+      <c r="S16" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>175</v>
@@ -5598,19 +5580,10 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>4</v>
@@ -5621,25 +5594,19 @@
       <c r="J18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>298</v>
-      </c>
       <c r="Q18" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>239</v>
@@ -5668,16 +5635,16 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>8</v>
@@ -5691,11 +5658,8 @@
       <c r="J20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="6" t="s">
-        <v>296</v>
-      </c>
       <c r="P20" s="6" t="s">
-        <v>299</v>
+        <v>459</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>9</v>
@@ -5703,17 +5667,20 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>419</v>
+        <v>75</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>175</v>
       </c>
+      <c r="G21" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H21" s="6" t="s">
         <v>4</v>
       </c>
@@ -5723,8 +5690,8 @@
       <c r="J21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="6" t="s">
-        <v>469</v>
+      <c r="P21" s="6" t="s">
+        <v>460</v>
       </c>
       <c r="Q21" s="6" t="s">
         <v>9</v>
@@ -5732,19 +5699,19 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>175</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>4</v>
@@ -5755,11 +5722,11 @@
       <c r="J22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>56</v>
+      <c r="N22" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>9</v>
@@ -5767,111 +5734,78 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>73</v>
+        <v>34</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>369</v>
+        <v>4</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>369</v>
+        <v>4</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>314</v>
+        <v>4</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>445</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="6">
-        <v>4</v>
-      </c>
-      <c r="S23" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>315</v>
+        <v>4</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>460</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="6">
-        <v>3</v>
-      </c>
-      <c r="S24" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>58</v>
+        <v>418</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>57</v>
+        <v>419</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>58</v>
+        <v>418</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="H25" s="6" t="s">
         <v>4</v>
       </c>
@@ -5881,8 +5815,8 @@
       <c r="J25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="6" t="s">
-        <v>409</v>
+      <c r="N25" s="6" t="s">
+        <v>472</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>9</v>
@@ -5890,114 +5824,86 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>393</v>
+        <v>51</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>442</v>
+        <v>50</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>395</v>
+        <v>8</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="P26"/>
+        <v>4</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>299</v>
+      </c>
       <c r="Q26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="6">
-        <v>6</v>
-      </c>
-      <c r="S26" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>62</v>
+      <c r="C27" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>369</v>
+        <v>4</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>450</v>
+        <v>4</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>409</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="6">
-        <v>2</v>
-      </c>
-      <c r="S27" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>175</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>4</v>
@@ -6008,8 +5914,11 @@
       <c r="J28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P28" s="6" t="s">
-        <v>466</v>
+      <c r="M28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>9</v>
@@ -6017,19 +5926,13 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>4</v>
@@ -6041,7 +5944,7 @@
         <v>4</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>311</v>
+        <v>410</v>
       </c>
       <c r="Q29" s="6" t="s">
         <v>9</v>
@@ -6049,19 +5952,19 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>4</v>
@@ -6072,11 +5975,11 @@
       <c r="J30" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M30" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>82</v>
+      <c r="N30" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>9</v>
@@ -6084,19 +5987,10 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>4</v>
@@ -6107,72 +6001,79 @@
       <c r="J31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M31" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="Q31" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>88</v>
+        <v>393</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>88</v>
+        <v>57</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>440</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>8</v>
+        <v>395</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>313</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="P32"/>
       <c r="Q32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="6">
+        <v>6</v>
+      </c>
+      <c r="S32" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>414</v>
+        <v>61</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>416</v>
+        <v>62</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>369</v>
+        <v>3</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>369</v>
@@ -6181,22 +6082,19 @@
         <v>3</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>309</v>
+        <v>109</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R33" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S33" s="6" t="s">
         <v>9</v>
@@ -6204,52 +6102,52 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="F34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>94</v>
+      <c r="G34" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>369</v>
+        <v>444</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>369</v>
+        <v>444</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K34" s="6" t="s">
-        <v>113</v>
+      <c r="K34" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>446</v>
+        <v>314</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>447</v>
+        <v>458</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>461</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R34" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S34" s="6" t="s">
         <v>9</v>
@@ -6257,88 +6155,139 @@
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>96</v>
+        <v>14</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>465</v>
+        <v>3</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="R35" s="6">
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>348</v>
+        <v>24</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>175</v>
+        <v>365</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>4</v>
+        <v>368</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="R36" s="6">
+        <v>11</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>174</v>
+        <v>21</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="R37" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>173</v>
+        <v>19</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>174</v>
+        <v>239</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>4</v>
@@ -6347,56 +6296,139 @@
         <v>4</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="R38" s="6">
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>223</v>
+        <v>29</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>175</v>
+        <v>239</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>410</v>
+        <v>3</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="R39" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>174</v>
+        <v>16</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>4</v>
+        <v>369</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="R40" s="6">
+        <v>5</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6412,11 +6444,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A22"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6503,7 +6535,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s">
         <v>192</v>
@@ -6650,10 +6682,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>398</v>
@@ -6729,7 +6761,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>3</v>
@@ -6767,7 +6799,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>3</v>
@@ -6911,7 +6943,7 @@
         <v>218</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>3</v>
@@ -6952,10 +6984,10 @@
         <v>198</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>371</v>
@@ -6967,7 +6999,7 @@
         <v>304</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>5</v>
@@ -6996,7 +7028,7 @@
         <v>42</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>3</v>
@@ -7036,7 +7068,7 @@
         <v>283</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>3</v>
@@ -7072,7 +7104,7 @@
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>3</v>
@@ -7119,10 +7151,10 @@
         <v>3</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -7281,10 +7313,10 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7641,19 +7673,19 @@
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>429</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>175</v>
@@ -7668,6 +7700,9 @@
         <v>4</v>
       </c>
       <c r="O9" s="6">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6">
         <v>1</v>
       </c>
       <c r="Q9" s="6" t="s">
@@ -7717,7 +7752,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
@@ -7743,7 +7778,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
@@ -8339,7 +8374,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>9</v>
@@ -8406,7 +8441,7 @@
         <v>4</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>9</v>
@@ -8574,13 +8609,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>175</v>
@@ -8595,7 +8630,7 @@
         <v>4</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>9</v>
@@ -8730,13 +8765,13 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8906,7 +8941,7 @@
         <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8914,7 +8949,7 @@
         <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8938,7 +8973,7 @@
         <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8946,7 +8981,7 @@
         <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/tablesSchema.xlsx
+++ b/target/classes/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20070" windowHeight="3840" tabRatio="690" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20070" windowHeight="3840" tabRatio="690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="475">
   <si>
     <t>Type</t>
   </si>
@@ -1422,18 +1422,6 @@
     <t>Report Status</t>
   </si>
   <si>
-    <t>%type.code|IF((%type.code==CWD),$RELATION{Preferences,cwdExtCont.code},)</t>
-  </si>
-  <si>
-    <t>AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==Y))</t>
-  </si>
-  <si>
-    <t>IF(OR((%type.code!=CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F32.A0C9B,)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F01.A056M,)</t>
-  </si>
-  <si>
     <t>RELATION{Preferences,cwdExtCont.code}</t>
   </si>
   <si>
@@ -1443,13 +1431,25 @@
     <t>IF((RELATION{SummarizedInformation,type.code}!=RGT), RELATION{SummarizedInformation,sampId.label}, )</t>
   </si>
   <si>
-    <t>IF(%type.code!=RGT, origSampId=%sampId.label, )</t>
-  </si>
-  <si>
     <t>IF((RELATION{SummarizedInformation,type.code}!=RGT), origSampId=%origSampId.label, )</t>
   </si>
   <si>
     <t>RELATION{Preferences,cwdExtCont.label}</t>
+  </si>
+  <si>
+    <t>%type.code|IF((%type.code==CWD),$%cwdExtCont.label,)</t>
+  </si>
+  <si>
+    <t>IF(OR((%type.code!=CWD),(%cwdExtCont.code==N)),F32.A0C9B,)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(%cwdExtCont.code==N)),F01.A056M,)</t>
+  </si>
+  <si>
+    <t>AND((%type.code==CWD),(%cwdExtCont.code==Y))</t>
+  </si>
+  <si>
+    <t>IF((%type.code!=RGT), origSampId=%sampId.label, )</t>
   </si>
 </sst>
 </file>
@@ -3797,7 +3797,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
@@ -4917,11 +4917,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomRight" activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5264,11 +5264,17 @@
       <c r="J8" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="M8" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="N8" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>469</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>5</v>
@@ -5525,10 +5531,10 @@
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="6" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>3</v>
@@ -5815,8 +5821,8 @@
       <c r="J25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N25" s="6" t="s">
-        <v>472</v>
+      <c r="P25" s="6" t="s">
+        <v>474</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>9</v>
@@ -6037,10 +6043,13 @@
         <v>398</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>467</v>
+        <v>471</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>471</v>
       </c>
       <c r="P32"/>
       <c r="Q32" s="6" t="s">
@@ -6085,10 +6094,13 @@
         <v>109</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>468</v>
+        <v>472</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>472</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>5</v>
@@ -6444,8 +6456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
@@ -6682,10 +6694,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>398</v>
@@ -7313,10 +7325,10 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7778,7 +7790,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
@@ -8441,7 +8453,7 @@
         <v>4</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>9</v>

--- a/target/classes/tablesSchema.xlsx
+++ b/target/classes/tablesSchema.xlsx
@@ -24,8 +24,142 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>SHAHAJ Alban</author>
+  </authors>
+  <commentList>
+    <comment ref="L8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SHAHAJ Alban:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+BSE (before)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SHAHAJ Alban:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Before:
+IF((%type.code==RGT),,AT06A)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SHAHAJ Alban:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Before:
+IF((%type.code==RGT),,AT06A)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SHAHAJ Alban:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+before:
+IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,defScreeningBSE.code},)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SHAHAJ Alban:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+before:
+IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,def</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="478">
   <si>
     <t>Type</t>
   </si>
@@ -285,9 +419,6 @@
     <t>PARAM</t>
   </si>
   <si>
-    <t>RF-00004628-PAR</t>
-  </si>
-  <si>
     <t>L.01</t>
   </si>
   <si>
@@ -963,9 +1094,6 @@
     <t>%repYear.label</t>
   </si>
   <si>
-    <t>SUM(%totSamplesPositive.label,%totSamplesNegative.label,%totSamplesInconclusive.label)</t>
-  </si>
-  <si>
     <t>%anMethType.code|.|%anMethCode.code</t>
   </si>
   <si>
@@ -1146,9 +1274,6 @@
     <t>IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},tseTargetGroup=RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
   </si>
   <si>
-    <t>IF((%type.code!=RGT),tseTargetGroup=%tseTargetGroup.code$totSamplesTested=%totSamplesTested.label$totSamplesPositive=%totSamplesPositive.label$totSamplesNegative=%totSamplesNegative.label$totSamplesInconclusive=%totSamplesInconclusive.label$totSamplesUnsuitable=%totSamplesUnsuitable.label,)</t>
-  </si>
-  <si>
     <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),F02.A06AM,F02.A06AL)</t>
   </si>
   <si>
@@ -1320,12 +1445,6 @@
     <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,prod.code}==F21.A07RV),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
   </si>
   <si>
-    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=BSE),(RELATION{SummarizedInformation,type.code}!=CWD))</t>
-  </si>
-  <si>
-    <t>IF(AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=SCRAPIE),(RELATION{SummarizedInformation,type.code}!=RGT),(RELATION{SummarizedInformation,type.code}!=BSEOS)),Y,)</t>
-  </si>
-  <si>
     <t>IF_NOT_NULL(RELATION{CasesInformation,tseNationalCaseId.label},tseNationalCaseId=RELATION{CasesInformation,tseNationalCaseId.label}$,)|IF_NOT_NULL(RELATION{CasesInformation,tseIndexCase.code},tseIndexCase=RELATION{CasesInformation,tseIndexCase.code}$,)|IF_NOT_NULL(RELATION{CasesInformation,sampEventAsses.code},sampEventAsses=RELATION{CasesInformation,sampEventAsses.code},)|IF_NOT_NULL(RELATION{CasesInformation,evalCom.label},$com=RELATION{CasesInformation,evalCom.label},)</t>
   </si>
   <si>
@@ -1350,24 +1469,15 @@
     <t>Sex of the animals</t>
   </si>
   <si>
-    <t>BSE</t>
-  </si>
-  <si>
     <t>%type.code|$%anMethType.code</t>
   </si>
   <si>
-    <t>IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,defScreeningBSE.code},)</t>
-  </si>
-  <si>
     <t>(%type.code==SCRAPIE)</t>
   </si>
   <si>
     <t>IF_NOT_NULL(%statusHerd.code,statusHerd=%statusHerd.code,)</t>
   </si>
   <si>
-    <t>IF((%type.code==RGT),,AT06A)</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -1422,41 +1532,74 @@
     <t>Report Status</t>
   </si>
   <si>
-    <t>RELATION{Preferences,cwdExtCont.code}</t>
-  </si>
-  <si>
-    <t>OR((RELATION{SummarizedInformation,type.code}!=CWD),(RELATION{SummarizedInformation,cwdExtCont.code}==N))</t>
-  </si>
-  <si>
     <t>IF((RELATION{SummarizedInformation,type.code}!=RGT), RELATION{SummarizedInformation,sampId.label}, )</t>
   </si>
   <si>
     <t>IF((RELATION{SummarizedInformation,type.code}!=RGT), origSampId=%origSampId.label, )</t>
   </si>
   <si>
-    <t>RELATION{Preferences,cwdExtCont.label}</t>
-  </si>
-  <si>
-    <t>%type.code|IF((%type.code==CWD),$%cwdExtCont.label,)</t>
-  </si>
-  <si>
-    <t>IF(OR((%type.code!=CWD),(%cwdExtCont.code==N)),F32.A0C9B,)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(%cwdExtCont.code==N)),F01.A056M,)</t>
-  </si>
-  <si>
-    <t>AND((%type.code==CWD),(%cwdExtCont.code==Y))</t>
-  </si>
-  <si>
     <t>IF((%type.code!=RGT), origSampId=%sampId.label, )</t>
+  </si>
+  <si>
+    <t>(%type.code==RGT)</t>
+  </si>
+  <si>
+    <t>F01.A057G</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),RF-00004629-PAR,RF-00004628-PAR)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),RF-00004629-PAR#allele=%allele1.label$allele=%allele2.label,RF-00004628-PAR)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),0,)</t>
+  </si>
+  <si>
+    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=BSE))</t>
+  </si>
+  <si>
+    <t>IF(AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}==BSE)),Y,)</t>
+  </si>
+  <si>
+    <t>%type.code|IF((%type.code==CWD),$RELATION{Preferences,cwdExtCont.label},)</t>
+  </si>
+  <si>
+    <t>IF(OR((%type.code!=CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F32.A0C9B,)</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,sex.code}==F32.A0C9B)</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,sex.code}!=F32.A0C9B),RELATION{SummarizedInformation,sex.code},)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F01.A056M,)</t>
+  </si>
+  <si>
+    <t>AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==Y))</t>
+  </si>
+  <si>
+    <t>(%type.code==CWD)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),AT13A,AT06A)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,defScreeningBSE.code},)IF((%type.code==RGT),F089A,)</t>
+  </si>
+  <si>
+    <t>IF((%type.code!=RGT),tseTargetGroup=%tseTargetGroup.code$totSamplesTested=%totSamplesTested.label$totSamplesPositive=%totSamplesPositive.label$totSamplesNegative=%totSamplesNegative.label$totSamplesInconclusive=%totSamplesInconclusive.label$totSamplesUnsuitable=%totSamplesUnsuitable.label,totSamplesTested=%totSamplesTested.label)</t>
+  </si>
+  <si>
+    <t>IF((%type.code!=RGT),SUM(%totSamplesPositive.label,%totSamplesNegative.label,%totSamplesInconclusive.label),)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1484,6 +1627,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1506,7 +1668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,7 +1753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1624,7 +1786,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3145,10 +3311,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S41" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
-  <autoFilter ref="A1:S41"/>
-  <sortState ref="A2:S41">
-    <sortCondition ref="A1:A41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S42" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="A1:S42"/>
+  <sortState ref="A2:S43">
+    <sortCondition ref="R1:R43"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" name="id" dataDxfId="79"/>
@@ -3603,82 +3769,82 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>9</v>
@@ -3703,23 +3869,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>9</v>
@@ -3744,23 +3910,23 @@
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>9</v>
@@ -3797,10 +3963,10 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3822,75 +3988,75 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
@@ -3908,7 +4074,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L2" s="5"/>
       <c r="R2" s="2">
@@ -3917,22 +4083,22 @@
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>9</v>
@@ -3944,16 +4110,16 @@
         <v>9</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>9</v>
@@ -3967,22 +4133,22 @@
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>9</v>
@@ -3994,10 +4160,10 @@
         <v>9</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="R4" s="2">
         <v>3</v>
@@ -4005,22 +4171,22 @@
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>9</v>
@@ -4032,10 +4198,10 @@
         <v>9</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="R5" s="2">
         <v>4</v>
@@ -4043,22 +4209,22 @@
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>9</v>
@@ -4070,10 +4236,10 @@
         <v>9</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="R6" s="2">
         <v>5</v>
@@ -4081,22 +4247,22 @@
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>5</v>
@@ -4108,10 +4274,10 @@
         <v>9</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="R7" s="2">
         <v>6</v>
@@ -4119,22 +4285,22 @@
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>5</v>
@@ -4146,10 +4312,10 @@
         <v>9</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R8" s="2">
         <v>7</v>
@@ -4157,22 +4323,22 @@
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>5</v>
@@ -4184,10 +4350,10 @@
         <v>9</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R9" s="2">
         <v>8</v>
@@ -4195,23 +4361,23 @@
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>9</v>
@@ -4223,10 +4389,10 @@
         <v>9</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R10" s="2">
         <v>9</v>
@@ -4234,23 +4400,23 @@
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>9</v>
@@ -4262,10 +4428,10 @@
         <v>9</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="R11" s="2">
         <v>10</v>
@@ -4273,23 +4439,23 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>9</v>
@@ -4301,10 +4467,10 @@
         <v>9</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
@@ -4332,7 +4498,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4358,82 +4524,82 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>9</v>
@@ -4445,15 +4611,15 @@
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="2" t="s">
@@ -4468,23 +4634,23 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>9</v>
@@ -4496,15 +4662,15 @@
         <v>9</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="2" t="s">
@@ -4519,18 +4685,18 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
@@ -4547,10 +4713,10 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4564,17 +4730,17 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>12</v>
@@ -4592,15 +4758,15 @@
         <v>9</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10" t="s">
@@ -4615,10 +4781,10 @@
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>5</v>
@@ -4638,16 +4804,16 @@
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>5</v>
@@ -4668,18 +4834,18 @@
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="s">
@@ -4707,16 +4873,16 @@
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17" t="s">
@@ -4744,16 +4910,16 @@
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17" t="s">
@@ -4781,20 +4947,20 @@
     </row>
     <row r="11" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>247</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>248</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="18" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17" t="s">
@@ -4824,20 +4990,20 @@
     </row>
     <row r="12" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>242</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>243</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17" t="s">
@@ -4867,18 +5033,18 @@
     </row>
     <row r="13" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17" t="s">
@@ -4914,14 +5080,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P25" sqref="P25"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4941,141 +5107,156 @@
     <col min="13" max="13" width="14.85546875" style="6" customWidth="1"/>
     <col min="14" max="14" width="50.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.42578125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="119.42578125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="52.5703125" style="6" customWidth="1"/>
     <col min="17" max="17" width="9.85546875" style="6" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>78</v>
+        <v>96</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>311</v>
+        <v>3</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="R2" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>369</v>
+        <v>3</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>314</v>
+        <v>108</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>471</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>9</v>
@@ -5083,52 +5264,46 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="F4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>94</v>
+      <c r="G4" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>369</v>
+        <v>3</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>369</v>
+        <v>442</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>442</v>
+        <v>312</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>443</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R4" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>9</v>
@@ -5136,282 +5311,368 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>88</v>
+        <v>57</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>313</v>
+        <v>3</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="Q5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="6">
+        <v>4</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>414</v>
+        <v>17</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>91</v>
+      <c r="G6" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>309</v>
+        <v>106</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>446</v>
+        <v>312</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R6" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>348</v>
+        <v>390</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>434</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>175</v>
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>392</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>473</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="P7"/>
       <c r="Q7" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="R7" s="6">
+        <v>6</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>434</v>
+        <v>89</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>469</v>
+        <v>3</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>474</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="R8" s="6">
+        <v>7</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>84</v>
+        <v>92</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>414</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>86</v>
+        <v>3</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>475</v>
       </c>
       <c r="Q9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="6">
+        <v>8</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>81</v>
+        <v>34</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>4</v>
+        <v>437</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>4</v>
+        <v>437</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>82</v>
+        <v>450</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>453</v>
       </c>
       <c r="Q10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="6">
+        <v>9</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="A11" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>4</v>
+      <c r="G11" s="17"/>
+      <c r="H11" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>472</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="R11" s="6">
+        <v>10</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>453</v>
+        <v>25</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>69</v>
+        <v>363</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>3</v>
+        <v>367</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>450</v>
+        <v>367</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>315</v>
+      <c r="O12" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R12" s="6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>9</v>
@@ -5419,238 +5680,293 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>384</v>
+        <v>22</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>3</v>
+        <v>367</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>462</v>
+        <v>366</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R13" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>15</v>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>373</v>
+        <v>3</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="R14" s="6">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>364</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>175</v>
+        <v>238</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>4</v>
+        <v>460</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>4</v>
+        <v>460</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>397</v>
+        <v>3</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>477</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="R15" s="6">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>411</v>
+      <c r="A16" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H16" s="6" t="s">
-        <v>473</v>
+        <v>367</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>473</v>
+        <v>367</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="O16" s="6" t="s">
+        <v>366</v>
+      </c>
       <c r="Q16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="R16" s="6">
-        <v>10</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>297</v>
+        <v>3</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>454</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="R17" s="6">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>173</v>
+        <v>266</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>174</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G18" s="17"/>
       <c r="H18" s="6" t="s">
-        <v>4</v>
+        <v>460</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>4</v>
+        <v>460</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>461</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="R18" s="6">
+        <v>16</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>46</v>
+        <v>83</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G19" s="17"/>
       <c r="H19" s="6" t="s">
-        <v>4</v>
+        <v>460</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>4</v>
+        <v>460</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>298</v>
+        <v>3</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>461</v>
       </c>
       <c r="Q19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="6">
+        <v>17</v>
+      </c>
+      <c r="S19" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>8</v>
@@ -5665,7 +5981,7 @@
         <v>4</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>459</v>
+        <v>310</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>9</v>
@@ -5673,16 +5989,16 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>8</v>
@@ -5696,8 +6012,8 @@
       <c r="J21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="6" t="s">
-        <v>460</v>
+      <c r="N21" s="6" t="s">
+        <v>311</v>
       </c>
       <c r="Q21" s="6" t="s">
         <v>9</v>
@@ -5705,19 +6021,13 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>44</v>
+        <v>346</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>4</v>
@@ -5728,28 +6038,28 @@
       <c r="J22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>297</v>
+      <c r="O22" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>4</v>
@@ -5760,8 +6070,14 @@
       <c r="J23" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="M23" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>462</v>
+      </c>
       <c r="P23" s="6" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>9</v>
@@ -5769,19 +6085,19 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>4</v>
@@ -5792,8 +6108,11 @@
       <c r="J24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="6" t="s">
-        <v>460</v>
+      <c r="M24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>9</v>
@@ -5801,16 +6120,10 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>418</v>
+        <v>177</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>4</v>
@@ -5821,25 +6134,22 @@
       <c r="J25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="6" t="s">
-        <v>474</v>
-      </c>
       <c r="Q25" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>8</v>
@@ -5853,11 +6163,8 @@
       <c r="J26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>299</v>
+      <c r="P26" s="33" t="s">
+        <v>476</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>9</v>
@@ -5865,19 +6172,16 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>4</v>
@@ -5888,28 +6192,28 @@
       <c r="J27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="6" t="s">
-        <v>409</v>
+      <c r="M27" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>4</v>
@@ -5920,11 +6224,11 @@
       <c r="J28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>56</v>
+      <c r="N28" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>9</v>
@@ -5932,13 +6236,10 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>4</v>
@@ -5949,25 +6250,22 @@
       <c r="J29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="Q29" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>8</v>
@@ -5982,10 +6280,10 @@
         <v>4</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>9</v>
@@ -5993,11 +6291,20 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>179</v>
+        <v>95</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>174</v>
       </c>
+      <c r="G31" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H31" s="6" t="s">
         <v>4</v>
       </c>
@@ -6007,447 +6314,359 @@
       <c r="J31" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="P31" s="6" t="s">
+        <v>451</v>
+      </c>
       <c r="Q31" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>393</v>
+        <v>76</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>440</v>
+        <v>75</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>395</v>
+        <v>8</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="P32"/>
+        <v>4</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>452</v>
+      </c>
       <c r="Q32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="6">
-        <v>6</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>62</v>
+        <v>43</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>369</v>
+        <v>4</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>472</v>
+        <v>4</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>472</v>
+        <v>219</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="6">
-        <v>2</v>
-      </c>
-      <c r="S33" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>37</v>
+      <c r="C34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>458</v>
+        <v>4</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R34" s="6">
-        <v>9</v>
-      </c>
-      <c r="S34" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>369</v>
+        <v>4</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>369</v>
+        <v>4</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>368</v>
+        <v>4</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>452</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R35" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>24</v>
+        <v>415</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="G36" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q36" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R36" s="6">
-        <v>11</v>
-      </c>
-      <c r="S36" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="G37" s="17" t="s">
+      <c r="H37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R37" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R38" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q39" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R39" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q40" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R40" s="6">
-        <v>5</v>
-      </c>
-      <c r="S40" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="H41" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>314</v>
+        <v>4</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="6">
-        <v>1</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6457,10 +6676,10 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6488,96 +6707,96 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>5</v>
@@ -6594,13 +6813,13 @@
         <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="F3" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>8</v>
@@ -6650,16 +6869,16 @@
         <v>3</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>5</v>
@@ -6673,37 +6892,40 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>398</v>
-      </c>
       <c r="L5" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>470</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -6732,19 +6954,19 @@
         <v>74</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>5</v>
@@ -6755,31 +6977,31 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" t="s">
         <v>191</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>194</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>5</v>
@@ -6793,25 +7015,25 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>205</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>3</v>
@@ -6829,19 +7051,19 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>8</v>
@@ -6865,19 +7087,19 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>278</v>
-      </c>
       <c r="F10" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>8</v>
@@ -6901,16 +7123,16 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="D11" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>12</v>
@@ -6926,7 +7148,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>5</v>
@@ -6937,25 +7159,25 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>3</v>
@@ -6964,10 +7186,10 @@
         <v>3</v>
       </c>
       <c r="K12" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
@@ -6978,41 +7200,42 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="L13" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>432</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="N13" s="22"/>
       <c r="Q13" s="6" t="s">
         <v>5</v>
       </c>
@@ -7022,16 +7245,16 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>12</v>
@@ -7040,7 +7263,7 @@
         <v>42</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>3</v>
@@ -7049,7 +7272,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O14"/>
       <c r="P14"/>
@@ -7062,25 +7285,25 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>3</v>
@@ -7089,7 +7312,7 @@
         <v>3</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>5</v>
@@ -7100,23 +7323,23 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>3</v>
@@ -7125,7 +7348,7 @@
         <v>3</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>5</v>
@@ -7136,22 +7359,22 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>4</v>
@@ -7163,10 +7386,10 @@
         <v>3</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -7177,19 +7400,19 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>8</v>
@@ -7212,19 +7435,19 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>294</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>8</v>
@@ -7247,10 +7470,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>4</v>
@@ -7267,10 +7490,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>4</v>
@@ -7287,13 +7510,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>4</v>
@@ -7325,10 +7548,10 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7354,90 +7577,90 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>5</v>
@@ -7448,34 +7671,34 @@
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>5</v>
@@ -7495,13 +7718,13 @@
         <v>78</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>8</v>
@@ -7516,13 +7739,13 @@
         <v>3</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>9</v>
@@ -7539,7 +7762,7 @@
         <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>4</v>
@@ -7551,7 +7774,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -7559,25 +7782,25 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>3</v>
@@ -7589,10 +7812,10 @@
         <v>3</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>9</v>
@@ -7603,22 +7826,22 @@
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>8</v>
@@ -7633,7 +7856,7 @@
         <v>4</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>9</v>
@@ -7641,25 +7864,25 @@
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>3</v>
@@ -7671,10 +7894,10 @@
         <v>3</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>9</v>
@@ -7685,22 +7908,22 @@
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>427</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>3</v>
@@ -7723,10 +7946,10 @@
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>4</v>
@@ -7743,16 +7966,16 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>4</v>
@@ -7764,7 +7987,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
@@ -7772,13 +7995,13 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>4</v>
@@ -7790,7 +8013,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
@@ -7806,11 +8029,11 @@
       <c r="C13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>325</v>
+      <c r="E13" s="6" t="s">
+        <v>323</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>8</v>
@@ -7825,7 +8048,7 @@
         <v>4</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>9</v>
@@ -7833,11 +8056,11 @@
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>325</v>
-      </c>
       <c r="H14" s="6" t="s">
         <v>4</v>
       </c>
@@ -7848,7 +8071,7 @@
         <v>4</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>5</v>
@@ -7865,7 +8088,7 @@
         <v>80</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>81</v>
@@ -7880,10 +8103,10 @@
         <v>4</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>9</v>
@@ -7900,7 +8123,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>8</v>
@@ -7915,7 +8138,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>9</v>
@@ -7923,10 +8146,10 @@
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>8</v>
@@ -7941,7 +8164,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -7958,7 +8181,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>8</v>
@@ -7973,7 +8196,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>9</v>
@@ -7990,13 +8213,13 @@
         <v>11</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -8011,7 +8234,7 @@
         <v>4</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>9</v>
@@ -8028,7 +8251,7 @@
         <v>41</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>42</v>
@@ -8043,7 +8266,7 @@
         <v>4</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>9</v>
@@ -8051,10 +8274,10 @@
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>4</v>
@@ -8080,7 +8303,7 @@
         <v>46</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>8</v>
@@ -8095,7 +8318,7 @@
         <v>4</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>9</v>
@@ -8103,22 +8326,22 @@
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>8</v>
@@ -8133,7 +8356,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>9</v>
@@ -8144,19 +8367,19 @@
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>256</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>325</v>
+        <v>254</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>323</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>4</v>
@@ -8168,7 +8391,7 @@
         <v>4</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>9</v>
@@ -8176,16 +8399,16 @@
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="C25" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>4</v>
@@ -8197,7 +8420,7 @@
         <v>4</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>9</v>
@@ -8214,7 +8437,7 @@
         <v>76</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>8</v>
@@ -8229,7 +8452,7 @@
         <v>4</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>9</v>
@@ -8237,19 +8460,19 @@
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="C27" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>4</v>
@@ -8261,7 +8484,7 @@
         <v>4</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>9</v>
@@ -8278,7 +8501,7 @@
         <v>44</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>42</v>
@@ -8293,7 +8516,7 @@
         <v>4</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>9</v>
@@ -8301,16 +8524,16 @@
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>8</v>
@@ -8325,7 +8548,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q29" s="6" t="s">
         <v>9</v>
@@ -8342,7 +8565,7 @@
         <v>33</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>8</v>
@@ -8357,7 +8580,7 @@
         <v>4</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>9</v>
@@ -8365,16 +8588,16 @@
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>4</v>
@@ -8386,7 +8609,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>9</v>
@@ -8403,13 +8626,13 @@
         <v>39</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>8</v>
@@ -8424,7 +8647,7 @@
         <v>4</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>9</v>
@@ -8432,16 +8655,16 @@
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>4</v>
@@ -8453,7 +8676,7 @@
         <v>4</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>9</v>
@@ -8470,7 +8693,7 @@
         <v>51</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>8</v>
@@ -8485,7 +8708,7 @@
         <v>4</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>9</v>
@@ -8502,7 +8725,7 @@
         <v>58</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>59</v>
@@ -8517,7 +8740,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>9</v>
@@ -8525,16 +8748,16 @@
     </row>
     <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="C36" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>4</v>
@@ -8546,7 +8769,7 @@
         <v>4</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>9</v>
@@ -8563,7 +8786,7 @@
         <v>54</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>55</v>
@@ -8589,16 +8812,16 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>8</v>
@@ -8613,7 +8836,7 @@
         <v>4</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>9</v>
@@ -8621,16 +8844,16 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>4</v>
@@ -8642,7 +8865,7 @@
         <v>4</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>9</v>
@@ -8659,7 +8882,7 @@
         <v>48</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>8</v>
@@ -8674,10 +8897,10 @@
         <v>4</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>9</v>
@@ -8685,13 +8908,13 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>4</v>
@@ -8703,7 +8926,7 @@
         <v>4</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>5</v>
@@ -8711,10 +8934,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>4</v>
@@ -8731,31 +8954,31 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>85</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K43" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="L43" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="Q43" s="6" t="s">
         <v>5</v>
@@ -8777,7 +9000,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8789,21 +9012,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" t="s">
         <v>169</v>
       </c>
-      <c r="B1" t="s">
-        <v>170</v>
-      </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -8811,10 +9034,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -8822,10 +9045,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -8833,10 +9056,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -8844,10 +9067,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
         <v>171</v>
-      </c>
-      <c r="B6" t="s">
-        <v>172</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -8855,10 +9078,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -8866,10 +9089,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -8877,10 +9100,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -8888,10 +9111,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -8899,10 +9122,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -8910,10 +9133,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -8942,58 +9165,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -9040,75 +9263,75 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="R1" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -9123,7 +9346,7 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="2" t="s">
@@ -9134,16 +9357,16 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -9158,7 +9381,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="2" t="s">
@@ -9169,16 +9392,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -9192,7 +9415,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="6"/>
       <c r="P4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -9202,16 +9425,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="12"/>
@@ -9225,7 +9448,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="10"/>
       <c r="P5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>3</v>
@@ -9235,22 +9458,22 @@
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
         <v>235</v>
-      </c>
-      <c r="C6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" t="s">
-        <v>236</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>3</v>
@@ -9258,13 +9481,13 @@
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>4</v>
@@ -9274,7 +9497,7 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
@@ -9282,13 +9505,13 @@
     </row>
     <row r="8" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>4</v>
@@ -9298,7 +9521,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -9306,13 +9529,13 @@
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>4</v>
@@ -9322,7 +9545,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>3</v>
@@ -9330,18 +9553,18 @@
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -9357,26 +9580,26 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -9390,7 +9613,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="P11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>3</v>
@@ -9400,14 +9623,14 @@
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>4</v>
@@ -9416,21 +9639,21 @@
         <v>4</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>4</v>
@@ -9445,16 +9668,16 @@
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>4</v>
@@ -9469,10 +9692,10 @@
     </row>
     <row r="15" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>4</v>
@@ -9483,10 +9706,10 @@
     </row>
     <row r="16" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>4</v>

--- a/target/classes/tablesSchema.xlsx
+++ b/target/classes/tablesSchema.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="478">
   <si>
     <t>Type</t>
   </si>
@@ -5084,10 +5084,10 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5674,9 +5674,7 @@
       <c r="R12" s="6">
         <v>11</v>
       </c>
-      <c r="S12" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">

--- a/target/classes/tablesSchema.xlsx
+++ b/target/classes/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20070" windowHeight="3840" tabRatio="690" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20730" windowHeight="7545" tabRatio="690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -154,12 +154,288 @@
         </r>
       </text>
     </comment>
+    <comment ref="M10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SHAHAJ Alban:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+empty</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SHAHAJ Alban:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+empty</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SHAHAJ Alban:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+IF(OR((%type.code==SCRAPIE),(%type.code==BSEOS)),F,)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SHAHAJ Alban:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+IF(OR((%type.code==SCRAPIE),(%type.code==BSEOS)),Not infected,)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>SHAHAJ Alban</author>
+  </authors>
+  <commentList>
+    <comment ref="J2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SHAHAJ Alban:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(RELATION{SummarizedInformation,type.code}!=RGT)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SHAHAJ Alban:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(RELATION{SummarizedInformation,type.code}==RGT)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SHAHAJ Alban:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(RELATION{SummarizedInformation,type.code}!=RGT)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SHAHAJ Alban:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+AND((RELATION{SummarizedInformation,type.code}!=BSE),(%sampEventAsses.code!=J051A))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SHAHAJ Alban:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(RELATION{SummarizedInformation,type.code}!=RGT)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SHAHAJ Alban:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+IF(AND((RELATION{SummarizedInformation,type.code}==BSE),(%sampEventAsses.code!=J051A)),Y,)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SHAHAJ Alban:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+IF(AND((RELATION{SummarizedInformation,type.code}==BSE),(%sampEventAsses.code!=J051A)),Y,)
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="475">
   <si>
     <t>Type</t>
   </si>
@@ -1334,9 +1610,6 @@
     <t>sex</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>MTX.gender</t>
   </si>
   <si>
@@ -1454,9 +1727,6 @@
     <t>pref11</t>
   </si>
   <si>
-    <t>CWD extended context</t>
-  </si>
-  <si>
     <t>yesNoLists</t>
   </si>
   <si>
@@ -1484,9 +1754,6 @@
     <t>IF(OR((%country.code==EE),(%country.code==FI),(%country.code==LV),(%country.code==LT),(%country.code==PL),(%country.code==SE)),Y,ALL)</t>
   </si>
   <si>
-    <t>Flag to include sex and PSU in the context for aggregated data</t>
-  </si>
-  <si>
     <t>OR((%type.code==CWD),(%type.code==BSEOS))</t>
   </si>
   <si>
@@ -1520,9 +1787,6 @@
     <t>%progId.label</t>
   </si>
   <si>
-    <t>IF(OR((%type.code==SCRAPIE),(%type.code==BSEOS)),Not infected,)</t>
-  </si>
-  <si>
     <t>NEXT(,)</t>
   </si>
   <si>
@@ -1556,15 +1820,6 @@
     <t>IF((%type.code==RGT),0,)</t>
   </si>
   <si>
-    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=BSE))</t>
-  </si>
-  <si>
-    <t>IF(AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}==BSE)),Y,)</t>
-  </si>
-  <si>
-    <t>%type.code|IF((%type.code==CWD),$RELATION{Preferences,cwdExtCont.label},)</t>
-  </si>
-  <si>
     <t>IF(OR((%type.code!=CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F32.A0C9B,)</t>
   </si>
   <si>
@@ -1593,6 +1848,18 @@
   </si>
   <si>
     <t>IF((%type.code!=RGT),SUM(%totSamplesPositive.label,%totSamplesNegative.label,%totSamplesInconclusive.label),)</t>
+  </si>
+  <si>
+    <t>PSU id required</t>
+  </si>
+  <si>
+    <t>Flag to include Primary Sample Unit as mandatory field</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)</t>
+  </si>
+  <si>
+    <t>(%sampEventAsses.code!=J051A)</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1914,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1662,13 +1929,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,7 +2026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1776,21 +2049,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3746,7 +4024,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3966,7 +4244,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4082,44 +4360,44 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>440</v>
+      <c r="L3" s="25" t="s">
+        <v>438</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>9</v>
@@ -4373,25 +4651,25 @@
       <c r="E10" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="26" t="s">
         <v>93</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="29" t="s">
+      <c r="I10" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="27" t="s">
         <v>355</v>
       </c>
       <c r="R10" s="2">
@@ -4412,25 +4690,25 @@
       <c r="E11" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="26" t="s">
         <v>93</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="29" t="s">
+      <c r="I11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="27" t="s">
         <v>356</v>
       </c>
       <c r="R11" s="2">
@@ -4451,25 +4729,25 @@
       <c r="E12" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="28" t="s">
         <v>93</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="31" t="s">
+      <c r="I12" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="27" t="s">
         <v>357</v>
       </c>
       <c r="M12" s="10"/>
@@ -4842,7 +5120,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>174</v>
@@ -4873,13 +5151,13 @@
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>174</v>
@@ -4910,13 +5188,13 @@
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>174</v>
@@ -4954,10 +5232,10 @@
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="18" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>174</v>
@@ -4997,10 +5275,10 @@
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="18" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>174</v>
@@ -5083,33 +5361,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S12" sqref="S12"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="2" max="2" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="6" customWidth="1"/>
     <col min="5" max="5" width="40" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="49.42578125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="39" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="68.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5703125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="74.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="6" customWidth="1"/>
     <col min="14" max="14" width="50.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.42578125" style="6" customWidth="1"/>
     <col min="16" max="16" width="52.5703125" style="6" customWidth="1"/>
     <col min="17" max="17" width="9.85546875" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="6"/>
+    <col min="18" max="18" width="9.140625" style="6"/>
+    <col min="19" max="19" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -5243,14 +5522,14 @@
       <c r="K3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="33" t="s">
-        <v>467</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>471</v>
+      <c r="L3" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>473</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>5</v>
@@ -5270,7 +5549,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>69</v>
@@ -5285,7 +5564,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>3</v>
@@ -5397,7 +5676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>390</v>
       </c>
@@ -5405,34 +5684,34 @@
         <v>57</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="33" t="s">
-        <v>473</v>
+      <c r="I7" s="29" t="s">
+        <v>466</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L7" s="34" t="s">
-        <v>467</v>
+        <v>312</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="P7"/>
       <c r="Q7" s="6" t="s">
@@ -5456,10 +5735,10 @@
         <v>89</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>12</v>
@@ -5479,14 +5758,14 @@
       <c r="K8" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="M8" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>474</v>
+      <c r="M8" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>467</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>9</v>
@@ -5509,10 +5788,10 @@
         <v>92</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>12</v>
@@ -5533,13 +5812,13 @@
         <v>112</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="N9" s="33" t="s">
-        <v>475</v>
+        <v>434</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>468</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>9</v>
@@ -5559,7 +5838,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>36</v>
@@ -5571,10 +5850,10 @@
         <v>37</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>3</v>
@@ -5585,15 +5864,14 @@
       <c r="L10" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>453</v>
-      </c>
+      <c r="M10" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
       <c r="Q10" s="6" t="s">
         <v>5</v>
       </c>
@@ -5605,24 +5883,24 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>408</v>
+      <c r="A11" s="23" t="s">
+        <v>407</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>202</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>174</v>
       </c>
       <c r="G11" s="17"/>
-      <c r="H11" s="33" t="s">
-        <v>472</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>472</v>
+      <c r="H11" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>465</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>3</v>
@@ -5674,7 +5952,6 @@
       <c r="R12" s="6">
         <v>11</v>
       </c>
-      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -5772,19 +6049,19 @@
         <v>8</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="P15" s="33" t="s">
-        <v>477</v>
+        <v>460</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>5</v>
@@ -5860,7 +6137,7 @@
         <v>3</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>9</v>
@@ -5887,10 +6164,10 @@
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="6" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>3</v>
@@ -5899,7 +6176,7 @@
         <v>319</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>5</v>
@@ -5929,10 +6206,10 @@
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="6" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>3</v>
@@ -5941,7 +6218,7 @@
         <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>5</v>
@@ -6069,13 +6346,13 @@
         <v>4</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>9</v>
@@ -6161,8 +6438,8 @@
       <c r="J26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="33" t="s">
-        <v>476</v>
+      <c r="P26" s="29" t="s">
+        <v>469</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>9</v>
@@ -6191,7 +6468,7 @@
         <v>4</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>3</v>
@@ -6313,7 +6590,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>9</v>
@@ -6345,7 +6622,7 @@
         <v>4</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>9</v>
@@ -6409,7 +6686,7 @@
         <v>4</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>9</v>
@@ -6441,7 +6718,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>9</v>
@@ -6449,13 +6726,13 @@
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>416</v>
-      </c>
       <c r="C36" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>174</v>
@@ -6470,7 +6747,7 @@
         <v>4</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>9</v>
@@ -6537,7 +6814,7 @@
         <v>4</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>9</v>
@@ -6598,7 +6875,7 @@
         <v>4</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>9</v>
@@ -6670,14 +6947,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6689,13 +6966,13 @@
     <col min="5" max="5" width="56.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="62.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="53.85546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="143.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="82.85546875" style="6" customWidth="1"/>
     <col min="10" max="10" width="52.140625" style="6" customWidth="1"/>
     <col min="11" max="11" width="29.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="46.140625" style="6" customWidth="1"/>
     <col min="13" max="13" width="29.7109375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="38.7109375" style="6" customWidth="1"/>
     <col min="15" max="16" width="22.85546875" style="6" customWidth="1"/>
     <col min="17" max="17" width="20" style="6" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="6"/>
@@ -6764,13 +7041,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s">
         <v>191</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>211</v>
@@ -6787,8 +7064,8 @@
       <c r="I2" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>369</v>
+      <c r="J2" s="31" t="s">
+        <v>3</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>212</v>
@@ -6896,34 +7173,34 @@
         <v>57</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>4</v>
+        <v>391</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>474</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>469</v>
-      </c>
-      <c r="J5" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>470</v>
+      <c r="M5" s="6" t="s">
+        <v>463</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -6952,19 +7229,19 @@
         <v>74</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>111</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>5</v>
@@ -6993,13 +7270,13 @@
         <v>8</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>369</v>
+      <c r="J7" s="31" t="s">
+        <v>3</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>5</v>
@@ -7031,7 +7308,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>3</v>
@@ -7175,7 +7452,7 @@
         <v>217</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>3</v>
@@ -7196,7 +7473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>194</v>
       </c>
@@ -7215,13 +7492,13 @@
       <c r="G13" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="H13" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="31" t="s">
         <v>369</v>
       </c>
       <c r="K13" s="6" t="s">
@@ -7230,10 +7507,8 @@
       <c r="L13" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="M13" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="N13" s="22"/>
+      <c r="N13" s="33"/>
+      <c r="P13" s="30"/>
       <c r="Q13" s="6" t="s">
         <v>5</v>
       </c>
@@ -7261,7 +7536,7 @@
         <v>42</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>3</v>
@@ -7301,7 +7576,7 @@
         <v>282</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>3</v>
@@ -7337,7 +7612,7 @@
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>3</v>
@@ -7384,10 +7659,10 @@
         <v>3</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -7535,8 +7810,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7546,10 +7822,10 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7772,7 +8048,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -7906,19 +8182,19 @@
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>174</v>
@@ -7985,7 +8261,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
@@ -7993,10 +8269,10 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>174</v>
@@ -8011,7 +8287,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
@@ -8136,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>9</v>
@@ -8162,7 +8438,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -8232,7 +8508,7 @@
         <v>4</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>9</v>
@@ -8607,7 +8883,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>9</v>
@@ -8653,13 +8929,13 @@
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>416</v>
-      </c>
       <c r="C33" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>174</v>
@@ -8674,7 +8950,7 @@
         <v>4</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>9</v>
@@ -8738,7 +9014,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>9</v>
@@ -8834,7 +9110,7 @@
         <v>4</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>9</v>
@@ -8842,13 +9118,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>419</v>
-      </c>
       <c r="C39" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>174</v>
@@ -8862,8 +9138,14 @@
       <c r="J39" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="M39" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="O39" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>9</v>
@@ -8924,7 +9206,7 @@
         <v>4</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>5</v>
@@ -9174,7 +9456,7 @@
         <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9182,7 +9464,7 @@
         <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9206,7 +9488,7 @@
         <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -9214,7 +9496,7 @@
         <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -9577,7 +9859,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="24" t="s">
+      <c r="P10" s="4" t="s">
         <v>361</v>
       </c>
       <c r="Q10" s="2" t="s">
@@ -9647,7 +9929,7 @@
       <c r="A13" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>315</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -9671,7 +9953,7 @@
       <c r="C14" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>315</v>
       </c>
       <c r="F14" s="2" t="s">

--- a/target/classes/tablesSchema.xlsx
+++ b/target/classes/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20730" windowHeight="7545" tabRatio="690" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20730" windowHeight="7545" tabRatio="690" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -6950,7 +6950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7821,11 +7821,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N39" sqref="N39"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8211,9 +8211,7 @@
       <c r="O9" s="6">
         <v>1</v>
       </c>
-      <c r="P9" s="6">
-        <v>1</v>
-      </c>
+      <c r="P9" s="35"/>
       <c r="Q9" s="6" t="s">
         <v>9</v>
       </c>

--- a/target/classes/tablesSchema.xlsx
+++ b/target/classes/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20730" windowHeight="7545" tabRatio="690" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20490" windowHeight="4200" tabRatio="690" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -25,236 +25,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>SHAHAJ Alban</author>
-  </authors>
-  <commentList>
-    <comment ref="L8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SHAHAJ Alban:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-BSE (before)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SHAHAJ Alban:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Before:
-IF((%type.code==RGT),,AT06A)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SHAHAJ Alban:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Before:
-IF((%type.code==RGT),,AT06A)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SHAHAJ Alban:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-before:
-IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,defScreeningBSE.code},)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SHAHAJ Alban:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-before:
-IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,def</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SHAHAJ Alban:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-empty</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SHAHAJ Alban:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-empty</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SHAHAJ Alban:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-IF(OR((%type.code==SCRAPIE),(%type.code==BSEOS)),F,)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>SHAHAJ Alban:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-IF(OR((%type.code==SCRAPIE),(%type.code==BSEOS)),Not infected,)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>SHAHAJ Alban</author>
@@ -1583,283 +1353,283 @@
     <t>Prog ID</t>
   </si>
   <si>
+    <t>progIdSuffix</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>AND((%anMethType.code==AT13A),(RELATION{SummarizedInformation,source.code}==F01.A057G))</t>
+  </si>
+  <si>
+    <t>IF(OR((%internalOpType.label==Reject),(%internalOpType.label==Submit)),No,Yes)</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,source.code}==F01.A057G)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,source.code}</t>
+  </si>
+  <si>
+    <t>IF((%internalOpType.label!=Insert),RELATION{Report,reportDatasetId.label},)</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>MTX.gender</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}==RGT),SCRAPIE,)</t>
+  </si>
+  <si>
+    <t>N123A</t>
+  </si>
+  <si>
+    <t>sexLists</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,type.code}==RGT)</t>
+  </si>
+  <si>
+    <t>%progLegalRef.code|IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},.|RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|IF((RELATION{SummarizedInformation,type.code}!=RGT),.%progIdSuffix.code,)</t>
+  </si>
+  <si>
+    <t>reportLastMessageId</t>
+  </si>
+  <si>
+    <t>reportLastModifyingMessageId</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH, used with Refresh Status/Display ack</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),RELATION{SummarizedInformation,animage.code},RELATION{CasesInformation,animage.code})</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}==CWD),RELATION{SummarizedInformation,sex.code},RELATION{CasesInformation,sex.code})</t>
+  </si>
+  <si>
+    <t>A04MQ#RELATION{SummarizedInformation,source.code}$RELATION{CasesInformation,part.code}$RELATION{SummarizedInformation,prod.code}|IF_NOT_NULL(%animage.code,$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
+  </si>
+  <si>
+    <t>A04MQ#%source.code$%prod.code|IF((%type.code!=RGT),$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(%PSUId.label,PSUId=%PSUId.label,)</t>
+  </si>
+  <si>
+    <t>PSUId</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,animalId.code},animalId=RELATION{CasesInformation,animalId.code},)|IF_NOT_NULL(RELATION{CasesInformation,herdId.label},$herdId=RELATION{CasesInformation,herdId.label}, )|IF_NOT_NULL(RELATION{CasesInformation,sampHoldingId.label},$sampHoldingId=RELATION{CasesInformation,sampHoldingId.label},)|IF_NOT_NULL(RELATION{SummarizedInformation,PSUId.label},$PSUId=RELATION{SummarizedInformation,PSUId.label},)</t>
+  </si>
+  <si>
+    <t>Sample/case assessment</t>
+  </si>
+  <si>
+    <t>First test type</t>
+  </si>
+  <si>
+    <t>First test</t>
+  </si>
+  <si>
+    <t>Type of the first executed test</t>
+  </si>
+  <si>
+    <t>First executed test</t>
+  </si>
+  <si>
+    <t>sampInfo</t>
+  </si>
+  <si>
+    <t>D.11</t>
+  </si>
+  <si>
+    <t>origSampId</t>
+  </si>
+  <si>
+    <t>sampUnitType</t>
+  </si>
+  <si>
+    <t>C.02</t>
+  </si>
+  <si>
+    <t>G199A</t>
+  </si>
+  <si>
+    <t>H.01</t>
+  </si>
+  <si>
+    <t>anPortSeq</t>
+  </si>
+  <si>
+    <t>Portion</t>
+  </si>
+  <si>
+    <t>Portion of the analyzed sample</t>
+  </si>
+  <si>
+    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
+  </si>
+  <si>
+    <t>sampEventAsses</t>
+  </si>
+  <si>
+    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,prod.code}==F21.A07RV),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,tseNationalCaseId.label},tseNationalCaseId=RELATION{CasesInformation,tseNationalCaseId.label}$,)|IF_NOT_NULL(RELATION{CasesInformation,tseIndexCase.code},tseIndexCase=RELATION{CasesInformation,tseIndexCase.code}$,)|IF_NOT_NULL(RELATION{CasesInformation,sampEventAsses.code},sampEventAsses=RELATION{CasesInformation,sampEventAsses.code},)|IF_NOT_NULL(RELATION{CasesInformation,evalCom.label},$com=RELATION{CasesInformation,evalCom.label},)</t>
+  </si>
+  <si>
+    <t>cwdExtCont</t>
+  </si>
+  <si>
+    <t>pref11</t>
+  </si>
+  <si>
+    <t>yesNoLists</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Sex of the animals</t>
+  </si>
+  <si>
+    <t>%type.code|$%anMethType.code</t>
+  </si>
+  <si>
+    <t>(%type.code==SCRAPIE)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(%statusHerd.code,statusHerd=%statusHerd.code,)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>IF(OR((%country.code==EE),(%country.code==FI),(%country.code==LV),(%country.code==LT),(%country.code==PL),(%country.code==SE)),Y,ALL)</t>
+  </si>
+  <si>
+    <t>OR((%type.code==CWD),(%type.code==BSEOS))</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,birthCountry.code},birthCountry=RELATION{CasesInformation,birthCountry.code},)|IF_NOT_NULL(RELATION{SummarizedInformation,statusHerd.code},$statusHerd=RELATION{SummarizedInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
+  </si>
+  <si>
+    <t>Herd/Flock status</t>
+  </si>
+  <si>
+    <t>Husbandry system</t>
+  </si>
+  <si>
+    <t>Aggregated-Data-(Level-1)</t>
+  </si>
+  <si>
+    <t>Sample-Level-Data-(Level-2)</t>
+  </si>
+  <si>
+    <t>Analytical-Test-Results-(Level-3)</t>
+  </si>
+  <si>
+    <t>Report-Management</t>
+  </si>
+  <si>
+    <t>IF(OR((%type.code==SCRAPIE),(%type.code==BSEOS)),F,)</t>
+  </si>
+  <si>
+    <t>%progId.label|.0</t>
+  </si>
+  <si>
+    <t>%progId.label</t>
+  </si>
+  <si>
+    <t>NEXT(,)</t>
+  </si>
+  <si>
+    <t>Dataset ID</t>
+  </si>
+  <si>
+    <t>Report Status</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT), RELATION{SummarizedInformation,sampId.label}, )</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT), origSampId=%origSampId.label, )</t>
+  </si>
+  <si>
+    <t>IF((%type.code!=RGT), origSampId=%sampId.label, )</t>
+  </si>
+  <si>
+    <t>(%type.code==RGT)</t>
+  </si>
+  <si>
+    <t>F01.A057G</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),RF-00004629-PAR,RF-00004628-PAR)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),RF-00004629-PAR#allele=%allele1.label$allele=%allele2.label,RF-00004628-PAR)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),0,)</t>
+  </si>
+  <si>
+    <t>IF(OR((%type.code!=CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F32.A0C9B,)</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,sex.code}==F32.A0C9B)</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,sex.code}!=F32.A0C9B),RELATION{SummarizedInformation,sex.code},)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F01.A056M,)</t>
+  </si>
+  <si>
+    <t>AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==Y))</t>
+  </si>
+  <si>
+    <t>(%type.code==CWD)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),AT13A,AT06A)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,defScreeningBSE.code},)IF((%type.code==RGT),F089A,)</t>
+  </si>
+  <si>
+    <t>IF((%type.code!=RGT),tseTargetGroup=%tseTargetGroup.code$totSamplesTested=%totSamplesTested.label$totSamplesPositive=%totSamplesPositive.label$totSamplesNegative=%totSamplesNegative.label$totSamplesInconclusive=%totSamplesInconclusive.label$totSamplesUnsuitable=%totSamplesUnsuitable.label,totSamplesTested=%totSamplesTested.label)</t>
+  </si>
+  <si>
+    <t>IF((%type.code!=RGT),SUM(%totSamplesPositive.label,%totSamplesNegative.label,%totSamplesInconclusive.label),)</t>
+  </si>
+  <si>
+    <t>PSU id required</t>
+  </si>
+  <si>
+    <t>Flag to include Primary Sample Unit as mandatory field</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)</t>
+  </si>
+  <si>
+    <t>(%sampEventAsses.code!=J051A)</t>
+  </si>
+  <si>
     <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),%paramCodeBaseTerm.code,RF-00004629-PAR)</t>
-  </si>
-  <si>
-    <t>progIdSuffix</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>AND((%anMethType.code==AT13A),(RELATION{SummarizedInformation,source.code}==F01.A057G))</t>
-  </si>
-  <si>
-    <t>IF(OR((%internalOpType.label==Reject),(%internalOpType.label==Submit)),No,Yes)</t>
-  </si>
-  <si>
-    <t>(RELATION{SummarizedInformation,source.code}==F01.A057G)</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,source.code}</t>
-  </si>
-  <si>
-    <t>IF((%internalOpType.label!=Insert),RELATION{Report,reportDatasetId.label},)</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>MTX.gender</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}==RGT),SCRAPIE,)</t>
-  </si>
-  <si>
-    <t>N123A</t>
-  </si>
-  <si>
-    <t>sexLists</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>(RELATION{SummarizedInformation,type.code}==RGT)</t>
-  </si>
-  <si>
-    <t>%progLegalRef.code|IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},.|RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,progId.label}|IF((RELATION{SummarizedInformation,type.code}!=RGT),.%progIdSuffix.code,)</t>
-  </si>
-  <si>
-    <t>reportLastMessageId</t>
-  </si>
-  <si>
-    <t>reportLastModifyingMessageId</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH, used with Refresh Status/Display ack</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),RELATION{SummarizedInformation,animage.code},RELATION{CasesInformation,animage.code})</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}==CWD),RELATION{SummarizedInformation,sex.code},RELATION{CasesInformation,sex.code})</t>
-  </si>
-  <si>
-    <t>A04MQ#RELATION{SummarizedInformation,source.code}$RELATION{CasesInformation,part.code}$RELATION{SummarizedInformation,prod.code}|IF_NOT_NULL(%animage.code,$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
-  </si>
-  <si>
-    <t>A04MQ#%source.code$%prod.code|IF((%type.code!=RGT),$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(%PSUId.label,PSUId=%PSUId.label,)</t>
-  </si>
-  <si>
-    <t>PSUId</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,animalId.code},animalId=RELATION{CasesInformation,animalId.code},)|IF_NOT_NULL(RELATION{CasesInformation,herdId.label},$herdId=RELATION{CasesInformation,herdId.label}, )|IF_NOT_NULL(RELATION{CasesInformation,sampHoldingId.label},$sampHoldingId=RELATION{CasesInformation,sampHoldingId.label},)|IF_NOT_NULL(RELATION{SummarizedInformation,PSUId.label},$PSUId=RELATION{SummarizedInformation,PSUId.label},)</t>
-  </si>
-  <si>
-    <t>Sample/case assessment</t>
-  </si>
-  <si>
-    <t>First test type</t>
-  </si>
-  <si>
-    <t>First test</t>
-  </si>
-  <si>
-    <t>Type of the first executed test</t>
-  </si>
-  <si>
-    <t>First executed test</t>
-  </si>
-  <si>
-    <t>sampInfo</t>
-  </si>
-  <si>
-    <t>D.11</t>
-  </si>
-  <si>
-    <t>origSampId</t>
-  </si>
-  <si>
-    <t>sampUnitType</t>
-  </si>
-  <si>
-    <t>C.02</t>
-  </si>
-  <si>
-    <t>G199A</t>
-  </si>
-  <si>
-    <t>H.01</t>
-  </si>
-  <si>
-    <t>anPortSeq</t>
-  </si>
-  <si>
-    <t>Portion</t>
-  </si>
-  <si>
-    <t>Portion of the analyzed sample</t>
-  </si>
-  <si>
-    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
-  </si>
-  <si>
-    <t>sampEventAsses</t>
-  </si>
-  <si>
-    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,prod.code}==F21.A07RV),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,tseNationalCaseId.label},tseNationalCaseId=RELATION{CasesInformation,tseNationalCaseId.label}$,)|IF_NOT_NULL(RELATION{CasesInformation,tseIndexCase.code},tseIndexCase=RELATION{CasesInformation,tseIndexCase.code}$,)|IF_NOT_NULL(RELATION{CasesInformation,sampEventAsses.code},sampEventAsses=RELATION{CasesInformation,sampEventAsses.code},)|IF_NOT_NULL(RELATION{CasesInformation,evalCom.label},$com=RELATION{CasesInformation,evalCom.label},)</t>
-  </si>
-  <si>
-    <t>cwdExtCont</t>
-  </si>
-  <si>
-    <t>pref11</t>
-  </si>
-  <si>
-    <t>yesNoLists</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Sex of the animals</t>
-  </si>
-  <si>
-    <t>%type.code|$%anMethType.code</t>
-  </si>
-  <si>
-    <t>(%type.code==SCRAPIE)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(%statusHerd.code,statusHerd=%statusHerd.code,)</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>IF(OR((%country.code==EE),(%country.code==FI),(%country.code==LV),(%country.code==LT),(%country.code==PL),(%country.code==SE)),Y,ALL)</t>
-  </si>
-  <si>
-    <t>OR((%type.code==CWD),(%type.code==BSEOS))</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,birthCountry.code},birthCountry=RELATION{CasesInformation,birthCountry.code},)|IF_NOT_NULL(RELATION{SummarizedInformation,statusHerd.code},$statusHerd=RELATION{SummarizedInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
-  </si>
-  <si>
-    <t>Herd/Flock status</t>
-  </si>
-  <si>
-    <t>Husbandry system</t>
-  </si>
-  <si>
-    <t>Aggregated-Data-(Level-1)</t>
-  </si>
-  <si>
-    <t>Sample-Level-Data-(Level-2)</t>
-  </si>
-  <si>
-    <t>Analytical-Test-Results-(Level-3)</t>
-  </si>
-  <si>
-    <t>Report-Management</t>
-  </si>
-  <si>
-    <t>IF(OR((%type.code==SCRAPIE),(%type.code==BSEOS)),F,)</t>
-  </si>
-  <si>
-    <t>%progId.label|.0</t>
-  </si>
-  <si>
-    <t>%progId.label</t>
-  </si>
-  <si>
-    <t>NEXT(,)</t>
-  </si>
-  <si>
-    <t>Dataset ID</t>
-  </si>
-  <si>
-    <t>Report Status</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT), RELATION{SummarizedInformation,sampId.label}, )</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT), origSampId=%origSampId.label, )</t>
-  </si>
-  <si>
-    <t>IF((%type.code!=RGT), origSampId=%sampId.label, )</t>
-  </si>
-  <si>
-    <t>(%type.code==RGT)</t>
-  </si>
-  <si>
-    <t>F01.A057G</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),RF-00004629-PAR,RF-00004628-PAR)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),RF-00004629-PAR#allele=%allele1.label$allele=%allele2.label,RF-00004628-PAR)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),0,)</t>
-  </si>
-  <si>
-    <t>IF(OR((%type.code!=CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F32.A0C9B,)</t>
-  </si>
-  <si>
-    <t>(RELATION{SummarizedInformation,sex.code}==F32.A0C9B)</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,sex.code}!=F32.A0C9B),RELATION{SummarizedInformation,sex.code},)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F01.A056M,)</t>
-  </si>
-  <si>
-    <t>AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==Y))</t>
-  </si>
-  <si>
-    <t>(%type.code==CWD)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),AT13A,AT06A)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,defScreeningBSE.code},)IF((%type.code==RGT),F089A,)</t>
-  </si>
-  <si>
-    <t>IF((%type.code!=RGT),tseTargetGroup=%tseTargetGroup.code$totSamplesTested=%totSamplesTested.label$totSamplesPositive=%totSamplesPositive.label$totSamplesNegative=%totSamplesNegative.label$totSamplesInconclusive=%totSamplesInconclusive.label$totSamplesUnsuitable=%totSamplesUnsuitable.label,totSamplesTested=%totSamplesTested.label)</t>
-  </si>
-  <si>
-    <t>IF((%type.code!=RGT),SUM(%totSamplesPositive.label,%totSamplesNegative.label,%totSamplesInconclusive.label),)</t>
-  </si>
-  <si>
-    <t>PSU id required</t>
-  </si>
-  <si>
-    <t>Flag to include Primary Sample Unit as mandatory field</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)</t>
-  </si>
-  <si>
-    <t>(%sampEventAsses.code!=J051A)</t>
   </si>
 </sst>
 </file>
@@ -1914,7 +1684,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1929,19 +1699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2026,7 +1784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2056,19 +1814,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4361,16 +4111,16 @@
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="D3" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>472</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>12</v>
@@ -4388,16 +4138,16 @@
         <v>9</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>9</v>
@@ -5120,7 +4870,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>174</v>
@@ -5151,13 +4901,13 @@
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>174</v>
@@ -5188,13 +4938,13 @@
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>174</v>
@@ -5232,10 +4982,10 @@
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>174</v>
@@ -5275,10 +5025,10 @@
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>174</v>
@@ -5358,14 +5108,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5522,14 +5272,14 @@
       <c r="K3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="6" t="s">
         <v>312</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>5</v>
@@ -5549,7 +5299,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>69</v>
@@ -5564,7 +5314,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>3</v>
@@ -5678,40 +5428,40 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>433</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="29" t="s">
-        <v>466</v>
+      <c r="I7" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="L7" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="L7" s="29" t="s">
         <v>312</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P7"/>
       <c r="Q7" s="6" t="s">
@@ -5735,10 +5485,10 @@
         <v>89</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>12</v>
@@ -5762,10 +5512,10 @@
         <v>312</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>9</v>
@@ -5788,10 +5538,10 @@
         <v>92</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>12</v>
@@ -5812,13 +5562,13 @@
         <v>112</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>9</v>
@@ -5838,7 +5588,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>36</v>
@@ -5850,10 +5600,10 @@
         <v>37</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>3</v>
@@ -5864,14 +5614,12 @@
       <c r="L10" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="M10" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
+      <c r="M10" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>446</v>
+      </c>
       <c r="Q10" s="6" t="s">
         <v>5</v>
       </c>
@@ -5884,23 +5632,23 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>202</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>174</v>
       </c>
       <c r="G11" s="17"/>
-      <c r="H11" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>465</v>
+      <c r="H11" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>464</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>3</v>
@@ -6049,19 +5797,19 @@
         <v>8</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>5</v>
@@ -6137,7 +5885,7 @@
         <v>3</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>9</v>
@@ -6164,10 +5912,10 @@
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>3</v>
@@ -6176,7 +5924,7 @@
         <v>319</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>5</v>
@@ -6206,10 +5954,10 @@
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>3</v>
@@ -6218,7 +5966,7 @@
         <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>5</v>
@@ -6346,13 +6094,13 @@
         <v>4</v>
       </c>
       <c r="M23" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="P23" s="6" t="s">
         <v>458</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>459</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>9</v>
@@ -6438,8 +6186,8 @@
       <c r="J26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="29" t="s">
-        <v>469</v>
+      <c r="P26" s="6" t="s">
+        <v>468</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>9</v>
@@ -6468,7 +6216,7 @@
         <v>4</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>3</v>
@@ -6590,7 +6338,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>9</v>
@@ -6622,7 +6370,7 @@
         <v>4</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>9</v>
@@ -6686,7 +6434,7 @@
         <v>4</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>9</v>
@@ -6718,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>9</v>
@@ -6726,13 +6474,13 @@
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="C36" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>174</v>
@@ -6747,7 +6495,7 @@
         <v>4</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>9</v>
@@ -6814,7 +6562,7 @@
         <v>4</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>9</v>
@@ -6875,7 +6623,7 @@
         <v>4</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>9</v>
@@ -6939,9 +6687,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6951,10 +6698,10 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7041,13 +6788,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B2" t="s">
         <v>191</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>211</v>
@@ -7064,7 +6811,7 @@
       <c r="I2" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="30" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="6" t="s">
@@ -7167,40 +6914,40 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>433</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>462</v>
+        <v>390</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>461</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>395</v>
-      </c>
       <c r="M5" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -7229,19 +6976,19 @@
         <v>74</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="J6" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="J6" s="30" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>111</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>5</v>
@@ -7270,12 +7017,12 @@
         <v>8</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="30" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="6" t="s">
@@ -7308,7 +7055,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>3</v>
@@ -7452,7 +7199,7 @@
         <v>217</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>3</v>
@@ -7492,13 +7239,13 @@
       <c r="G13" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="H13" s="31" t="s">
-        <v>424</v>
-      </c>
-      <c r="I13" s="33" t="s">
+      <c r="H13" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="I13" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="30" t="s">
         <v>369</v>
       </c>
       <c r="K13" s="6" t="s">
@@ -7507,8 +7254,8 @@
       <c r="L13" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="N13" s="33"/>
-      <c r="P13" s="30"/>
+      <c r="N13" s="29"/>
+      <c r="P13" s="29"/>
       <c r="Q13" s="6" t="s">
         <v>5</v>
       </c>
@@ -7536,7 +7283,7 @@
         <v>42</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>3</v>
@@ -7576,7 +7323,7 @@
         <v>282</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>3</v>
@@ -7612,7 +7359,7 @@
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>3</v>
@@ -7659,10 +7406,10 @@
         <v>3</v>
       </c>
       <c r="K17" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>431</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -7825,7 +7572,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7922,19 +7669,19 @@
         <v>12</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>319</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>5</v>
@@ -7960,19 +7707,19 @@
         <v>12</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>319</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>5</v>
@@ -8048,7 +7795,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -8182,19 +7929,19 @@
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>174</v>
@@ -8208,10 +7955,12 @@
       <c r="J9" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
       <c r="O9" s="6">
         <v>1</v>
       </c>
-      <c r="P9" s="35"/>
       <c r="Q9" s="6" t="s">
         <v>9</v>
       </c>
@@ -8259,7 +8008,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
@@ -8267,10 +8016,10 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>174</v>
@@ -8285,7 +8034,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
@@ -8343,7 +8092,7 @@
         <v>4</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>382</v>
+        <v>474</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>5</v>
@@ -8410,7 +8159,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>9</v>
@@ -8418,7 +8167,7 @@
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>174</v>
@@ -8436,7 +8185,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -8506,7 +8255,7 @@
         <v>4</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>9</v>
@@ -8663,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>9</v>
@@ -8881,7 +8630,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>9</v>
@@ -8927,13 +8676,13 @@
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="C33" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>174</v>
@@ -8948,7 +8697,7 @@
         <v>4</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>9</v>
@@ -9012,7 +8761,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>9</v>
@@ -9108,7 +8857,7 @@
         <v>4</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>9</v>
@@ -9116,13 +8865,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>418</v>
-      </c>
       <c r="C39" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>174</v>
@@ -9137,13 +8886,13 @@
         <v>4</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>9</v>
@@ -9186,7 +8935,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>57</v>
@@ -9204,7 +8953,7 @@
         <v>4</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>5</v>
@@ -9454,7 +9203,7 @@
         <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9462,7 +9211,7 @@
         <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9486,7 +9235,7 @@
         <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -9494,7 +9243,7 @@
         <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -9861,7 +9610,7 @@
         <v>361</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -9917,7 +9666,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>344</v>

--- a/target/classes/tablesSchema.xlsx
+++ b/target/classes/tablesSchema.xlsx
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="475">
   <si>
     <t>Type</t>
   </si>
@@ -1684,7 +1684,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1700,6 +1700,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1784,7 +1790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1819,6 +1825,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6698,10 +6705,10 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7569,10 +7576,10 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8567,6 +8574,9 @@
       </c>
       <c r="J29" s="6" t="s">
         <v>4</v>
+      </c>
+      <c r="M29" s="32" t="s">
+        <v>271</v>
       </c>
       <c r="N29" s="6" t="s">
         <v>271</v>

--- a/target/classes/tablesSchema.xlsx
+++ b/target/classes/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20490" windowHeight="4200" tabRatio="690" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2565" windowWidth="20490" windowHeight="4080" tabRatio="690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -25,6 +25,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>SHAHAJ Alban</author>
+  </authors>
+  <commentList>
+    <comment ref="M23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SHAHAJ Alban:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+IF((%type.code==RGT),RF-00004629-PAR,RF-00004628-PAR)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>SHAHAJ Alban</author>
@@ -205,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="475">
   <si>
     <t>Type</t>
   </si>
@@ -1257,379 +1291,379 @@
     <t>BSE$AT06A</t>
   </si>
   <si>
+    <t>CWD$AT06A</t>
+  </si>
+  <si>
+    <t>BSE$AT08A</t>
+  </si>
+  <si>
+    <t>SCRAPIE$AT08A</t>
+  </si>
+  <si>
+    <t>CWD$AT08A</t>
+  </si>
+  <si>
+    <t>BSE$AT12A</t>
+  </si>
+  <si>
+    <t>SCRAPIE$AT12A</t>
+  </si>
+  <si>
+    <t>CWD$AT12A</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,type.code}$%anMethType.code</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|.|ZERO_PADDING({rowId},6)</t>
+  </si>
+  <si>
+    <t>%country.code|END_TRIM(%reportYear.code,2)|END_TRIM(ZERO_PADDING(%reportMonth.code,2),2)</t>
+  </si>
+  <si>
+    <t>RELATION{Report,reportSenderId.label}|IF_NOT_NULL(RELATION{Report,reportVersion.code},.RELATION{Report,reportVersion.code},)</t>
+  </si>
+  <si>
+    <t>Born in the flock</t>
+  </si>
+  <si>
+    <t>Number of Negative Animals</t>
+  </si>
+  <si>
+    <t>Total number of Tested Samples/Animals</t>
+  </si>
+  <si>
+    <t>Executed test</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),,0)</t>
+  </si>
+  <si>
+    <t>(%type.code!=RGT)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|.IF_NOT_NULL(RELATION{CasesInformation,animalId.label},A.|RELATION{CasesInformation,animalId.label},S.|RELATION{CasesInformation,sampId.label})</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,type.code}!=RGT)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},tseTargetGroup=RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),F02.A06AM,F02.A06AL)</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),Brain,Blood)</t>
+  </si>
+  <si>
+    <t>reportYearsList</t>
+  </si>
+  <si>
+    <t>animalYearsList</t>
+  </si>
+  <si>
+    <t>reportPreviousStatus</t>
+  </si>
+  <si>
+    <t>repPreviousStatus</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH, AUTOMATICALLY FILLED</t>
+  </si>
+  <si>
+    <t>EU legal reference</t>
+  </si>
+  <si>
+    <t>Res ID</t>
+  </si>
+  <si>
+    <t>EU legislation related to the reason for sampling</t>
+  </si>
+  <si>
+    <t>Prog ID</t>
+  </si>
+  <si>
+    <t>progIdSuffix</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>AND((%anMethType.code==AT13A),(RELATION{SummarizedInformation,source.code}==F01.A057G))</t>
+  </si>
+  <si>
+    <t>IF(OR((%internalOpType.label==Reject),(%internalOpType.label==Submit)),No,Yes)</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,source.code}==F01.A057G)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,source.code}</t>
+  </si>
+  <si>
+    <t>IF((%internalOpType.label!=Insert),RELATION{Report,reportDatasetId.label},)</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>MTX.gender</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}==RGT),SCRAPIE,)</t>
+  </si>
+  <si>
+    <t>N123A</t>
+  </si>
+  <si>
+    <t>sexLists</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,type.code}==RGT)</t>
+  </si>
+  <si>
+    <t>%progLegalRef.code|IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},.|RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|IF((RELATION{SummarizedInformation,type.code}!=RGT),.%progIdSuffix.code,)</t>
+  </si>
+  <si>
+    <t>reportLastMessageId</t>
+  </si>
+  <si>
+    <t>reportLastModifyingMessageId</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH, used with Refresh Status/Display ack</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),RELATION{SummarizedInformation,animage.code},RELATION{CasesInformation,animage.code})</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}==CWD),RELATION{SummarizedInformation,sex.code},RELATION{CasesInformation,sex.code})</t>
+  </si>
+  <si>
+    <t>A04MQ#RELATION{SummarizedInformation,source.code}$RELATION{CasesInformation,part.code}$RELATION{SummarizedInformation,prod.code}|IF_NOT_NULL(%animage.code,$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
+  </si>
+  <si>
+    <t>A04MQ#%source.code$%prod.code|IF((%type.code!=RGT),$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(%PSUId.label,PSUId=%PSUId.label,)</t>
+  </si>
+  <si>
+    <t>PSUId</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,animalId.code},animalId=RELATION{CasesInformation,animalId.code},)|IF_NOT_NULL(RELATION{CasesInformation,herdId.label},$herdId=RELATION{CasesInformation,herdId.label}, )|IF_NOT_NULL(RELATION{CasesInformation,sampHoldingId.label},$sampHoldingId=RELATION{CasesInformation,sampHoldingId.label},)|IF_NOT_NULL(RELATION{SummarizedInformation,PSUId.label},$PSUId=RELATION{SummarizedInformation,PSUId.label},)</t>
+  </si>
+  <si>
+    <t>Sample/case assessment</t>
+  </si>
+  <si>
+    <t>First test type</t>
+  </si>
+  <si>
+    <t>First test</t>
+  </si>
+  <si>
+    <t>Type of the first executed test</t>
+  </si>
+  <si>
+    <t>First executed test</t>
+  </si>
+  <si>
+    <t>sampInfo</t>
+  </si>
+  <si>
+    <t>D.11</t>
+  </si>
+  <si>
+    <t>origSampId</t>
+  </si>
+  <si>
+    <t>sampUnitType</t>
+  </si>
+  <si>
+    <t>C.02</t>
+  </si>
+  <si>
+    <t>G199A</t>
+  </si>
+  <si>
+    <t>H.01</t>
+  </si>
+  <si>
+    <t>anPortSeq</t>
+  </si>
+  <si>
+    <t>Portion</t>
+  </si>
+  <si>
+    <t>Portion of the analyzed sample</t>
+  </si>
+  <si>
+    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
+  </si>
+  <si>
+    <t>sampEventAsses</t>
+  </si>
+  <si>
+    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,prod.code}==F21.A07RV),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,tseNationalCaseId.label},tseNationalCaseId=RELATION{CasesInformation,tseNationalCaseId.label}$,)|IF_NOT_NULL(RELATION{CasesInformation,tseIndexCase.code},tseIndexCase=RELATION{CasesInformation,tseIndexCase.code}$,)|IF_NOT_NULL(RELATION{CasesInformation,sampEventAsses.code},sampEventAsses=RELATION{CasesInformation,sampEventAsses.code},)|IF_NOT_NULL(RELATION{CasesInformation,evalCom.label},$com=RELATION{CasesInformation,evalCom.label},)</t>
+  </si>
+  <si>
+    <t>cwdExtCont</t>
+  </si>
+  <si>
+    <t>pref11</t>
+  </si>
+  <si>
+    <t>yesNoLists</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Sex of the animals</t>
+  </si>
+  <si>
+    <t>%type.code|$%anMethType.code</t>
+  </si>
+  <si>
+    <t>(%type.code==SCRAPIE)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(%statusHerd.code,statusHerd=%statusHerd.code,)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>IF(OR((%country.code==EE),(%country.code==FI),(%country.code==LV),(%country.code==LT),(%country.code==PL),(%country.code==SE)),Y,ALL)</t>
+  </si>
+  <si>
+    <t>OR((%type.code==CWD),(%type.code==BSEOS))</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,birthCountry.code},birthCountry=RELATION{CasesInformation,birthCountry.code},)|IF_NOT_NULL(RELATION{SummarizedInformation,statusHerd.code},$statusHerd=RELATION{SummarizedInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
+  </si>
+  <si>
+    <t>Herd/Flock status</t>
+  </si>
+  <si>
+    <t>Husbandry system</t>
+  </si>
+  <si>
+    <t>Aggregated-Data-(Level-1)</t>
+  </si>
+  <si>
+    <t>Sample-Level-Data-(Level-2)</t>
+  </si>
+  <si>
+    <t>Analytical-Test-Results-(Level-3)</t>
+  </si>
+  <si>
+    <t>Report-Management</t>
+  </si>
+  <si>
+    <t>IF(OR((%type.code==SCRAPIE),(%type.code==BSEOS)),F,)</t>
+  </si>
+  <si>
+    <t>%progId.label|.0</t>
+  </si>
+  <si>
+    <t>%progId.label</t>
+  </si>
+  <si>
+    <t>NEXT(,)</t>
+  </si>
+  <si>
+    <t>Dataset ID</t>
+  </si>
+  <si>
+    <t>Report Status</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT), RELATION{SummarizedInformation,sampId.label}, )</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT), origSampId=%origSampId.label, )</t>
+  </si>
+  <si>
+    <t>IF((%type.code!=RGT), origSampId=%sampId.label, )</t>
+  </si>
+  <si>
+    <t>(%type.code==RGT)</t>
+  </si>
+  <si>
+    <t>F01.A057G</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),RF-00004629-PAR#allele=%allele1.label$allele=%allele2.label,RF-00004628-PAR)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),0,)</t>
+  </si>
+  <si>
+    <t>IF(OR((%type.code!=CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F32.A0C9B,)</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,sex.code}==F32.A0C9B)</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,sex.code}!=F32.A0C9B),RELATION{SummarizedInformation,sex.code},)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F01.A056M,)</t>
+  </si>
+  <si>
+    <t>AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==Y))</t>
+  </si>
+  <si>
+    <t>(%type.code==CWD)</t>
+  </si>
+  <si>
+    <t>IF((%type.code!=RGT),tseTargetGroup=%tseTargetGroup.code$totSamplesTested=%totSamplesTested.label$totSamplesPositive=%totSamplesPositive.label$totSamplesNegative=%totSamplesNegative.label$totSamplesInconclusive=%totSamplesInconclusive.label$totSamplesUnsuitable=%totSamplesUnsuitable.label,totSamplesTested=%totSamplesTested.label)</t>
+  </si>
+  <si>
+    <t>IF((%type.code!=RGT),SUM(%totSamplesPositive.label,%totSamplesNegative.label,%totSamplesInconclusive.label),)</t>
+  </si>
+  <si>
+    <t>PSU id required</t>
+  </si>
+  <si>
+    <t>Flag to include Primary Sample Unit as mandatory field</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)</t>
+  </si>
+  <si>
+    <t>(%sampEventAsses.code!=J051A)</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),%paramCodeBaseTerm.code,RF-00004629-PAR)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),AT13A,AT06A)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,defScreeningBSE.code},)IF((%type.code==RGT),F089A,)</t>
+  </si>
+  <si>
     <t>SCRAPIE$AT06A</t>
   </si>
   <si>
-    <t>CWD$AT06A</t>
-  </si>
-  <si>
-    <t>BSE$AT08A</t>
-  </si>
-  <si>
-    <t>SCRAPIE$AT08A</t>
-  </si>
-  <si>
-    <t>CWD$AT08A</t>
-  </si>
-  <si>
-    <t>BSE$AT12A</t>
-  </si>
-  <si>
-    <t>SCRAPIE$AT12A</t>
-  </si>
-  <si>
-    <t>CWD$AT12A</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,type.code}$%anMethType.code</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,progId.label}|.|ZERO_PADDING({rowId},6)</t>
-  </si>
-  <si>
-    <t>%country.code|END_TRIM(%reportYear.code,2)|END_TRIM(ZERO_PADDING(%reportMonth.code,2),2)</t>
-  </si>
-  <si>
-    <t>RELATION{Report,reportSenderId.label}|IF_NOT_NULL(RELATION{Report,reportVersion.code},.RELATION{Report,reportVersion.code},)</t>
-  </si>
-  <si>
-    <t>Born in the flock</t>
-  </si>
-  <si>
-    <t>Number of Negative Animals</t>
-  </si>
-  <si>
-    <t>Total number of Tested Samples/Animals</t>
-  </si>
-  <si>
-    <t>Executed test</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),,0)</t>
-  </si>
-  <si>
-    <t>(%type.code!=RGT)</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,progId.label}|.IF_NOT_NULL(RELATION{CasesInformation,animalId.label},A.|RELATION{CasesInformation,animalId.label},S.|RELATION{CasesInformation,sampId.label})</t>
-  </si>
-  <si>
-    <t>(RELATION{SummarizedInformation,type.code}!=RGT)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},tseTargetGroup=RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),F02.A06AM,F02.A06AL)</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),Brain,Blood)</t>
-  </si>
-  <si>
-    <t>reportYearsList</t>
-  </si>
-  <si>
-    <t>animalYearsList</t>
-  </si>
-  <si>
-    <t>reportPreviousStatus</t>
-  </si>
-  <si>
-    <t>repPreviousStatus</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH, AUTOMATICALLY FILLED</t>
-  </si>
-  <si>
-    <t>EU legal reference</t>
-  </si>
-  <si>
-    <t>Res ID</t>
-  </si>
-  <si>
-    <t>EU legislation related to the reason for sampling</t>
-  </si>
-  <si>
-    <t>Prog ID</t>
-  </si>
-  <si>
-    <t>progIdSuffix</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>AND((%anMethType.code==AT13A),(RELATION{SummarizedInformation,source.code}==F01.A057G))</t>
-  </si>
-  <si>
-    <t>IF(OR((%internalOpType.label==Reject),(%internalOpType.label==Submit)),No,Yes)</t>
-  </si>
-  <si>
-    <t>(RELATION{SummarizedInformation,source.code}==F01.A057G)</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,source.code}</t>
-  </si>
-  <si>
-    <t>IF((%internalOpType.label!=Insert),RELATION{Report,reportDatasetId.label},)</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>MTX.gender</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}==RGT),SCRAPIE,)</t>
-  </si>
-  <si>
-    <t>N123A</t>
-  </si>
-  <si>
-    <t>sexLists</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>(RELATION{SummarizedInformation,type.code}==RGT)</t>
-  </si>
-  <si>
-    <t>%progLegalRef.code|IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},.|RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,progId.label}|IF((RELATION{SummarizedInformation,type.code}!=RGT),.%progIdSuffix.code,)</t>
-  </si>
-  <si>
-    <t>reportLastMessageId</t>
-  </si>
-  <si>
-    <t>reportLastModifyingMessageId</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH, used with Refresh Status/Display ack</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),RELATION{SummarizedInformation,animage.code},RELATION{CasesInformation,animage.code})</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}==CWD),RELATION{SummarizedInformation,sex.code},RELATION{CasesInformation,sex.code})</t>
-  </si>
-  <si>
-    <t>A04MQ#RELATION{SummarizedInformation,source.code}$RELATION{CasesInformation,part.code}$RELATION{SummarizedInformation,prod.code}|IF_NOT_NULL(%animage.code,$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
-  </si>
-  <si>
-    <t>A04MQ#%source.code$%prod.code|IF((%type.code!=RGT),$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(%PSUId.label,PSUId=%PSUId.label,)</t>
-  </si>
-  <si>
-    <t>PSUId</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,animalId.code},animalId=RELATION{CasesInformation,animalId.code},)|IF_NOT_NULL(RELATION{CasesInformation,herdId.label},$herdId=RELATION{CasesInformation,herdId.label}, )|IF_NOT_NULL(RELATION{CasesInformation,sampHoldingId.label},$sampHoldingId=RELATION{CasesInformation,sampHoldingId.label},)|IF_NOT_NULL(RELATION{SummarizedInformation,PSUId.label},$PSUId=RELATION{SummarizedInformation,PSUId.label},)</t>
-  </si>
-  <si>
-    <t>Sample/case assessment</t>
-  </si>
-  <si>
-    <t>First test type</t>
-  </si>
-  <si>
-    <t>First test</t>
-  </si>
-  <si>
-    <t>Type of the first executed test</t>
-  </si>
-  <si>
-    <t>First executed test</t>
-  </si>
-  <si>
-    <t>sampInfo</t>
-  </si>
-  <si>
-    <t>D.11</t>
-  </si>
-  <si>
-    <t>origSampId</t>
-  </si>
-  <si>
-    <t>sampUnitType</t>
-  </si>
-  <si>
-    <t>C.02</t>
-  </si>
-  <si>
-    <t>G199A</t>
-  </si>
-  <si>
-    <t>H.01</t>
-  </si>
-  <si>
-    <t>anPortSeq</t>
-  </si>
-  <si>
-    <t>Portion</t>
-  </si>
-  <si>
-    <t>Portion of the analyzed sample</t>
-  </si>
-  <si>
-    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
-  </si>
-  <si>
-    <t>sampEventAsses</t>
-  </si>
-  <si>
-    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,prod.code}==F21.A07RV),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,tseNationalCaseId.label},tseNationalCaseId=RELATION{CasesInformation,tseNationalCaseId.label}$,)|IF_NOT_NULL(RELATION{CasesInformation,tseIndexCase.code},tseIndexCase=RELATION{CasesInformation,tseIndexCase.code}$,)|IF_NOT_NULL(RELATION{CasesInformation,sampEventAsses.code},sampEventAsses=RELATION{CasesInformation,sampEventAsses.code},)|IF_NOT_NULL(RELATION{CasesInformation,evalCom.label},$com=RELATION{CasesInformation,evalCom.label},)</t>
-  </si>
-  <si>
-    <t>cwdExtCont</t>
-  </si>
-  <si>
-    <t>pref11</t>
-  </si>
-  <si>
-    <t>yesNoLists</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Sex of the animals</t>
-  </si>
-  <si>
-    <t>%type.code|$%anMethType.code</t>
-  </si>
-  <si>
-    <t>(%type.code==SCRAPIE)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(%statusHerd.code,statusHerd=%statusHerd.code,)</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>IF(OR((%country.code==EE),(%country.code==FI),(%country.code==LV),(%country.code==LT),(%country.code==PL),(%country.code==SE)),Y,ALL)</t>
-  </si>
-  <si>
-    <t>OR((%type.code==CWD),(%type.code==BSEOS))</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,birthCountry.code},birthCountry=RELATION{CasesInformation,birthCountry.code},)|IF_NOT_NULL(RELATION{SummarizedInformation,statusHerd.code},$statusHerd=RELATION{SummarizedInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
-  </si>
-  <si>
-    <t>Herd/Flock status</t>
-  </si>
-  <si>
-    <t>Husbandry system</t>
-  </si>
-  <si>
-    <t>Aggregated-Data-(Level-1)</t>
-  </si>
-  <si>
-    <t>Sample-Level-Data-(Level-2)</t>
-  </si>
-  <si>
-    <t>Analytical-Test-Results-(Level-3)</t>
-  </si>
-  <si>
-    <t>Report-Management</t>
-  </si>
-  <si>
-    <t>IF(OR((%type.code==SCRAPIE),(%type.code==BSEOS)),F,)</t>
-  </si>
-  <si>
-    <t>%progId.label|.0</t>
-  </si>
-  <si>
-    <t>%progId.label</t>
-  </si>
-  <si>
-    <t>NEXT(,)</t>
-  </si>
-  <si>
-    <t>Dataset ID</t>
-  </si>
-  <si>
-    <t>Report Status</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT), RELATION{SummarizedInformation,sampId.label}, )</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT), origSampId=%origSampId.label, )</t>
-  </si>
-  <si>
-    <t>IF((%type.code!=RGT), origSampId=%sampId.label, )</t>
-  </si>
-  <si>
-    <t>(%type.code==RGT)</t>
-  </si>
-  <si>
-    <t>F01.A057G</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),RF-00004629-PAR,RF-00004628-PAR)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),RF-00004629-PAR#allele=%allele1.label$allele=%allele2.label,RF-00004628-PAR)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),0,)</t>
-  </si>
-  <si>
-    <t>IF(OR((%type.code!=CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F32.A0C9B,)</t>
-  </si>
-  <si>
-    <t>(RELATION{SummarizedInformation,sex.code}==F32.A0C9B)</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,sex.code}!=F32.A0C9B),RELATION{SummarizedInformation,sex.code},)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F01.A056M,)</t>
-  </si>
-  <si>
-    <t>AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==Y))</t>
-  </si>
-  <si>
-    <t>(%type.code==CWD)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),AT13A,AT06A)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,defScreeningBSE.code},)IF((%type.code==RGT),F089A,)</t>
-  </si>
-  <si>
-    <t>IF((%type.code!=RGT),tseTargetGroup=%tseTargetGroup.code$totSamplesTested=%totSamplesTested.label$totSamplesPositive=%totSamplesPositive.label$totSamplesNegative=%totSamplesNegative.label$totSamplesInconclusive=%totSamplesInconclusive.label$totSamplesUnsuitable=%totSamplesUnsuitable.label,totSamplesTested=%totSamplesTested.label)</t>
-  </si>
-  <si>
-    <t>IF((%type.code!=RGT),SUM(%totSamplesPositive.label,%totSamplesNegative.label,%totSamplesInconclusive.label),)</t>
-  </si>
-  <si>
-    <t>PSU id required</t>
-  </si>
-  <si>
-    <t>Flag to include Primary Sample Unit as mandatory field</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)</t>
-  </si>
-  <si>
-    <t>(%sampEventAsses.code!=J051A)</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),%paramCodeBaseTerm.code,RF-00004629-PAR)</t>
+    <t>IF((%type.code==SCRAPIE),BSE,%type.code)</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +1824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1826,6 +1860,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3998,10 +4033,10 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4118,16 +4153,16 @@
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>12</v>
@@ -4145,16 +4180,16 @@
         <v>9</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>9</v>
@@ -4236,7 +4271,7 @@
         <v>112</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="R5" s="2">
         <v>4</v>
@@ -4274,7 +4309,7 @@
         <v>112</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R6" s="2">
         <v>5</v>
@@ -4312,7 +4347,7 @@
         <v>112</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R7" s="2">
         <v>6</v>
@@ -4350,7 +4385,7 @@
         <v>112</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R8" s="2">
         <v>7</v>
@@ -4388,7 +4423,7 @@
         <v>112</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R9" s="2">
         <v>8</v>
@@ -4427,7 +4462,7 @@
         <v>112</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R10" s="2">
         <v>9</v>
@@ -4466,7 +4501,7 @@
         <v>112</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R11" s="2">
         <v>10</v>
@@ -4505,7 +4540,7 @@
         <v>112</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
@@ -4646,7 +4681,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="8" t="s">
@@ -4751,7 +4786,7 @@
         <v>300</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4877,7 +4912,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>174</v>
@@ -4908,13 +4943,13 @@
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>174</v>
@@ -4945,13 +4980,13 @@
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>174</v>
@@ -4989,10 +5024,10 @@
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>174</v>
@@ -5032,10 +5067,10 @@
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>174</v>
@@ -5068,15 +5103,15 @@
     </row>
     <row r="13" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>375</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>376</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>174</v>
@@ -5115,14 +5150,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="M14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5142,7 +5177,7 @@
     <col min="14" max="14" width="50.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.42578125" style="6" customWidth="1"/>
     <col min="16" max="16" width="52.5703125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="20" style="6" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="6"/>
     <col min="19" max="19" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="6"/>
@@ -5271,7 +5306,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>3</v>
@@ -5283,10 +5318,10 @@
         <v>312</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>5</v>
@@ -5306,7 +5341,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>69</v>
@@ -5321,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>3</v>
@@ -5365,10 +5400,10 @@
         <v>74</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>3</v>
@@ -5409,10 +5444,10 @@
         <v>18</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>3</v>
@@ -5435,40 +5470,40 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L7" s="29" t="s">
         <v>312</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P7"/>
       <c r="Q7" s="6" t="s">
@@ -5492,10 +5527,10 @@
         <v>89</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>12</v>
@@ -5504,10 +5539,10 @@
         <v>90</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>3</v>
@@ -5515,14 +5550,11 @@
       <c r="K8" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>312</v>
+      <c r="L8" s="29" t="s">
+        <v>474</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>9</v>
@@ -5545,10 +5577,10 @@
         <v>92</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>12</v>
@@ -5557,10 +5589,10 @@
         <v>93</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>3</v>
@@ -5569,13 +5601,10 @@
         <v>112</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>9</v>
@@ -5595,7 +5624,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>36</v>
@@ -5607,10 +5636,10 @@
         <v>37</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>3</v>
@@ -5622,10 +5651,7 @@
         <v>312</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>5</v>
@@ -5639,23 +5665,23 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>202</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>174</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>3</v>
@@ -5681,7 +5707,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>238</v>
@@ -5690,16 +5716,16 @@
         <v>8</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
@@ -5728,16 +5754,16 @@
         <v>8</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>5</v>
@@ -5766,16 +5792,16 @@
         <v>8</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>5</v>
@@ -5795,7 +5821,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>238</v>
@@ -5804,19 +5830,19 @@
         <v>8</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>5</v>
@@ -5845,16 +5871,16 @@
         <v>8</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>5</v>
@@ -5874,7 +5900,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>174</v>
@@ -5892,7 +5918,7 @@
         <v>3</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>9</v>
@@ -5919,10 +5945,10 @@
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>3</v>
@@ -5931,7 +5957,7 @@
         <v>319</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>5</v>
@@ -5961,10 +5987,10 @@
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>3</v>
@@ -5973,7 +5999,7 @@
         <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>5</v>
@@ -6100,14 +6126,9 @@
       <c r="J23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>457</v>
-      </c>
+      <c r="M23" s="33"/>
       <c r="P23" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>9</v>
@@ -6194,7 +6215,7 @@
         <v>4</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>9</v>
@@ -6223,7 +6244,7 @@
         <v>4</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>3</v>
@@ -6345,7 +6366,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>9</v>
@@ -6377,7 +6398,7 @@
         <v>4</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>9</v>
@@ -6441,7 +6462,7 @@
         <v>4</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>9</v>
@@ -6473,7 +6494,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>9</v>
@@ -6481,13 +6502,13 @@
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>414</v>
-      </c>
       <c r="C36" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>174</v>
@@ -6502,7 +6523,7 @@
         <v>4</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>9</v>
@@ -6569,7 +6590,7 @@
         <v>4</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>9</v>
@@ -6630,7 +6651,7 @@
         <v>4</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>9</v>
@@ -6694,8 +6715,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6705,10 +6727,10 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6795,13 +6817,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B2" t="s">
         <v>191</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>211</v>
@@ -6813,10 +6835,10 @@
         <v>320</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>3</v>
@@ -6904,10 +6926,10 @@
         <v>303</v>
       </c>
       <c r="M4" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>372</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>5</v>
@@ -6921,40 +6943,40 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>394</v>
-      </c>
       <c r="M5" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -6983,10 +7005,10 @@
         <v>74</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>4</v>
@@ -6995,7 +7017,7 @@
         <v>111</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>5</v>
@@ -7024,7 +7046,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>3</v>
@@ -7062,7 +7084,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>3</v>
@@ -7206,7 +7228,7 @@
         <v>217</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>3</v>
@@ -7247,13 +7269,13 @@
         <v>197</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I13" s="29" t="s">
         <v>3</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>198</v>
@@ -7290,7 +7312,7 @@
         <v>42</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>3</v>
@@ -7330,7 +7352,7 @@
         <v>282</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>3</v>
@@ -7339,7 +7361,7 @@
         <v>3</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>5</v>
@@ -7366,7 +7388,7 @@
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>3</v>
@@ -7392,7 +7414,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>309</v>
@@ -7413,10 +7435,10 @@
         <v>3</v>
       </c>
       <c r="K17" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -7575,11 +7597,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="M8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7676,19 +7698,19 @@
         <v>12</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>319</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>5</v>
@@ -7714,19 +7736,19 @@
         <v>12</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>319</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>5</v>
@@ -7767,7 +7789,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>294</v>
@@ -7802,7 +7824,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -7822,7 +7844,7 @@
         <v>142</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>12</v>
@@ -7843,7 +7865,7 @@
         <v>112</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>9</v>
@@ -7936,19 +7958,19 @@
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>421</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>422</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>174</v>
@@ -8015,7 +8037,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
@@ -8023,10 +8045,10 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>174</v>
@@ -8041,7 +8063,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
@@ -8099,7 +8121,7 @@
         <v>4</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>5</v>
@@ -8166,7 +8188,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>9</v>
@@ -8174,7 +8196,7 @@
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>174</v>
@@ -8192,7 +8214,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -8224,7 +8246,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>9</v>
@@ -8241,10 +8263,10 @@
         <v>11</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>174</v>
@@ -8262,7 +8284,7 @@
         <v>4</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>9</v>
@@ -8363,7 +8385,7 @@
         <v>95</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>256</v>
@@ -8384,7 +8406,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>9</v>
@@ -8419,7 +8441,7 @@
         <v>4</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>9</v>
@@ -8611,7 +8633,7 @@
         <v>4</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>9</v>
@@ -8640,7 +8662,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>9</v>
@@ -8686,13 +8708,13 @@
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>414</v>
-      </c>
       <c r="C33" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>174</v>
@@ -8707,7 +8729,7 @@
         <v>4</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>9</v>
@@ -8771,7 +8793,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>9</v>
@@ -8867,7 +8889,7 @@
         <v>4</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>9</v>
@@ -8875,13 +8897,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>417</v>
-      </c>
       <c r="C39" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>174</v>
@@ -8896,13 +8918,13 @@
         <v>4</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>9</v>
@@ -8945,7 +8967,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>57</v>
@@ -8963,7 +8985,7 @@
         <v>4</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>5</v>
@@ -9009,7 +9031,7 @@
         <v>342</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>339</v>
@@ -9213,7 +9235,7 @@
         <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9221,7 +9243,7 @@
         <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9245,7 +9267,7 @@
         <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -9253,7 +9275,7 @@
         <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -9617,10 +9639,10 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -9676,7 +9698,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>344</v>

--- a/target/classes/tablesSchema.xlsx
+++ b/target/classes/tablesSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2565" windowWidth="20490" windowHeight="4080" tabRatio="690" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2565" windowWidth="20490" windowHeight="4080" tabRatio="690" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="475">
   <si>
     <t>Type</t>
   </si>
@@ -1264,9 +1264,6 @@
     <t>testAim</t>
   </si>
   <si>
-    <t>RELATION{SummarizedInformation,type.code}|%anMethType.code</t>
-  </si>
-  <si>
     <t>(%anMethType.code!=AT13A)</t>
   </si>
   <si>
@@ -1312,358 +1309,361 @@
     <t>CWD$AT12A</t>
   </si>
   <si>
+    <t>RELATION{SummarizedInformation,progId.label}|.|ZERO_PADDING({rowId},6)</t>
+  </si>
+  <si>
+    <t>%country.code|END_TRIM(%reportYear.code,2)|END_TRIM(ZERO_PADDING(%reportMonth.code,2),2)</t>
+  </si>
+  <si>
+    <t>RELATION{Report,reportSenderId.label}|IF_NOT_NULL(RELATION{Report,reportVersion.code},.RELATION{Report,reportVersion.code},)</t>
+  </si>
+  <si>
+    <t>Born in the flock</t>
+  </si>
+  <si>
+    <t>Number of Negative Animals</t>
+  </si>
+  <si>
+    <t>Total number of Tested Samples/Animals</t>
+  </si>
+  <si>
+    <t>Executed test</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),,0)</t>
+  </si>
+  <si>
+    <t>(%type.code!=RGT)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|.IF_NOT_NULL(RELATION{CasesInformation,animalId.label},A.|RELATION{CasesInformation,animalId.label},S.|RELATION{CasesInformation,sampId.label})</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,type.code}!=RGT)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},tseTargetGroup=RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),F02.A06AM,F02.A06AL)</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),Brain,Blood)</t>
+  </si>
+  <si>
+    <t>reportYearsList</t>
+  </si>
+  <si>
+    <t>animalYearsList</t>
+  </si>
+  <si>
+    <t>reportPreviousStatus</t>
+  </si>
+  <si>
+    <t>repPreviousStatus</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH, AUTOMATICALLY FILLED</t>
+  </si>
+  <si>
+    <t>EU legal reference</t>
+  </si>
+  <si>
+    <t>Res ID</t>
+  </si>
+  <si>
+    <t>EU legislation related to the reason for sampling</t>
+  </si>
+  <si>
+    <t>Prog ID</t>
+  </si>
+  <si>
+    <t>progIdSuffix</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>AND((%anMethType.code==AT13A),(RELATION{SummarizedInformation,source.code}==F01.A057G))</t>
+  </si>
+  <si>
+    <t>IF(OR((%internalOpType.label==Reject),(%internalOpType.label==Submit)),No,Yes)</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,source.code}==F01.A057G)</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,source.code}</t>
+  </si>
+  <si>
+    <t>IF((%internalOpType.label!=Insert),RELATION{Report,reportDatasetId.label},)</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>MTX.gender</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}==RGT),SCRAPIE,)</t>
+  </si>
+  <si>
+    <t>N123A</t>
+  </si>
+  <si>
+    <t>sexLists</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,type.code}==RGT)</t>
+  </si>
+  <si>
+    <t>%progLegalRef.code|IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},.|RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
+  </si>
+  <si>
+    <t>reportLastMessageId</t>
+  </si>
+  <si>
+    <t>reportLastModifyingMessageId</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH, used with Refresh Status/Display ack</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}==CWD),RELATION{SummarizedInformation,sex.code},RELATION{CasesInformation,sex.code})</t>
+  </si>
+  <si>
+    <t>A04MQ#RELATION{SummarizedInformation,source.code}$RELATION{CasesInformation,part.code}$RELATION{SummarizedInformation,prod.code}|IF_NOT_NULL(%animage.code,$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
+  </si>
+  <si>
+    <t>A04MQ#%source.code$%prod.code|IF((%type.code!=RGT),$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(%PSUId.label,PSUId=%PSUId.label,)</t>
+  </si>
+  <si>
+    <t>PSUId</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,animalId.code},animalId=RELATION{CasesInformation,animalId.code},)|IF_NOT_NULL(RELATION{CasesInformation,herdId.label},$herdId=RELATION{CasesInformation,herdId.label}, )|IF_NOT_NULL(RELATION{CasesInformation,sampHoldingId.label},$sampHoldingId=RELATION{CasesInformation,sampHoldingId.label},)|IF_NOT_NULL(RELATION{SummarizedInformation,PSUId.label},$PSUId=RELATION{SummarizedInformation,PSUId.label},)</t>
+  </si>
+  <si>
+    <t>Sample/case assessment</t>
+  </si>
+  <si>
+    <t>First test type</t>
+  </si>
+  <si>
+    <t>First test</t>
+  </si>
+  <si>
+    <t>Type of the first executed test</t>
+  </si>
+  <si>
+    <t>First executed test</t>
+  </si>
+  <si>
+    <t>sampInfo</t>
+  </si>
+  <si>
+    <t>D.11</t>
+  </si>
+  <si>
+    <t>origSampId</t>
+  </si>
+  <si>
+    <t>sampUnitType</t>
+  </si>
+  <si>
+    <t>C.02</t>
+  </si>
+  <si>
+    <t>G199A</t>
+  </si>
+  <si>
+    <t>H.01</t>
+  </si>
+  <si>
+    <t>anPortSeq</t>
+  </si>
+  <si>
+    <t>Portion</t>
+  </si>
+  <si>
+    <t>Portion of the analyzed sample</t>
+  </si>
+  <si>
+    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
+  </si>
+  <si>
+    <t>sampEventAsses</t>
+  </si>
+  <si>
+    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,prod.code}==F21.A07RV),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,tseNationalCaseId.label},tseNationalCaseId=RELATION{CasesInformation,tseNationalCaseId.label}$,)|IF_NOT_NULL(RELATION{CasesInformation,tseIndexCase.code},tseIndexCase=RELATION{CasesInformation,tseIndexCase.code}$,)|IF_NOT_NULL(RELATION{CasesInformation,sampEventAsses.code},sampEventAsses=RELATION{CasesInformation,sampEventAsses.code},)|IF_NOT_NULL(RELATION{CasesInformation,evalCom.label},$com=RELATION{CasesInformation,evalCom.label},)</t>
+  </si>
+  <si>
+    <t>cwdExtCont</t>
+  </si>
+  <si>
+    <t>pref11</t>
+  </si>
+  <si>
+    <t>yesNoLists</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Sex of the animals</t>
+  </si>
+  <si>
+    <t>%type.code|$%anMethType.code</t>
+  </si>
+  <si>
+    <t>(%type.code==SCRAPIE)</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(%statusHerd.code,statusHerd=%statusHerd.code,)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>IF(OR((%country.code==EE),(%country.code==FI),(%country.code==LV),(%country.code==LT),(%country.code==PL),(%country.code==SE)),Y,ALL)</t>
+  </si>
+  <si>
+    <t>OR((%type.code==CWD),(%type.code==BSEOS))</t>
+  </si>
+  <si>
+    <t>IF_NOT_NULL(RELATION{CasesInformation,birthCountry.code},birthCountry=RELATION{CasesInformation,birthCountry.code},)|IF_NOT_NULL(RELATION{SummarizedInformation,statusHerd.code},$statusHerd=RELATION{SummarizedInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
+  </si>
+  <si>
+    <t>Herd/Flock status</t>
+  </si>
+  <si>
+    <t>Husbandry system</t>
+  </si>
+  <si>
+    <t>Aggregated-Data-(Level-1)</t>
+  </si>
+  <si>
+    <t>Sample-Level-Data-(Level-2)</t>
+  </si>
+  <si>
+    <t>Analytical-Test-Results-(Level-3)</t>
+  </si>
+  <si>
+    <t>Report-Management</t>
+  </si>
+  <si>
+    <t>IF(OR((%type.code==SCRAPIE),(%type.code==BSEOS)),F,)</t>
+  </si>
+  <si>
+    <t>%progId.label|.0</t>
+  </si>
+  <si>
+    <t>%progId.label</t>
+  </si>
+  <si>
+    <t>NEXT(,)</t>
+  </si>
+  <si>
+    <t>Dataset ID</t>
+  </si>
+  <si>
+    <t>Report Status</t>
+  </si>
+  <si>
+    <t>IF((%type.code!=RGT), origSampId=%sampId.label, )</t>
+  </si>
+  <si>
+    <t>(%type.code==RGT)</t>
+  </si>
+  <si>
+    <t>F01.A057G</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),RF-00004629-PAR#allele=%allele1.label$allele=%allele2.label,RF-00004628-PAR)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),0,)</t>
+  </si>
+  <si>
+    <t>IF(OR((%type.code!=CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F32.A0C9B,)</t>
+  </si>
+  <si>
+    <t>(RELATION{SummarizedInformation,sex.code}==F32.A0C9B)</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,sex.code}!=F32.A0C9B),RELATION{SummarizedInformation,sex.code},)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F01.A056M,)</t>
+  </si>
+  <si>
+    <t>AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==Y))</t>
+  </si>
+  <si>
+    <t>(%type.code==CWD)</t>
+  </si>
+  <si>
+    <t>IF((%type.code!=RGT),tseTargetGroup=%tseTargetGroup.code$totSamplesTested=%totSamplesTested.label$totSamplesPositive=%totSamplesPositive.label$totSamplesNegative=%totSamplesNegative.label$totSamplesInconclusive=%totSamplesInconclusive.label$totSamplesUnsuitable=%totSamplesUnsuitable.label,totSamplesTested=%totSamplesTested.label)</t>
+  </si>
+  <si>
+    <t>IF((%type.code!=RGT),SUM(%totSamplesPositive.label,%totSamplesNegative.label,%totSamplesInconclusive.label),)</t>
+  </si>
+  <si>
+    <t>PSU id required</t>
+  </si>
+  <si>
+    <t>Flag to include Primary Sample Unit as mandatory field</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)</t>
+  </si>
+  <si>
+    <t>(%sampEventAsses.code!=J051A)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==RGT),AT13A,AT06A)</t>
+  </si>
+  <si>
+    <t>IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,defScreeningBSE.code},)IF((%type.code==RGT),F089A,)</t>
+  </si>
+  <si>
+    <t>SCRAPIE$AT06A</t>
+  </si>
+  <si>
+    <t>IF((%type.code==SCRAPIE),BSE,%type.code)</t>
+  </si>
+  <si>
+    <t>origSampId=%origSampId.label</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,animage.code}</t>
+  </si>
+  <si>
+    <t>%paramCodeBaseTerm.code</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,progId.label}|.%progIdSuffix.code</t>
+  </si>
+  <si>
     <t>RELATION{SummarizedInformation,type.code}$%anMethType.code</t>
   </si>
   <si>
-    <t>RELATION{SummarizedInformation,progId.label}|.|ZERO_PADDING({rowId},6)</t>
-  </si>
-  <si>
-    <t>%country.code|END_TRIM(%reportYear.code,2)|END_TRIM(ZERO_PADDING(%reportMonth.code,2),2)</t>
-  </si>
-  <si>
-    <t>RELATION{Report,reportSenderId.label}|IF_NOT_NULL(RELATION{Report,reportVersion.code},.RELATION{Report,reportVersion.code},)</t>
-  </si>
-  <si>
-    <t>Born in the flock</t>
-  </si>
-  <si>
-    <t>Number of Negative Animals</t>
-  </si>
-  <si>
-    <t>Total number of Tested Samples/Animals</t>
-  </si>
-  <si>
-    <t>Executed test</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),,0)</t>
-  </si>
-  <si>
-    <t>(%type.code!=RGT)</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,progId.label}|.IF_NOT_NULL(RELATION{CasesInformation,animalId.label},A.|RELATION{CasesInformation,animalId.label},S.|RELATION{CasesInformation,sampId.label})</t>
-  </si>
-  <si>
-    <t>(RELATION{SummarizedInformation,type.code}!=RGT)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},tseTargetGroup=RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),F02.A06AM,F02.A06AL)</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),Brain,Blood)</t>
-  </si>
-  <si>
-    <t>reportYearsList</t>
-  </si>
-  <si>
-    <t>animalYearsList</t>
-  </si>
-  <si>
-    <t>reportPreviousStatus</t>
-  </si>
-  <si>
-    <t>repPreviousStatus</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH, AUTOMATICALLY FILLED</t>
-  </si>
-  <si>
-    <t>EU legal reference</t>
-  </si>
-  <si>
-    <t>Res ID</t>
-  </si>
-  <si>
-    <t>EU legislation related to the reason for sampling</t>
-  </si>
-  <si>
-    <t>Prog ID</t>
-  </si>
-  <si>
-    <t>progIdSuffix</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>AND((%anMethType.code==AT13A),(RELATION{SummarizedInformation,source.code}==F01.A057G))</t>
-  </si>
-  <si>
-    <t>IF(OR((%internalOpType.label==Reject),(%internalOpType.label==Submit)),No,Yes)</t>
-  </si>
-  <si>
-    <t>(RELATION{SummarizedInformation,source.code}==F01.A057G)</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,source.code}</t>
-  </si>
-  <si>
-    <t>IF((%internalOpType.label!=Insert),RELATION{Report,reportDatasetId.label},)</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>MTX.gender</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}==RGT),SCRAPIE,)</t>
-  </si>
-  <si>
-    <t>N123A</t>
-  </si>
-  <si>
-    <t>sexLists</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>(RELATION{SummarizedInformation,type.code}==RGT)</t>
-  </si>
-  <si>
-    <t>%progLegalRef.code|IF_NOT_NULL(RELATION{SummarizedInformation,tseTargetGroup.code},.|RELATION{SummarizedInformation,tseTargetGroup.code},)</t>
-  </si>
-  <si>
-    <t>RELATION{SummarizedInformation,progId.label}|IF((RELATION{SummarizedInformation,type.code}!=RGT),.%progIdSuffix.code,)</t>
-  </si>
-  <si>
-    <t>reportLastMessageId</t>
-  </si>
-  <si>
-    <t>reportLastModifyingMessageId</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH, used with Refresh Status/Display ack</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),RELATION{SummarizedInformation,animage.code},RELATION{CasesInformation,animage.code})</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}==CWD),RELATION{SummarizedInformation,sex.code},RELATION{CasesInformation,sex.code})</t>
-  </si>
-  <si>
-    <t>A04MQ#RELATION{SummarizedInformation,source.code}$RELATION{CasesInformation,part.code}$RELATION{SummarizedInformation,prod.code}|IF_NOT_NULL(%animage.code,$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
-  </si>
-  <si>
-    <t>A04MQ#%source.code$%prod.code|IF((%type.code!=RGT),$%animage.code,)|IF_NOT_NULL(%sex.code,$%sex.code,)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(%PSUId.label,PSUId=%PSUId.label,)</t>
-  </si>
-  <si>
-    <t>PSUId</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,animalId.code},animalId=RELATION{CasesInformation,animalId.code},)|IF_NOT_NULL(RELATION{CasesInformation,herdId.label},$herdId=RELATION{CasesInformation,herdId.label}, )|IF_NOT_NULL(RELATION{CasesInformation,sampHoldingId.label},$sampHoldingId=RELATION{CasesInformation,sampHoldingId.label},)|IF_NOT_NULL(RELATION{SummarizedInformation,PSUId.label},$PSUId=RELATION{SummarizedInformation,PSUId.label},)</t>
-  </si>
-  <si>
-    <t>Sample/case assessment</t>
-  </si>
-  <si>
-    <t>First test type</t>
-  </si>
-  <si>
-    <t>First test</t>
-  </si>
-  <si>
-    <t>Type of the first executed test</t>
-  </si>
-  <si>
-    <t>First executed test</t>
-  </si>
-  <si>
-    <t>sampInfo</t>
-  </si>
-  <si>
-    <t>D.11</t>
-  </si>
-  <si>
-    <t>origSampId</t>
-  </si>
-  <si>
-    <t>sampUnitType</t>
-  </si>
-  <si>
-    <t>C.02</t>
-  </si>
-  <si>
-    <t>G199A</t>
-  </si>
-  <si>
-    <t>H.01</t>
-  </si>
-  <si>
-    <t>anPortSeq</t>
-  </si>
-  <si>
-    <t>Portion</t>
-  </si>
-  <si>
-    <t>Portion of the analyzed sample</t>
-  </si>
-  <si>
-    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
-  </si>
-  <si>
-    <t>sampEventAsses</t>
-  </si>
-  <si>
-    <t>AND((%sampEventAsses.code!=J051A),(RELATION{SummarizedInformation,prod.code}==F21.A07RV),(RELATION{SummarizedInformation,type.code}!=RGT))</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,tseNationalCaseId.label},tseNationalCaseId=RELATION{CasesInformation,tseNationalCaseId.label}$,)|IF_NOT_NULL(RELATION{CasesInformation,tseIndexCase.code},tseIndexCase=RELATION{CasesInformation,tseIndexCase.code}$,)|IF_NOT_NULL(RELATION{CasesInformation,sampEventAsses.code},sampEventAsses=RELATION{CasesInformation,sampEventAsses.code},)|IF_NOT_NULL(RELATION{CasesInformation,evalCom.label},$com=RELATION{CasesInformation,evalCom.label},)</t>
-  </si>
-  <si>
-    <t>cwdExtCont</t>
-  </si>
-  <si>
-    <t>pref11</t>
-  </si>
-  <si>
-    <t>yesNoLists</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Sex of the animals</t>
-  </si>
-  <si>
-    <t>%type.code|$%anMethType.code</t>
-  </si>
-  <si>
-    <t>(%type.code==SCRAPIE)</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(%statusHerd.code,statusHerd=%statusHerd.code,)</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>IF(OR((%country.code==EE),(%country.code==FI),(%country.code==LV),(%country.code==LT),(%country.code==PL),(%country.code==SE)),Y,ALL)</t>
-  </si>
-  <si>
-    <t>OR((%type.code==CWD),(%type.code==BSEOS))</t>
-  </si>
-  <si>
-    <t>IF_NOT_NULL(RELATION{CasesInformation,birthCountry.code},birthCountry=RELATION{CasesInformation,birthCountry.code},)|IF_NOT_NULL(RELATION{SummarizedInformation,statusHerd.code},$statusHerd=RELATION{SummarizedInformation,statusHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthInFlockHerd.code},$birthInFlockHerd=RELATION{CasesInformation,birthInFlockHerd.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthYear.code},$birthYear=RELATION{CasesInformation,birthYear.code},)|IF_NOT_NULL(RELATION{CasesInformation,birthMonth.code},$birthMonth=RELATION{CasesInformation,birthMonth.code},)</t>
-  </si>
-  <si>
-    <t>Herd/Flock status</t>
-  </si>
-  <si>
-    <t>Husbandry system</t>
-  </si>
-  <si>
-    <t>Aggregated-Data-(Level-1)</t>
-  </si>
-  <si>
-    <t>Sample-Level-Data-(Level-2)</t>
-  </si>
-  <si>
-    <t>Analytical-Test-Results-(Level-3)</t>
-  </si>
-  <si>
-    <t>Report-Management</t>
-  </si>
-  <si>
-    <t>IF(OR((%type.code==SCRAPIE),(%type.code==BSEOS)),F,)</t>
-  </si>
-  <si>
-    <t>%progId.label|.0</t>
-  </si>
-  <si>
-    <t>%progId.label</t>
-  </si>
-  <si>
-    <t>NEXT(,)</t>
-  </si>
-  <si>
-    <t>Dataset ID</t>
-  </si>
-  <si>
-    <t>Report Status</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT), RELATION{SummarizedInformation,sampId.label}, )</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT), origSampId=%origSampId.label, )</t>
-  </si>
-  <si>
-    <t>IF((%type.code!=RGT), origSampId=%sampId.label, )</t>
-  </si>
-  <si>
-    <t>(%type.code==RGT)</t>
-  </si>
-  <si>
-    <t>F01.A057G</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),RF-00004629-PAR#allele=%allele1.label$allele=%allele2.label,RF-00004628-PAR)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),0,)</t>
-  </si>
-  <si>
-    <t>IF(OR((%type.code!=CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F32.A0C9B,)</t>
-  </si>
-  <si>
-    <t>(RELATION{SummarizedInformation,sex.code}==F32.A0C9B)</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,sex.code}!=F32.A0C9B),RELATION{SummarizedInformation,sex.code},)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)IF(AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==N)),F01.A056M,)</t>
-  </si>
-  <si>
-    <t>AND((%type.code==CWD),(RELATION{Preferences,cwdExtCont.code}==Y))</t>
-  </si>
-  <si>
-    <t>(%type.code==CWD)</t>
-  </si>
-  <si>
-    <t>IF((%type.code!=RGT),tseTargetGroup=%tseTargetGroup.code$totSamplesTested=%totSamplesTested.label$totSamplesPositive=%totSamplesPositive.label$totSamplesNegative=%totSamplesNegative.label$totSamplesInconclusive=%totSamplesInconclusive.label$totSamplesUnsuitable=%totSamplesUnsuitable.label,totSamplesTested=%totSamplesTested.label)</t>
-  </si>
-  <si>
-    <t>IF((%type.code!=RGT),SUM(%totSamplesPositive.label,%totSamplesNegative.label,%totSamplesInconclusive.label),)</t>
-  </si>
-  <si>
-    <t>PSU id required</t>
-  </si>
-  <si>
-    <t>Flag to include Primary Sample Unit as mandatory field</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),F01.A057G,)IF((%type.code==BSE),F01.A057E,)</t>
-  </si>
-  <si>
-    <t>(%sampEventAsses.code!=J051A)</t>
-  </si>
-  <si>
-    <t>IF((RELATION{SummarizedInformation,type.code}!=RGT),%paramCodeBaseTerm.code,RF-00004629-PAR)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==RGT),AT13A,AT06A)</t>
-  </si>
-  <si>
-    <t>IF((%type.code==SCRAPIE),RELATION{Preferences,defScreeningSCRAPIE.code},)IF((%type.code==CWD),RELATION{Preferences,defScreeningCWD.code},)IF(OR((%type.code==BSE),(%type.code==BSEOS)),RELATION{Preferences,defScreeningBSE.code},)IF((%type.code==RGT),F089A,)</t>
-  </si>
-  <si>
-    <t>SCRAPIE$AT06A</t>
-  </si>
-  <si>
-    <t>IF((%type.code==SCRAPIE),BSE,%type.code)</t>
+    <t>RELATION{SummarizedInformation,sampId.label}</t>
+  </si>
+  <si>
+    <t>RELATION{SummarizedInformation,type.code}%anMethType.code</t>
   </si>
 </sst>
 </file>
@@ -3445,9 +3445,6 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table25711" displayName="Table25711" ref="A1:R43" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:R43"/>
-  <sortState ref="A2:R43">
-    <sortCondition ref="A1:A43"/>
-  </sortState>
   <tableColumns count="18">
     <tableColumn id="1" name="id" dataDxfId="37"/>
     <tableColumn id="2" name="code" dataDxfId="36"/>
@@ -4153,16 +4150,16 @@
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>12</v>
@@ -4180,16 +4177,16 @@
         <v>9</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>9</v>
@@ -4233,7 +4230,7 @@
         <v>112</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R4" s="2">
         <v>3</v>
@@ -4271,7 +4268,7 @@
         <v>112</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="R5" s="2">
         <v>4</v>
@@ -4309,7 +4306,7 @@
         <v>112</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R6" s="2">
         <v>5</v>
@@ -4347,7 +4344,7 @@
         <v>112</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R7" s="2">
         <v>6</v>
@@ -4385,7 +4382,7 @@
         <v>112</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R8" s="2">
         <v>7</v>
@@ -4423,7 +4420,7 @@
         <v>112</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R9" s="2">
         <v>8</v>
@@ -4462,7 +4459,7 @@
         <v>112</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R10" s="2">
         <v>9</v>
@@ -4501,7 +4498,7 @@
         <v>112</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R11" s="2">
         <v>10</v>
@@ -4540,7 +4537,7 @@
         <v>112</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
@@ -4681,7 +4678,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="8" t="s">
@@ -4786,7 +4783,7 @@
         <v>300</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>5</v>
@@ -4912,7 +4909,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>174</v>
@@ -4943,13 +4940,13 @@
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>174</v>
@@ -4980,13 +4977,13 @@
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>174</v>
@@ -5024,10 +5021,10 @@
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>174</v>
@@ -5067,10 +5064,10 @@
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="18" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>174</v>
@@ -5103,15 +5100,15 @@
     </row>
     <row r="13" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>174</v>
@@ -5153,11 +5150,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="M23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5306,7 +5303,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>3</v>
@@ -5318,10 +5315,10 @@
         <v>312</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>5</v>
@@ -5341,7 +5338,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>69</v>
@@ -5356,7 +5353,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>3</v>
@@ -5400,10 +5397,10 @@
         <v>74</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>3</v>
@@ -5444,10 +5441,10 @@
         <v>18</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>3</v>
@@ -5470,40 +5467,40 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L7" s="29" t="s">
         <v>312</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P7"/>
       <c r="Q7" s="6" t="s">
@@ -5527,10 +5524,10 @@
         <v>89</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>12</v>
@@ -5539,10 +5536,10 @@
         <v>90</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>3</v>
@@ -5551,10 +5548,13 @@
         <v>308</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>471</v>
+        <v>464</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>464</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>9</v>
@@ -5577,10 +5577,10 @@
         <v>92</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>12</v>
@@ -5589,10 +5589,10 @@
         <v>93</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>3</v>
@@ -5601,10 +5601,13 @@
         <v>112</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>472</v>
+        <v>465</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>465</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>9</v>
@@ -5624,7 +5627,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>36</v>
@@ -5636,10 +5639,10 @@
         <v>37</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>3</v>
@@ -5651,7 +5654,10 @@
         <v>312</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>445</v>
+        <v>441</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>441</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>5</v>
@@ -5665,23 +5671,23 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>202</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>174</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>3</v>
@@ -5707,7 +5713,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>238</v>
@@ -5716,16 +5722,16 @@
         <v>8</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
@@ -5754,16 +5760,16 @@
         <v>8</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>5</v>
@@ -5792,16 +5798,16 @@
         <v>8</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>5</v>
@@ -5821,7 +5827,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>238</v>
@@ -5830,19 +5836,19 @@
         <v>8</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>5</v>
@@ -5871,16 +5877,16 @@
         <v>8</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>5</v>
@@ -5900,7 +5906,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>174</v>
@@ -5918,7 +5924,7 @@
         <v>3</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>9</v>
@@ -5945,10 +5951,10 @@
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>3</v>
@@ -5957,7 +5963,7 @@
         <v>319</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>5</v>
@@ -5987,10 +5993,10 @@
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>3</v>
@@ -5999,7 +6005,7 @@
         <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>5</v>
@@ -6077,10 +6083,10 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>347</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>174</v>
@@ -6128,7 +6134,7 @@
       </c>
       <c r="M23" s="33"/>
       <c r="P23" s="6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>9</v>
@@ -6215,7 +6221,7 @@
         <v>4</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>9</v>
@@ -6244,7 +6250,7 @@
         <v>4</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>3</v>
@@ -6366,7 +6372,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>9</v>
@@ -6398,7 +6404,7 @@
         <v>4</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>9</v>
@@ -6462,7 +6468,7 @@
         <v>4</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>9</v>
@@ -6494,7 +6500,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>9</v>
@@ -6502,13 +6508,13 @@
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>174</v>
@@ -6523,7 +6529,7 @@
         <v>4</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>9</v>
@@ -6590,7 +6596,7 @@
         <v>4</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>9</v>
@@ -6651,7 +6657,7 @@
         <v>4</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>9</v>
@@ -6730,7 +6736,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6817,13 +6823,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B2" t="s">
         <v>191</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>211</v>
@@ -6835,10 +6841,10 @@
         <v>320</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>3</v>
@@ -6926,10 +6932,10 @@
         <v>303</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>5</v>
@@ -6943,40 +6949,40 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -7005,10 +7011,10 @@
         <v>74</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>4</v>
@@ -7017,7 +7023,7 @@
         <v>111</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>5</v>
@@ -7046,7 +7052,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>3</v>
@@ -7084,7 +7090,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>3</v>
@@ -7228,7 +7234,7 @@
         <v>217</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>3</v>
@@ -7269,13 +7275,13 @@
         <v>197</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I13" s="29" t="s">
         <v>3</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>198</v>
@@ -7312,7 +7318,7 @@
         <v>42</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>3</v>
@@ -7352,7 +7358,7 @@
         <v>282</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>3</v>
@@ -7361,7 +7367,7 @@
         <v>3</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>5</v>
@@ -7388,7 +7394,7 @@
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>3</v>
@@ -7414,7 +7420,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>309</v>
@@ -7435,10 +7441,10 @@
         <v>3</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -7559,10 +7565,10 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>347</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>174</v>
@@ -7597,11 +7603,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7698,19 +7704,19 @@
         <v>12</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>319</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>5</v>
@@ -7736,19 +7742,19 @@
         <v>12</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>319</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>5</v>
@@ -7789,7 +7795,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>294</v>
@@ -7824,7 +7830,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>400</v>
+        <v>469</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>5</v>
@@ -7844,7 +7850,7 @@
         <v>142</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>12</v>
@@ -7864,8 +7870,8 @@
       <c r="K6" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>357</v>
+      <c r="L6" s="33" t="s">
+        <v>472</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>9</v>
@@ -7958,19 +7964,19 @@
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>174</v>
@@ -8037,7 +8043,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>9</v>
@@ -8045,10 +8051,10 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>174</v>
@@ -8063,7 +8069,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>5</v>
@@ -8188,7 +8194,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>396</v>
+        <v>471</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>9</v>
@@ -8196,7 +8202,7 @@
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>174</v>
@@ -8214,7 +8220,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>5</v>
@@ -8246,7 +8252,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>9</v>
@@ -8263,10 +8269,10 @@
         <v>11</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>174</v>
@@ -8284,7 +8290,7 @@
         <v>4</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>9</v>
@@ -8385,7 +8391,7 @@
         <v>95</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>256</v>
@@ -8406,7 +8412,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>9</v>
@@ -8441,7 +8447,7 @@
         <v>4</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>9</v>
@@ -8633,7 +8639,7 @@
         <v>4</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>9</v>
@@ -8662,7 +8668,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>9</v>
@@ -8708,13 +8714,13 @@
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>174</v>
@@ -8729,7 +8735,7 @@
         <v>4</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>9</v>
@@ -8793,7 +8799,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>9</v>
@@ -8889,7 +8895,7 @@
         <v>4</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>9</v>
@@ -8897,13 +8903,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>174</v>
@@ -8918,13 +8924,13 @@
         <v>4</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>9</v>
@@ -8967,7 +8973,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>57</v>
@@ -8985,7 +8991,7 @@
         <v>4</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>5</v>
@@ -9025,19 +9031,19 @@
         <v>85</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="L43" s="6" t="s">
-        <v>341</v>
+      <c r="L43" s="33" t="s">
+        <v>474</v>
       </c>
       <c r="Q43" s="6" t="s">
         <v>5</v>
@@ -9235,7 +9241,7 @@
         <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9243,7 +9249,7 @@
         <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9267,7 +9273,7 @@
         <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -9275,7 +9281,7 @@
         <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -9474,7 +9480,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="6"/>
       <c r="P4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>3</v>
@@ -9580,7 +9586,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>3</v>
@@ -9639,10 +9645,10 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -9698,15 +9704,15 @@
         <v>4</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>315</v>
